--- a/data/Transect section data 2013 and 2014.xlsx
+++ b/data/Transect section data 2013 and 2014.xlsx
@@ -11,12 +11,12 @@
     <sheet name="section data" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="49">
   <si>
     <t>Site</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>West Lodge Balmule</t>
+  </si>
+  <si>
+    <t>Annfield Farm</t>
   </si>
 </sst>
 </file>
@@ -1048,11 +1051,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F394"/>
+  <dimension ref="A1:F414"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,807 +1388,807 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>262942.62689229299</v>
+        <v>314580.70428412501</v>
       </c>
       <c r="E17">
-        <v>694708.21513022098</v>
+        <v>686785.89716332103</v>
       </c>
       <c r="F17">
-        <v>13395.35</v>
+        <v>13147.96</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>262951.905251702</v>
+        <v>314658.16456642002</v>
       </c>
       <c r="E18">
-        <v>694826.92760785599</v>
+        <v>686871.87362077099</v>
       </c>
       <c r="F18">
-        <v>10650.43</v>
+        <v>12713.55</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19">
-        <v>262952.44638433901</v>
+        <v>314673.28269048</v>
       </c>
       <c r="E19">
-        <v>694928.58606923604</v>
+        <v>686982.20362317795</v>
       </c>
       <c r="F19">
-        <v>12022.72</v>
+        <v>11130.11</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20">
-        <v>262907.65995392</v>
+        <v>314686.73077116301</v>
       </c>
       <c r="E20">
-        <v>695026.169505022</v>
+        <v>687088.56397386</v>
       </c>
       <c r="F20">
-        <v>10252.84</v>
+        <v>11517.74</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21">
-        <v>262904.069456372</v>
+        <v>314756.15480360202</v>
       </c>
       <c r="E21">
-        <v>695127.8172701</v>
+        <v>687151.76051707205</v>
       </c>
       <c r="F21">
-        <v>10277.280000000001</v>
+        <v>8399.9599999999991</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>262959.33585942502</v>
+        <v>314543.68827689101</v>
       </c>
       <c r="E22">
-        <v>694702.32153137901</v>
+        <v>686777.03119135997</v>
       </c>
       <c r="F22">
-        <v>13389.23</v>
+        <v>13426.13</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>263042.21045052801</v>
+        <v>314456.822337755</v>
       </c>
       <c r="E23">
-        <v>694787.64773755497</v>
+        <v>686863.74234932999</v>
       </c>
       <c r="F23">
-        <v>11385.41</v>
+        <v>12724.86</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24">
-        <v>263141.17969250702</v>
+        <v>314475.65802013199</v>
       </c>
       <c r="E24">
-        <v>694827.861366531</v>
+        <v>686977.94854868099</v>
       </c>
       <c r="F24">
-        <v>11046.87</v>
+        <v>16798.009999999998</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25">
-        <v>263174.17899218999</v>
+        <v>314555.13743995799</v>
       </c>
       <c r="E25">
-        <v>694936.83140687295</v>
+        <v>687106.28981578001</v>
       </c>
       <c r="F25">
-        <v>14146.68</v>
+        <v>11824.3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>263162.95269773999</v>
+        <v>314604.40339269402</v>
       </c>
       <c r="E26">
-        <v>695068.29555651103</v>
+        <v>687205.97580530006</v>
       </c>
       <c r="F26">
-        <v>12230.89</v>
+        <v>10379.67</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>262917.318336697</v>
+        <v>314585.90639018698</v>
       </c>
       <c r="E27">
-        <v>694667.54268360301</v>
+        <v>686741.024530216</v>
       </c>
       <c r="F27">
-        <v>13558.29</v>
+        <v>13540.38</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>262822.74971131003</v>
+        <v>314633.121678114</v>
       </c>
       <c r="E28">
-        <v>694595.30129074201</v>
+        <v>686631.70602882502</v>
       </c>
       <c r="F28">
-        <v>10385.780000000001</v>
+        <v>16252.52</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29">
-        <v>262750.78473828902</v>
+        <v>314587.88200305798</v>
       </c>
       <c r="E29">
-        <v>694521.79475196195</v>
+        <v>686512.63891840796</v>
       </c>
       <c r="F29">
-        <v>10146.11</v>
+        <v>11449.22</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
       <c r="D30">
-        <v>262703.64513044298</v>
+        <v>314615.846068279</v>
       </c>
       <c r="E30">
-        <v>694426.63679220795</v>
+        <v>686415.28209082503</v>
       </c>
       <c r="F30">
-        <v>12510.76</v>
+        <v>12525.79</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C31">
         <v>5</v>
       </c>
       <c r="D31">
-        <v>262700.001126786</v>
+        <v>314681.522161662</v>
       </c>
       <c r="E31">
-        <v>694304.07598606299</v>
+        <v>686341.40078942606</v>
       </c>
       <c r="F31">
-        <v>12143.5</v>
+        <v>13462.72</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>262942.96455273801</v>
+        <v>314543.57079014799</v>
       </c>
       <c r="E32">
-        <v>694652.11316263105</v>
+        <v>686776.87620186503</v>
       </c>
       <c r="F32">
-        <v>13546.88</v>
+        <v>13426.05</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>262964.14219468302</v>
+        <v>314431.28540784301</v>
       </c>
       <c r="E33">
-        <v>694535.63773319905</v>
+        <v>686827.18966172705</v>
       </c>
       <c r="F33">
-        <v>10414.049999999999</v>
+        <v>14602.86</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34">
-        <v>262986.76433636103</v>
+        <v>314338.27037969499</v>
       </c>
       <c r="E34">
-        <v>694435.97434763506</v>
+        <v>686756.42523035698</v>
       </c>
       <c r="F34">
-        <v>10075.01</v>
+        <v>19429.09</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35">
-        <v>262998.05667243199</v>
+        <v>314257.42522329302</v>
       </c>
       <c r="E35">
-        <v>694335.92245724797</v>
+        <v>686602.77489651402</v>
       </c>
       <c r="F35">
-        <v>10080.18</v>
+        <v>12121.18</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C36">
         <v>5</v>
       </c>
       <c r="D36">
-        <v>263002.72175975097</v>
+        <v>314201.34812744398</v>
       </c>
       <c r="E36">
-        <v>694235.34214037901</v>
+        <v>686499.95301127201</v>
       </c>
       <c r="F36">
-        <v>10057.43</v>
+        <v>11122.05</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>331640.73004114302</v>
+        <v>262942.62689229299</v>
       </c>
       <c r="E37">
-        <v>745996.647200017</v>
+        <v>694708.21513022098</v>
       </c>
       <c r="F37">
-        <v>14873.73</v>
+        <v>13395.35</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>331753.24295703601</v>
+        <v>262951.905251702</v>
       </c>
       <c r="E38">
-        <v>745998.76970406703</v>
+        <v>694826.92760785599</v>
       </c>
       <c r="F38">
-        <v>12846.86</v>
+        <v>10650.43</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39">
-        <v>331862.38553207199</v>
+        <v>262952.44638433901</v>
       </c>
       <c r="E39">
-        <v>746046.46014745999</v>
+        <v>694928.58606923604</v>
       </c>
       <c r="F39">
-        <v>10789.51</v>
+        <v>12022.72</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
       <c r="D40">
-        <v>331958.25014394801</v>
+        <v>262907.65995392</v>
       </c>
       <c r="E40">
-        <v>746085.16530341003</v>
+        <v>695026.169505022</v>
       </c>
       <c r="F40">
-        <v>10245.65</v>
+        <v>10252.84</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <v>5</v>
       </c>
       <c r="D41">
-        <v>332053.05992944998</v>
+        <v>262904.069456372</v>
       </c>
       <c r="E41">
-        <v>746121.89357704099</v>
+        <v>695127.8172701</v>
       </c>
       <c r="F41">
-        <v>10091.9</v>
+        <v>10277.280000000001</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>331609.99782516301</v>
+        <v>262959.33585942502</v>
       </c>
       <c r="E42">
-        <v>746040.71115218499</v>
+        <v>694702.32153137901</v>
       </c>
       <c r="F42">
-        <v>14527.05</v>
+        <v>13389.23</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43">
-        <v>331539.567849004</v>
+        <v>263042.21045052801</v>
       </c>
       <c r="E43">
-        <v>746140.33760208101</v>
+        <v>694787.64773755497</v>
       </c>
       <c r="F43">
-        <v>10279.24</v>
+        <v>11385.41</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44">
-        <v>331477.091705831</v>
+        <v>263141.17969250702</v>
       </c>
       <c r="E44">
-        <v>746220.87149591499</v>
+        <v>694827.861366531</v>
       </c>
       <c r="F44">
-        <v>10082.799999999999</v>
+        <v>11046.87</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C45">
         <v>4</v>
       </c>
       <c r="D45">
-        <v>331415.690008084</v>
+        <v>263174.17899218999</v>
       </c>
       <c r="E45">
-        <v>746300.58092854905</v>
+        <v>694936.83140687295</v>
       </c>
       <c r="F45">
-        <v>10037.6</v>
+        <v>14146.68</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C46">
         <v>5</v>
       </c>
       <c r="D46">
-        <v>331354.53763952601</v>
+        <v>263162.95269773999</v>
       </c>
       <c r="E46">
-        <v>746380.08996336104</v>
+        <v>695068.29555651103</v>
       </c>
       <c r="F46">
-        <v>10022.959999999999</v>
+        <v>12230.89</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>331634.55445139599</v>
+        <v>262917.318336697</v>
       </c>
       <c r="E47">
-        <v>745994.66917320294</v>
+        <v>694667.54268360301</v>
       </c>
       <c r="F47">
-        <v>13515.58</v>
+        <v>13558.29</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48">
-        <v>331713.53277695097</v>
+        <v>262822.74971131003</v>
       </c>
       <c r="E48">
-        <v>745905.702380314</v>
+        <v>694595.30129074201</v>
       </c>
       <c r="F48">
-        <v>10258.39</v>
+        <v>10385.780000000001</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49">
-        <v>331787.51247400802</v>
+        <v>262750.78473828902</v>
       </c>
       <c r="E49">
-        <v>745835.79599533405</v>
+        <v>694521.79475196195</v>
       </c>
       <c r="F49">
-        <v>10081.030000000001</v>
+        <v>10146.11</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
       <c r="D50">
-        <v>331860.50462097098</v>
+        <v>262703.64513044298</v>
       </c>
       <c r="E50">
-        <v>745766.56416197296</v>
+        <v>694426.63679220795</v>
       </c>
       <c r="F50">
-        <v>10036.69</v>
+        <v>12510.76</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C51">
         <v>5</v>
       </c>
       <c r="D51">
-        <v>331933.22702814703</v>
+        <v>262700.001126786</v>
       </c>
       <c r="E51">
-        <v>745697.48974765895</v>
+        <v>694304.07598606299</v>
       </c>
       <c r="F51">
-        <v>10022.459999999999</v>
+        <v>12143.5</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>331623.10276017903</v>
+        <v>262942.96455273801</v>
       </c>
       <c r="E52">
-        <v>745984.28498769703</v>
+        <v>694652.11316263105</v>
       </c>
       <c r="F52">
-        <v>16635.22</v>
+        <v>13546.88</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53">
-        <v>331538.51838270202</v>
+        <v>262964.14219468302</v>
       </c>
       <c r="E53">
-        <v>745905.90559753601</v>
+        <v>694535.63773319905</v>
       </c>
       <c r="F53">
-        <v>12536.24</v>
+        <v>10414.049999999999</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="D54">
-        <v>331430.72537442198</v>
+        <v>262986.76433636103</v>
       </c>
       <c r="E54">
-        <v>745852.37239592697</v>
+        <v>694435.97434763506</v>
       </c>
       <c r="F54">
-        <v>10632.4</v>
+        <v>10075.01</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C55">
         <v>4</v>
       </c>
       <c r="D55">
-        <v>331341.85024777497</v>
+        <v>262998.05667243199</v>
       </c>
       <c r="E55">
-        <v>745802.45158525801</v>
+        <v>694335.92245724797</v>
       </c>
       <c r="F55">
-        <v>10329.540000000001</v>
+        <v>10080.18</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C56">
         <v>5</v>
       </c>
       <c r="D56">
-        <v>331248.05879468803</v>
+        <v>263002.72175975097</v>
       </c>
       <c r="E56">
-        <v>745760.67157255695</v>
+        <v>694235.34214037901</v>
       </c>
       <c r="F56">
-        <v>10188.219999999999</v>
+        <v>10057.43</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -2194,18 +2197,18 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>274775.82518793398</v>
+        <v>331640.73004114302</v>
       </c>
       <c r="E57">
-        <v>705337.55152501795</v>
+        <v>745996.647200017</v>
       </c>
       <c r="F57">
-        <v>14453.96</v>
+        <v>14873.73</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -2214,18 +2217,18 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>274888.011434076</v>
+        <v>331753.24295703601</v>
       </c>
       <c r="E58">
-        <v>705348.85287110298</v>
+        <v>745998.76970406703</v>
       </c>
       <c r="F58">
-        <v>11616.71</v>
+        <v>12846.86</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -2234,18 +2237,18 @@
         <v>3</v>
       </c>
       <c r="D59">
-        <v>274992.03985901101</v>
+        <v>331862.38553207199</v>
       </c>
       <c r="E59">
-        <v>705380.52101537201</v>
+        <v>746046.46014745999</v>
       </c>
       <c r="F59">
-        <v>10132.43</v>
+        <v>10789.51</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -2254,18 +2257,18 @@
         <v>4</v>
       </c>
       <c r="D60">
-        <v>275089.805294875</v>
+        <v>331958.25014394801</v>
       </c>
       <c r="E60">
-        <v>705412.05013713904</v>
+        <v>746085.16530341003</v>
       </c>
       <c r="F60">
-        <v>11055.59</v>
+        <v>10245.65</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -2274,18 +2277,18 @@
         <v>5</v>
       </c>
       <c r="D61">
-        <v>275176.88060702902</v>
+        <v>332053.05992944998</v>
       </c>
       <c r="E61">
-        <v>705471.61540513404</v>
+        <v>746121.89357704099</v>
       </c>
       <c r="F61">
-        <v>10320.370000000001</v>
+        <v>10091.9</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
@@ -2294,18 +2297,18 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>274741.60535300599</v>
+        <v>331609.99782516301</v>
       </c>
       <c r="E62">
-        <v>705378.54750578594</v>
+        <v>746040.71115218499</v>
       </c>
       <c r="F62">
-        <v>13378.3</v>
+        <v>14527.05</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
@@ -2314,18 +2317,18 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>274694.04745475802</v>
+        <v>331539.567849004</v>
       </c>
       <c r="E63">
-        <v>705487.44422467996</v>
+        <v>746140.33760208101</v>
       </c>
       <c r="F63">
-        <v>10661.06</v>
+        <v>10279.24</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
@@ -2334,18 +2337,18 @@
         <v>3</v>
       </c>
       <c r="D64">
-        <v>274677.45033923298</v>
+        <v>331477.091705831</v>
       </c>
       <c r="E64">
-        <v>705585.71610527695</v>
+        <v>746220.87149591499</v>
       </c>
       <c r="F64">
-        <v>10513.7</v>
+        <v>10082.799999999999</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
@@ -2354,18 +2357,18 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>274663.434208291</v>
+        <v>331415.690008084</v>
       </c>
       <c r="E65">
-        <v>705687.63214037195</v>
+        <v>746300.58092854905</v>
       </c>
       <c r="F65">
-        <v>10070.030000000001</v>
+        <v>10037.6</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -2374,18 +2377,18 @@
         <v>5</v>
       </c>
       <c r="D66">
-        <v>274648.38121534698</v>
+        <v>331354.53763952601</v>
       </c>
       <c r="E66">
-        <v>705787.05509427702</v>
+        <v>746380.08996336104</v>
       </c>
       <c r="F66">
-        <v>10038.66</v>
+        <v>10022.959999999999</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -2394,18 +2397,18 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>274753.68921348802</v>
+        <v>331634.55445139599</v>
       </c>
       <c r="E67">
-        <v>705319.69730455999</v>
+        <v>745994.66917320294</v>
       </c>
       <c r="F67">
-        <v>14747.61</v>
+        <v>13515.58</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -2414,18 +2417,18 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>274734.111674616</v>
+        <v>331713.53277695097</v>
       </c>
       <c r="E68">
-        <v>705215.016734201</v>
+        <v>745905.702380314</v>
       </c>
       <c r="F68">
-        <v>13919.93</v>
+        <v>10258.39</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -2434,18 +2437,18 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <v>274659.34304540302</v>
+        <v>331787.51247400802</v>
       </c>
       <c r="E69">
-        <v>705116.68909966701</v>
+        <v>745835.79599533405</v>
       </c>
       <c r="F69">
-        <v>10184.09</v>
+        <v>10081.030000000001</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -2454,18 +2457,18 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>274610.034698656</v>
+        <v>331860.50462097098</v>
       </c>
       <c r="E70">
-        <v>705028.070400481</v>
+        <v>745766.56416197296</v>
       </c>
       <c r="F70">
-        <v>10085.93</v>
+        <v>10036.69</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
@@ -2474,18 +2477,18 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <v>274561.22159514402</v>
+        <v>331933.22702814703</v>
       </c>
       <c r="E71">
-        <v>704940.01418984204</v>
+        <v>745697.48974765895</v>
       </c>
       <c r="F71">
-        <v>10046.65</v>
+        <v>10022.459999999999</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B72" t="s">
         <v>21</v>
@@ -2494,18 +2497,18 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>274741.64129125798</v>
+        <v>331623.10276017903</v>
       </c>
       <c r="E72">
-        <v>705313.02397836302</v>
+        <v>745984.28498769703</v>
       </c>
       <c r="F72">
-        <v>14262.4</v>
+        <v>16635.22</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B73" t="s">
         <v>21</v>
@@ -2514,18 +2517,18 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>274631.17952950503</v>
+        <v>331538.51838270202</v>
       </c>
       <c r="E73">
-        <v>705267.96534274996</v>
+        <v>745905.90559753601</v>
       </c>
       <c r="F73">
-        <v>17889.830000000002</v>
+        <v>12536.24</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B74" t="s">
         <v>21</v>
@@ -2534,18 +2537,18 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>274523.95172905602</v>
+        <v>331430.72537442198</v>
       </c>
       <c r="E74">
-        <v>705333.38764984906</v>
+        <v>745852.37239592697</v>
       </c>
       <c r="F74">
-        <v>18965.97</v>
+        <v>10632.4</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
@@ -2554,18 +2557,18 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>274414.92072433798</v>
+        <v>331341.85024777497</v>
       </c>
       <c r="E75">
-        <v>705456.41671681497</v>
+        <v>745802.45158525801</v>
       </c>
       <c r="F75">
-        <v>10325.83</v>
+        <v>10329.540000000001</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
         <v>21</v>
@@ -2574,418 +2577,418 @@
         <v>5</v>
       </c>
       <c r="D76">
-        <v>274326.01596427098</v>
+        <v>331248.05879468803</v>
       </c>
       <c r="E76">
-        <v>705507.18669772905</v>
+        <v>745760.67157255695</v>
       </c>
       <c r="F76">
-        <v>10137.69</v>
+        <v>10188.219999999999</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>302217.74901060201</v>
+        <v>274775.82518793398</v>
       </c>
       <c r="E77">
-        <v>716434.72205571097</v>
+        <v>705337.55152501795</v>
       </c>
       <c r="F77">
-        <v>13324.55</v>
+        <v>14453.96</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78">
-        <v>302322.11623667198</v>
+        <v>274888.011434076</v>
       </c>
       <c r="E78">
-        <v>716494.51319356903</v>
+        <v>705348.85287110298</v>
       </c>
       <c r="F78">
-        <v>14059.72</v>
+        <v>11616.71</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C79">
         <v>3</v>
       </c>
       <c r="D79">
-        <v>302364.228173159</v>
+        <v>274992.03985901101</v>
       </c>
       <c r="E79">
-        <v>716596.08180900896</v>
+        <v>705380.52101537201</v>
       </c>
       <c r="F79">
-        <v>11357.94</v>
+        <v>10132.43</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C80">
         <v>4</v>
       </c>
       <c r="D80">
-        <v>302384.97463561402</v>
+        <v>275089.805294875</v>
       </c>
       <c r="E80">
-        <v>716709.41459317203</v>
+        <v>705412.05013713904</v>
       </c>
       <c r="F80">
-        <v>12068.26</v>
+        <v>11055.59</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C81">
         <v>5</v>
       </c>
       <c r="D81">
-        <v>302392.594604899</v>
+        <v>275176.88060702902</v>
       </c>
       <c r="E81">
-        <v>716801.56710442703</v>
+        <v>705471.61540513404</v>
       </c>
       <c r="F81">
-        <v>6308.63</v>
+        <v>10320.370000000001</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>302215.20658430702</v>
+        <v>274741.60535300599</v>
       </c>
       <c r="E82">
-        <v>716403.95379308704</v>
+        <v>705378.54750578594</v>
       </c>
       <c r="F82">
-        <v>14586.54</v>
+        <v>13378.3</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83">
-        <v>302245.14762587397</v>
+        <v>274694.04745475802</v>
       </c>
       <c r="E83">
-        <v>716296.224366943</v>
+        <v>705487.44422467996</v>
       </c>
       <c r="F83">
-        <v>13387.98</v>
+        <v>10661.06</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
       <c r="D84">
-        <v>302230.40220159898</v>
+        <v>274677.45033923298</v>
       </c>
       <c r="E84">
-        <v>716176.85555519303</v>
+        <v>705585.71610527695</v>
       </c>
       <c r="F84">
-        <v>10518.88</v>
+        <v>10513.7</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C85">
         <v>4</v>
       </c>
       <c r="D85">
-        <v>302227.09634800197</v>
+        <v>274663.434208291</v>
       </c>
       <c r="E85">
-        <v>716074.97096844402</v>
+        <v>705687.63214037195</v>
       </c>
       <c r="F85">
-        <v>10441.700000000001</v>
+        <v>10070.030000000001</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C86">
         <v>5</v>
       </c>
       <c r="D86">
-        <v>302242.43572232698</v>
+        <v>274648.38121534698</v>
       </c>
       <c r="E86">
-        <v>715983.44661377801</v>
+        <v>705787.05509427702</v>
       </c>
       <c r="F86">
-        <v>9207.0499999999993</v>
+        <v>10038.66</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>302163.39728623797</v>
+        <v>274753.68921348802</v>
       </c>
       <c r="E87">
-        <v>716416.69026210904</v>
+        <v>705319.69730455999</v>
       </c>
       <c r="F87">
-        <v>13271.52</v>
+        <v>14747.61</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88">
-        <v>302052.46201881103</v>
+        <v>274734.111674616</v>
       </c>
       <c r="E88">
-        <v>716376.98252245097</v>
+        <v>705215.016734201</v>
       </c>
       <c r="F88">
-        <v>10227.219999999999</v>
+        <v>13919.93</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
       <c r="D89">
-        <v>301957.09977937298</v>
+        <v>274659.34304540302</v>
       </c>
       <c r="E89">
-        <v>716342.12326657504</v>
+        <v>705116.68909966701</v>
       </c>
       <c r="F89">
-        <v>10067.86</v>
+        <v>10184.09</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C90">
         <v>4</v>
       </c>
       <c r="D90">
-        <v>301861.47562691802</v>
+        <v>274610.034698656</v>
       </c>
       <c r="E90">
-        <v>716310.99881534302</v>
+        <v>705028.070400481</v>
       </c>
       <c r="F90">
-        <v>10090.35</v>
+        <v>10085.93</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C91">
         <v>5</v>
       </c>
       <c r="D91">
-        <v>301761.98686697299</v>
+        <v>274561.22159514402</v>
       </c>
       <c r="E91">
-        <v>716289.61642854102</v>
+        <v>704940.01418984204</v>
       </c>
       <c r="F91">
-        <v>10410.290000000001</v>
+        <v>10046.65</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>351823.769065434</v>
+        <v>274741.64129125798</v>
       </c>
       <c r="E92">
-        <v>683513.66780449694</v>
+        <v>705313.02397836302</v>
       </c>
       <c r="F92">
-        <v>18253.419999999998</v>
+        <v>14262.4</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
       <c r="D93">
-        <v>351818.926212235</v>
+        <v>274631.17952950503</v>
       </c>
       <c r="E93">
-        <v>683621.21239595395</v>
+        <v>705267.96534274996</v>
       </c>
       <c r="F93">
-        <v>19459.23</v>
+        <v>17889.830000000002</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
       <c r="D94">
-        <v>351963.55739050702</v>
+        <v>274523.95172905602</v>
       </c>
       <c r="E94">
-        <v>683701.38697474101</v>
+        <v>705333.38764984906</v>
       </c>
       <c r="F94">
-        <v>11384.99</v>
+        <v>18965.97</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C95">
         <v>4</v>
       </c>
       <c r="D95">
-        <v>352060.523044464</v>
+        <v>274414.92072433798</v>
       </c>
       <c r="E95">
-        <v>683754.93433200801</v>
+        <v>705456.41671681497</v>
       </c>
       <c r="F95">
-        <v>10597.78</v>
+        <v>10325.83</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C96">
         <v>5</v>
       </c>
       <c r="D96">
-        <v>352151.86507308797</v>
+        <v>274326.01596427098</v>
       </c>
       <c r="E96">
-        <v>683806.35573374399</v>
+        <v>705507.18669772905</v>
       </c>
       <c r="F96">
-        <v>10331.41</v>
+        <v>10137.69</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
@@ -2994,18 +2997,18 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>351805.05073602602</v>
+        <v>302217.74901060201</v>
       </c>
       <c r="E97">
-        <v>683512.05443678598</v>
+        <v>716434.72205571097</v>
       </c>
       <c r="F97">
-        <v>13468.56</v>
+        <v>13324.55</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B98" t="s">
         <v>20</v>
@@ -3014,18 +3017,18 @@
         <v>2</v>
       </c>
       <c r="D98">
-        <v>351740.62251459301</v>
+        <v>302322.11623667198</v>
       </c>
       <c r="E98">
-        <v>683607.83668523503</v>
+        <v>716494.51319356903</v>
       </c>
       <c r="F98">
-        <v>14484.54</v>
+        <v>14059.72</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
@@ -3034,18 +3037,18 @@
         <v>3</v>
       </c>
       <c r="D99">
-        <v>351728.63233532402</v>
+        <v>302364.228173159</v>
       </c>
       <c r="E99">
-        <v>683725.38890077395</v>
+        <v>716596.08180900896</v>
       </c>
       <c r="F99">
-        <v>10789.6</v>
+        <v>11357.94</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
@@ -3054,18 +3057,18 @@
         <v>4</v>
       </c>
       <c r="D100">
-        <v>351720.25318400603</v>
+        <v>302384.97463561402</v>
       </c>
       <c r="E100">
-        <v>683827.17480158596</v>
+        <v>716709.41459317203</v>
       </c>
       <c r="F100">
-        <v>14216.57</v>
+        <v>12068.26</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
@@ -3074,18 +3077,18 @@
         <v>5</v>
       </c>
       <c r="D101">
-        <v>351753.00968537497</v>
+        <v>302392.594604899</v>
       </c>
       <c r="E101">
-        <v>683933.86941516295</v>
+        <v>716801.56710442703</v>
       </c>
       <c r="F101">
-        <v>12221.06</v>
+        <v>6308.63</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B102" t="s">
         <v>22</v>
@@ -3094,18 +3097,18 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>351848.38319377101</v>
+        <v>302215.20658430702</v>
       </c>
       <c r="E102">
-        <v>683477.08049150102</v>
+        <v>716403.95379308704</v>
       </c>
       <c r="F102">
-        <v>13599.14</v>
+        <v>14586.54</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B103" t="s">
         <v>22</v>
@@ -3114,18 +3117,18 @@
         <v>2</v>
       </c>
       <c r="D103">
-        <v>351922.68313375901</v>
+        <v>302245.14762587397</v>
       </c>
       <c r="E103">
-        <v>683383.83070783096</v>
+        <v>716296.224366943</v>
       </c>
       <c r="F103">
-        <v>10316.15</v>
+        <v>13387.98</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B104" t="s">
         <v>22</v>
@@ -3134,18 +3137,18 @@
         <v>3</v>
       </c>
       <c r="D104">
-        <v>351967.513249151</v>
+        <v>302230.40220159898</v>
       </c>
       <c r="E104">
-        <v>683292.04671209794</v>
+        <v>716176.85555519303</v>
       </c>
       <c r="F104">
-        <v>10395.14</v>
+        <v>10518.88</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B105" t="s">
         <v>22</v>
@@ -3154,18 +3157,18 @@
         <v>4</v>
       </c>
       <c r="D105">
-        <v>352019.66329390003</v>
+        <v>302227.09634800197</v>
       </c>
       <c r="E105">
-        <v>683204.82128131494</v>
+        <v>716074.97096844402</v>
       </c>
       <c r="F105">
-        <v>10031.200000000001</v>
+        <v>10441.700000000001</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B106" t="s">
         <v>22</v>
@@ -3174,18 +3177,18 @@
         <v>5</v>
       </c>
       <c r="D106">
-        <v>352074.41156596801</v>
+        <v>302242.43572232698</v>
       </c>
       <c r="E106">
-        <v>683120.86915582896</v>
+        <v>715983.44661377801</v>
       </c>
       <c r="F106">
-        <v>10013.629999999999</v>
+        <v>9207.0499999999993</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B107" t="s">
         <v>21</v>
@@ -3194,18 +3197,18 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>351805.61868892598</v>
+        <v>302163.39728623797</v>
       </c>
       <c r="E107">
-        <v>683511.62070683297</v>
+        <v>716416.69026210904</v>
       </c>
       <c r="F107">
-        <v>13590.93</v>
+        <v>13271.52</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B108" t="s">
         <v>21</v>
@@ -3214,18 +3217,18 @@
         <v>2</v>
       </c>
       <c r="D108">
-        <v>351691.14420021698</v>
+        <v>302052.46201881103</v>
       </c>
       <c r="E108">
-        <v>683536.96998266596</v>
+        <v>716376.98252245097</v>
       </c>
       <c r="F108">
-        <v>15193.47</v>
+        <v>10227.219999999999</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B109" t="s">
         <v>21</v>
@@ -3234,18 +3237,18 @@
         <v>3</v>
       </c>
       <c r="D109">
-        <v>351585.97008781001</v>
+        <v>301957.09977937298</v>
       </c>
       <c r="E109">
-        <v>683455.25333973404</v>
+        <v>716342.12326657504</v>
       </c>
       <c r="F109">
-        <v>11476.12</v>
+        <v>10067.86</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B110" t="s">
         <v>21</v>
@@ -3254,18 +3257,18 @@
         <v>4</v>
       </c>
       <c r="D110">
-        <v>351495.740747398</v>
+        <v>301861.47562691802</v>
       </c>
       <c r="E110">
-        <v>683391.77704053698</v>
+        <v>716310.99881534302</v>
       </c>
       <c r="F110">
-        <v>10398.780000000001</v>
+        <v>10090.35</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B111" t="s">
         <v>21</v>
@@ -3274,18 +3277,18 @@
         <v>5</v>
       </c>
       <c r="D111">
-        <v>351407.95824454399</v>
+        <v>301761.98686697299</v>
       </c>
       <c r="E111">
-        <v>683338.198898445</v>
+        <v>716289.61642854102</v>
       </c>
       <c r="F111">
-        <v>10151.86</v>
+        <v>10410.290000000001</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B112" t="s">
         <v>26</v>
@@ -3294,18 +3297,18 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>359339.36830062902</v>
+        <v>351823.769065434</v>
       </c>
       <c r="E112">
-        <v>673283.94308323599</v>
+        <v>683513.66780449694</v>
       </c>
       <c r="F112">
-        <v>11806.96</v>
+        <v>18253.419999999998</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B113" t="s">
         <v>26</v>
@@ -3314,18 +3317,18 @@
         <v>2</v>
       </c>
       <c r="D113">
-        <v>359440.45451451797</v>
+        <v>351818.926212235</v>
       </c>
       <c r="E113">
-        <v>673261.97500414494</v>
+        <v>683621.21239595395</v>
       </c>
       <c r="F113">
-        <v>12212.55</v>
+        <v>19459.23</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B114" t="s">
         <v>26</v>
@@ -3334,18 +3337,18 @@
         <v>3</v>
       </c>
       <c r="D114">
-        <v>359550.77715207799</v>
+        <v>351963.55739050702</v>
       </c>
       <c r="E114">
-        <v>673293.59078979003</v>
+        <v>683701.38697474101</v>
       </c>
       <c r="F114">
-        <v>10723.9</v>
+        <v>11384.99</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B115" t="s">
         <v>26</v>
@@ -3354,18 +3357,18 @@
         <v>4</v>
       </c>
       <c r="D115">
-        <v>359651.87469701999</v>
+        <v>352060.523044464</v>
       </c>
       <c r="E115">
-        <v>673324.17904437101</v>
+        <v>683754.93433200801</v>
       </c>
       <c r="F115">
-        <v>10327.030000000001</v>
+        <v>10597.78</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B116" t="s">
         <v>26</v>
@@ -3374,18 +3377,18 @@
         <v>5</v>
       </c>
       <c r="D116">
-        <v>359750.44907921302</v>
+        <v>352151.86507308797</v>
       </c>
       <c r="E116">
-        <v>673353.80513899901</v>
+        <v>683806.35573374399</v>
       </c>
       <c r="F116">
-        <v>10240.9</v>
+        <v>10331.41</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B117" t="s">
         <v>20</v>
@@ -3394,18 +3397,18 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>359316.39302152803</v>
+        <v>351805.05073602602</v>
       </c>
       <c r="E117">
-        <v>673326.999545375</v>
+        <v>683512.05443678598</v>
       </c>
       <c r="F117">
-        <v>18498.810000000001</v>
+        <v>13468.56</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B118" t="s">
         <v>20</v>
@@ -3414,18 +3417,18 @@
         <v>2</v>
       </c>
       <c r="D118">
-        <v>359254.15062805999</v>
+        <v>351740.62251459301</v>
       </c>
       <c r="E118">
-        <v>673444.75187184999</v>
+        <v>683607.83668523503</v>
       </c>
       <c r="F118">
-        <v>10765.47</v>
+        <v>14484.54</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B119" t="s">
         <v>20</v>
@@ -3434,18 +3437,18 @@
         <v>3</v>
       </c>
       <c r="D119">
-        <v>359238.70531372301</v>
+        <v>351728.63233532402</v>
       </c>
       <c r="E119">
-        <v>673544.11941169505</v>
+        <v>683725.38890077395</v>
       </c>
       <c r="F119">
-        <v>10895.06</v>
+        <v>10789.6</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B120" t="s">
         <v>20</v>
@@ -3454,18 +3457,18 @@
         <v>4</v>
       </c>
       <c r="D120">
-        <v>359193.08946708601</v>
+        <v>351720.25318400603</v>
       </c>
       <c r="E120">
-        <v>673637.370111675</v>
+        <v>683827.17480158596</v>
       </c>
       <c r="F120">
-        <v>10174.09</v>
+        <v>14216.57</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B121" t="s">
         <v>20</v>
@@ -3474,18 +3477,18 @@
         <v>5</v>
       </c>
       <c r="D121">
-        <v>359145.25649995101</v>
+        <v>351753.00968537497</v>
       </c>
       <c r="E121">
-        <v>673725.93951140402</v>
+        <v>683933.86941516295</v>
       </c>
       <c r="F121">
-        <v>9932.19</v>
+        <v>12221.06</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B122" t="s">
         <v>22</v>
@@ -3494,18 +3497,18 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>359339.43470361701</v>
+        <v>351848.38319377101</v>
       </c>
       <c r="E122">
-        <v>673283.79072006897</v>
+        <v>683477.08049150102</v>
       </c>
       <c r="F122">
-        <v>11832.28</v>
+        <v>13599.14</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B123" t="s">
         <v>22</v>
@@ -3514,18 +3517,18 @@
         <v>2</v>
       </c>
       <c r="D123">
-        <v>359429.87999622501</v>
+        <v>351922.68313375901</v>
       </c>
       <c r="E123">
-        <v>673236.22817819298</v>
+        <v>683383.83070783096</v>
       </c>
       <c r="F123">
-        <v>11079.02</v>
+        <v>10316.15</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B124" t="s">
         <v>22</v>
@@ -3534,18 +3537,18 @@
         <v>3</v>
       </c>
       <c r="D124">
-        <v>359501.70496883203</v>
+        <v>351967.513249151</v>
       </c>
       <c r="E124">
-        <v>673157.72884494695</v>
+        <v>683292.04671209794</v>
       </c>
       <c r="F124">
-        <v>10403.69</v>
+        <v>10395.14</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B125" t="s">
         <v>22</v>
@@ -3554,18 +3557,18 @@
         <v>4</v>
       </c>
       <c r="D125">
-        <v>359565.24231637601</v>
+        <v>352019.66329390003</v>
       </c>
       <c r="E125">
-        <v>673078.21144004702</v>
+        <v>683204.82128131494</v>
       </c>
       <c r="F125">
-        <v>9891.83</v>
+        <v>10031.200000000001</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B126" t="s">
         <v>22</v>
@@ -3574,18 +3577,18 @@
         <v>5</v>
       </c>
       <c r="D126">
-        <v>359606.11597314797</v>
+        <v>352074.41156596801</v>
       </c>
       <c r="E126">
-        <v>673036.51215221803</v>
+        <v>683120.86915582896</v>
       </c>
       <c r="F126">
-        <v>775.69</v>
+        <v>10013.629999999999</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B127" t="s">
         <v>21</v>
@@ -3594,18 +3597,18 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>359301.95297427598</v>
+        <v>351805.61868892598</v>
       </c>
       <c r="E127">
-        <v>673266.19951838499</v>
+        <v>683511.62070683297</v>
       </c>
       <c r="F127">
-        <v>12470.42</v>
+        <v>13590.93</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B128" t="s">
         <v>21</v>
@@ -3614,18 +3617,18 @@
         <v>2</v>
       </c>
       <c r="D128">
-        <v>359202.78576886398</v>
+        <v>351691.14420021698</v>
       </c>
       <c r="E128">
-        <v>673204.943493078</v>
+        <v>683536.96998266596</v>
       </c>
       <c r="F128">
-        <v>11630.27</v>
+        <v>15193.47</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B129" t="s">
         <v>21</v>
@@ -3634,18 +3637,18 @@
         <v>3</v>
       </c>
       <c r="D129">
-        <v>359094.65227993799</v>
+        <v>351585.97008781001</v>
       </c>
       <c r="E129">
-        <v>673175.02502330102</v>
+        <v>683455.25333973404</v>
       </c>
       <c r="F129">
-        <v>10493.63</v>
+        <v>11476.12</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B130" t="s">
         <v>21</v>
@@ -3654,18 +3657,18 @@
         <v>4</v>
       </c>
       <c r="D130">
-        <v>358995.32319472299</v>
+        <v>351495.740747398</v>
       </c>
       <c r="E130">
-        <v>673145.38120679499</v>
+        <v>683391.77704053698</v>
       </c>
       <c r="F130">
-        <v>10192.93</v>
+        <v>10398.780000000001</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B131" t="s">
         <v>21</v>
@@ -3674,18 +3677,18 @@
         <v>5</v>
       </c>
       <c r="D131">
-        <v>358898.063229664</v>
+        <v>351407.95824454399</v>
       </c>
       <c r="E131">
-        <v>673115.77431429201</v>
+        <v>683338.198898445</v>
       </c>
       <c r="F131">
-        <v>10132.040000000001</v>
+        <v>10151.86</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B132" t="s">
         <v>26</v>
@@ -3694,18 +3697,18 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>338340.28303186799</v>
+        <v>359339.36830062902</v>
       </c>
       <c r="E132">
-        <v>672939.29755412601</v>
+        <v>673283.94308323599</v>
       </c>
       <c r="F132">
-        <v>14031.7</v>
+        <v>11806.96</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B133" t="s">
         <v>26</v>
@@ -3714,18 +3717,18 @@
         <v>2</v>
       </c>
       <c r="D133">
-        <v>338451.64469602401</v>
+        <v>359440.45451451797</v>
       </c>
       <c r="E133">
-        <v>672980.57021877205</v>
+        <v>673261.97500414494</v>
       </c>
       <c r="F133">
-        <v>10586.45</v>
+        <v>12212.55</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B134" t="s">
         <v>26</v>
@@ -3734,18 +3737,18 @@
         <v>3</v>
       </c>
       <c r="D134">
-        <v>338551.41507445701</v>
+        <v>359550.77715207799</v>
       </c>
       <c r="E134">
-        <v>672976.91484957899</v>
+        <v>673293.59078979003</v>
       </c>
       <c r="F134">
-        <v>15760.55</v>
+        <v>10723.9</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B135" t="s">
         <v>26</v>
@@ -3754,18 +3757,18 @@
         <v>4</v>
       </c>
       <c r="D135">
-        <v>338656.75003453699</v>
+        <v>359651.87469701999</v>
       </c>
       <c r="E135">
-        <v>672984.14817874797</v>
+        <v>673324.17904437101</v>
       </c>
       <c r="F135">
-        <v>11233.27</v>
+        <v>10327.030000000001</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B136" t="s">
         <v>26</v>
@@ -3774,118 +3777,118 @@
         <v>5</v>
       </c>
       <c r="D136">
-        <v>338746.69440809602</v>
+        <v>359750.44907921302</v>
       </c>
       <c r="E136">
-        <v>673046.54353913805</v>
+        <v>673353.80513899901</v>
       </c>
       <c r="F136">
-        <v>10595.07</v>
+        <v>10240.9</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B137" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>338287.01818000898</v>
+        <v>359316.39302152803</v>
       </c>
       <c r="E137">
-        <v>672918.83790816402</v>
+        <v>673326.999545375</v>
       </c>
       <c r="F137">
-        <v>15620.12</v>
+        <v>18498.810000000001</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B138" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138">
-        <v>338185.971314536</v>
+        <v>359254.15062805999</v>
       </c>
       <c r="E138">
-        <v>672954.43599964899</v>
+        <v>673444.75187184999</v>
       </c>
       <c r="F138">
-        <v>15790.33</v>
+        <v>10765.47</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B139" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C139">
         <v>3</v>
       </c>
       <c r="D139">
-        <v>338104.68357526202</v>
+        <v>359238.70531372301</v>
       </c>
       <c r="E139">
-        <v>673071.97095921205</v>
+        <v>673544.11941169505</v>
       </c>
       <c r="F139">
-        <v>12344.51</v>
+        <v>10895.06</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B140" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C140">
         <v>4</v>
       </c>
       <c r="D140">
-        <v>337992.94232774002</v>
+        <v>359193.08946708601</v>
       </c>
       <c r="E140">
-        <v>673060.00362159195</v>
+        <v>673637.370111675</v>
       </c>
       <c r="F140">
-        <v>13570.34</v>
+        <v>10174.09</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B141" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C141">
         <v>5</v>
       </c>
       <c r="D141">
-        <v>337872.93025067297</v>
+        <v>359145.25649995101</v>
       </c>
       <c r="E141">
-        <v>673012.52836626302</v>
+        <v>673725.93951140402</v>
       </c>
       <c r="F141">
-        <v>11823.66</v>
+        <v>9932.19</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B142" t="s">
         <v>22</v>
@@ -3894,18 +3897,18 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>338294.89480201702</v>
+        <v>359339.43470361701</v>
       </c>
       <c r="E142">
-        <v>672912.24933505501</v>
+        <v>673283.79072006897</v>
       </c>
       <c r="F142">
-        <v>14734.87</v>
+        <v>11832.28</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B143" t="s">
         <v>22</v>
@@ -3914,18 +3917,18 @@
         <v>2</v>
       </c>
       <c r="D143">
-        <v>338278.50924890302</v>
+        <v>359429.87999622501</v>
       </c>
       <c r="E143">
-        <v>672801.73572987597</v>
+        <v>673236.22817819298</v>
       </c>
       <c r="F143">
-        <v>14433.35</v>
+        <v>11079.02</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B144" t="s">
         <v>22</v>
@@ -3934,18 +3937,18 @@
         <v>3</v>
       </c>
       <c r="D144">
-        <v>338278.45387939602</v>
+        <v>359501.70496883203</v>
       </c>
       <c r="E144">
-        <v>672689.33154415304</v>
+        <v>673157.72884494695</v>
       </c>
       <c r="F144">
-        <v>11555.11</v>
+        <v>10403.69</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B145" t="s">
         <v>22</v>
@@ -3954,18 +3957,18 @@
         <v>4</v>
       </c>
       <c r="D145">
-        <v>338207.62901711703</v>
+        <v>359565.24231637601</v>
       </c>
       <c r="E145">
-        <v>672601.38573771506</v>
+        <v>673078.21144004702</v>
       </c>
       <c r="F145">
-        <v>10876.45</v>
+        <v>9891.83</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B146" t="s">
         <v>22</v>
@@ -3974,818 +3977,818 @@
         <v>5</v>
       </c>
       <c r="D146">
-        <v>338137.33776050399</v>
+        <v>359606.11597314797</v>
       </c>
       <c r="E146">
-        <v>672520.44445976405</v>
+        <v>673036.51215221803</v>
       </c>
       <c r="F146">
-        <v>10520.41</v>
+        <v>775.69</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B147" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>352158.36036711902</v>
+        <v>359301.95297427598</v>
       </c>
       <c r="E147">
-        <v>682199.97991059104</v>
+        <v>673266.19951838499</v>
       </c>
       <c r="F147">
-        <v>15928.68</v>
+        <v>12470.42</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B148" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
       <c r="D148">
-        <v>352240.50320374698</v>
+        <v>359202.78576886398</v>
       </c>
       <c r="E148">
-        <v>682270.99358914199</v>
+        <v>673204.943493078</v>
       </c>
       <c r="F148">
-        <v>13359.72</v>
+        <v>11630.27</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B149" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C149">
         <v>3</v>
       </c>
       <c r="D149">
-        <v>352365.649808024</v>
+        <v>359094.65227993799</v>
       </c>
       <c r="E149">
-        <v>682289.48400392104</v>
+        <v>673175.02502330102</v>
       </c>
       <c r="F149">
-        <v>10594.62</v>
+        <v>10493.63</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B150" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C150">
         <v>4</v>
       </c>
       <c r="D150">
-        <v>352468.56682152901</v>
+        <v>358995.32319472299</v>
       </c>
       <c r="E150">
-        <v>682308.32888866798</v>
+        <v>673145.38120679499</v>
       </c>
       <c r="F150">
-        <v>10273.49</v>
+        <v>10192.93</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B151" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C151">
         <v>5</v>
       </c>
       <c r="D151">
-        <v>352569.04801903298</v>
+        <v>358898.063229664</v>
       </c>
       <c r="E151">
-        <v>682327.12120323395</v>
+        <v>673115.77431429201</v>
       </c>
       <c r="F151">
-        <v>10156.66</v>
+        <v>10132.040000000001</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>352156.000260361</v>
+        <v>338340.28303186799</v>
       </c>
       <c r="E152">
-        <v>682199.70540642401</v>
+        <v>672939.29755412601</v>
       </c>
       <c r="F152">
-        <v>15591.14</v>
+        <v>14031.7</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B153" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
       <c r="D153">
-        <v>352220.98958747397</v>
+        <v>338451.64469602401</v>
       </c>
       <c r="E153">
-        <v>682287.82209469401</v>
+        <v>672980.57021877205</v>
       </c>
       <c r="F153">
-        <v>15510.06</v>
+        <v>10586.45</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B154" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C154">
         <v>3</v>
       </c>
       <c r="D154">
-        <v>352249.40050707199</v>
+        <v>338551.41507445701</v>
       </c>
       <c r="E154">
-        <v>682393.04439407599</v>
+        <v>672976.91484957899</v>
       </c>
       <c r="F154">
-        <v>12862.57</v>
+        <v>15760.55</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B155" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C155">
         <v>4</v>
       </c>
       <c r="D155">
-        <v>352220.683432933</v>
+        <v>338656.75003453699</v>
       </c>
       <c r="E155">
-        <v>682511.83239648305</v>
+        <v>672984.14817874797</v>
       </c>
       <c r="F155">
-        <v>11058.9</v>
+        <v>11233.27</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C156">
         <v>5</v>
       </c>
       <c r="D156">
-        <v>352196.71159580699</v>
+        <v>338746.69440809602</v>
       </c>
       <c r="E156">
-        <v>682617.717698263</v>
+        <v>673046.54353913805</v>
       </c>
       <c r="F156">
-        <v>10583.35</v>
+        <v>10595.07</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B157" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>352172.949970229</v>
+        <v>338287.01818000898</v>
       </c>
       <c r="E157">
-        <v>682159.93041280296</v>
+        <v>672918.83790816402</v>
       </c>
       <c r="F157">
-        <v>15227.93</v>
+        <v>15620.12</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B158" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C158">
         <v>2</v>
       </c>
       <c r="D158">
-        <v>352276.15803758497</v>
+        <v>338185.971314536</v>
       </c>
       <c r="E158">
-        <v>682099.51375001005</v>
+        <v>672954.43599964899</v>
       </c>
       <c r="F158">
-        <v>11543.12</v>
+        <v>15790.33</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B159" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C159">
         <v>3</v>
       </c>
       <c r="D159">
-        <v>352325.98023240198</v>
+        <v>338104.68357526202</v>
       </c>
       <c r="E159">
-        <v>682008.81712221401</v>
+        <v>673071.97095921205</v>
       </c>
       <c r="F159">
-        <v>14682.63</v>
+        <v>12344.51</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B160" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C160">
         <v>4</v>
       </c>
       <c r="D160">
-        <v>352324.71371178899</v>
+        <v>337992.94232774002</v>
       </c>
       <c r="E160">
-        <v>681873.37838588597</v>
+        <v>673060.00362159195</v>
       </c>
       <c r="F160">
-        <v>11730.59</v>
+        <v>13570.34</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B161" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C161">
         <v>5</v>
       </c>
       <c r="D161">
-        <v>352318.45104509802</v>
+        <v>337872.93025067297</v>
       </c>
       <c r="E161">
-        <v>681758.01817358902</v>
+        <v>673012.52836626302</v>
       </c>
       <c r="F161">
-        <v>11307.09</v>
+        <v>11823.66</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>352141.36970728799</v>
+        <v>338294.89480201702</v>
       </c>
       <c r="E162">
-        <v>682200.49051858601</v>
+        <v>672912.24933505501</v>
       </c>
       <c r="F162">
-        <v>17358.43</v>
+        <v>14734.87</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B163" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
       <c r="D163">
-        <v>352032.41254864901</v>
+        <v>338278.50924890302</v>
       </c>
       <c r="E163">
-        <v>682230.06806858</v>
+        <v>672801.73572987597</v>
       </c>
       <c r="F163">
-        <v>14132.45</v>
+        <v>14433.35</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B164" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C164">
         <v>3</v>
       </c>
       <c r="D164">
-        <v>351901.85441080201</v>
+        <v>338278.45387939602</v>
       </c>
       <c r="E164">
-        <v>682197.09599951701</v>
+        <v>672689.33154415304</v>
       </c>
       <c r="F164">
-        <v>10522.24</v>
+        <v>11555.11</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B165" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C165">
         <v>4</v>
       </c>
       <c r="D165">
-        <v>351799.671368943</v>
+        <v>338207.62901711703</v>
       </c>
       <c r="E165">
-        <v>682176.18972526502</v>
+        <v>672601.38573771506</v>
       </c>
       <c r="F165">
-        <v>10290.299999999999</v>
+        <v>10876.45</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B166" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C166">
         <v>5</v>
       </c>
       <c r="D166">
-        <v>351699.273567939</v>
+        <v>338137.33776050399</v>
       </c>
       <c r="E166">
-        <v>682164.32319062296</v>
+        <v>672520.44445976405</v>
       </c>
       <c r="F166">
-        <v>10025.74</v>
+        <v>10520.41</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B167" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>354264.328190809</v>
+        <v>352158.36036711902</v>
       </c>
       <c r="E167">
-        <v>678685.09253831103</v>
+        <v>682199.97991059104</v>
       </c>
       <c r="F167">
-        <v>14250.45</v>
+        <v>15928.68</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B168" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C168">
         <v>2</v>
       </c>
       <c r="D168">
-        <v>354162.42942524201</v>
+        <v>352240.50320374698</v>
       </c>
       <c r="E168">
-        <v>678748.58025229804</v>
+        <v>682270.99358914199</v>
       </c>
       <c r="F168">
-        <v>13542.41</v>
+        <v>13359.72</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B169" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C169">
         <v>3</v>
       </c>
       <c r="D169">
-        <v>354122.00298734597</v>
+        <v>352365.649808024</v>
       </c>
       <c r="E169">
-        <v>678847.45344207797</v>
+        <v>682289.48400392104</v>
       </c>
       <c r="F169">
-        <v>11929.63</v>
+        <v>10594.62</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B170" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C170">
         <v>4</v>
       </c>
       <c r="D170">
-        <v>354096.01511414698</v>
+        <v>352468.56682152901</v>
       </c>
       <c r="E170">
-        <v>678964.71228278696</v>
+        <v>682308.32888866798</v>
       </c>
       <c r="F170">
-        <v>18122.68</v>
+        <v>10273.49</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B171" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C171">
         <v>5</v>
       </c>
       <c r="D171">
-        <v>354127.906084763</v>
+        <v>352569.04801903298</v>
       </c>
       <c r="E171">
-        <v>679064.58883499797</v>
+        <v>682327.12120323395</v>
       </c>
       <c r="F171">
-        <v>27575.79</v>
+        <v>10156.66</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B172" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>354296.50263523997</v>
+        <v>352156.000260361</v>
       </c>
       <c r="E172">
-        <v>678638.87583541498</v>
+        <v>682199.70540642401</v>
       </c>
       <c r="F172">
-        <v>14937.08</v>
+        <v>15591.14</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B173" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C173">
         <v>2</v>
       </c>
       <c r="D173">
-        <v>354358.55842727202</v>
+        <v>352220.98958747397</v>
       </c>
       <c r="E173">
-        <v>678547.00077561301</v>
+        <v>682287.82209469401</v>
       </c>
       <c r="F173">
-        <v>14748.95</v>
+        <v>15510.06</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B174" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C174">
         <v>3</v>
       </c>
       <c r="D174">
-        <v>354327.90418690001</v>
+        <v>352249.40050707199</v>
       </c>
       <c r="E174">
-        <v>678420.23839302198</v>
+        <v>682393.04439407599</v>
       </c>
       <c r="F174">
-        <v>10994.97</v>
+        <v>12862.57</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B175" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C175">
         <v>4</v>
       </c>
       <c r="D175">
-        <v>354311.79102493799</v>
+        <v>352220.683432933</v>
       </c>
       <c r="E175">
-        <v>678315.31194904295</v>
+        <v>682511.83239648305</v>
       </c>
       <c r="F175">
-        <v>10303.57</v>
+        <v>11058.9</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B176" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C176">
         <v>5</v>
       </c>
       <c r="D176">
-        <v>354311.93945688498</v>
+        <v>352196.71159580699</v>
       </c>
       <c r="E176">
-        <v>678212.52789829404</v>
+        <v>682617.717698263</v>
       </c>
       <c r="F176">
-        <v>12188.26</v>
+        <v>10583.35</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B177" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>354251.64509087399</v>
+        <v>352172.949970229</v>
       </c>
       <c r="E177">
-        <v>678659.85129536397</v>
+        <v>682159.93041280296</v>
       </c>
       <c r="F177">
-        <v>13362.87</v>
+        <v>15227.93</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B178" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C178">
         <v>2</v>
       </c>
       <c r="D178">
-        <v>354132.99047836498</v>
+        <v>352276.15803758497</v>
       </c>
       <c r="E178">
-        <v>678659.04508339695</v>
+        <v>682099.51375001005</v>
       </c>
       <c r="F178">
-        <v>10318.89</v>
+        <v>11543.12</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B179" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C179">
         <v>3</v>
       </c>
       <c r="D179">
-        <v>354042.84488617798</v>
+        <v>352325.98023240198</v>
       </c>
       <c r="E179">
-        <v>678608.28653015697</v>
+        <v>682008.81712221401</v>
       </c>
       <c r="F179">
-        <v>16045.57</v>
+        <v>14682.63</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B180" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C180">
         <v>4</v>
       </c>
       <c r="D180">
-        <v>353947.377504698</v>
+        <v>352324.71371178899</v>
       </c>
       <c r="E180">
-        <v>678559.47716685</v>
+        <v>681873.37838588597</v>
       </c>
       <c r="F180">
-        <v>10554.3</v>
+        <v>11730.59</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B181" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C181">
         <v>5</v>
       </c>
       <c r="D181">
-        <v>353842.89679596201</v>
+        <v>352318.45104509802</v>
       </c>
       <c r="E181">
-        <v>678561.14849305095</v>
+        <v>681758.01817358902</v>
       </c>
       <c r="F181">
-        <v>10312.59</v>
+        <v>11307.09</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B182" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>345358.56280867098</v>
+        <v>352141.36970728799</v>
       </c>
       <c r="E182">
-        <v>674314.161461615</v>
+        <v>682200.49051858601</v>
       </c>
       <c r="F182">
-        <v>14550.36</v>
+        <v>17358.43</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B183" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C183">
         <v>2</v>
       </c>
       <c r="D183">
-        <v>345455.49268990703</v>
+        <v>352032.41254864901</v>
       </c>
       <c r="E183">
-        <v>674375.41815768904</v>
+        <v>682230.06806858</v>
       </c>
       <c r="F183">
-        <v>13384.75</v>
+        <v>14132.45</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B184" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C184">
         <v>3</v>
       </c>
       <c r="D184">
-        <v>345553.53682766901</v>
+        <v>351901.85441080201</v>
       </c>
       <c r="E184">
-        <v>674419.71365683596</v>
+        <v>682197.09599951701</v>
       </c>
       <c r="F184">
-        <v>10066.280000000001</v>
+        <v>10522.24</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B185" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C185">
         <v>4</v>
       </c>
       <c r="D185">
-        <v>345644.15136880201</v>
+        <v>351799.671368943</v>
       </c>
       <c r="E185">
-        <v>674463.15095747996</v>
+        <v>682176.18972526502</v>
       </c>
       <c r="F185">
-        <v>10029.91</v>
+        <v>10290.299999999999</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B186" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C186">
         <v>5</v>
       </c>
       <c r="D186">
-        <v>345734.53908244299</v>
+        <v>351699.273567939</v>
       </c>
       <c r="E186">
-        <v>674506.474040634</v>
+        <v>682164.32319062296</v>
       </c>
       <c r="F186">
-        <v>10016.5</v>
+        <v>10025.74</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B187" t="s">
         <v>20</v>
@@ -4794,18 +4797,18 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>345325.21575097099</v>
+        <v>354264.328190809</v>
       </c>
       <c r="E187">
-        <v>674313.47476292902</v>
+        <v>678685.09253831103</v>
       </c>
       <c r="F187">
-        <v>19613.68</v>
+        <v>14250.45</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B188" t="s">
         <v>20</v>
@@ -4814,18 +4817,18 @@
         <v>2</v>
       </c>
       <c r="D188">
-        <v>345282.21433012898</v>
+        <v>354162.42942524201</v>
       </c>
       <c r="E188">
-        <v>674448.08819381194</v>
+        <v>678748.58025229804</v>
       </c>
       <c r="F188">
-        <v>10289.799999999999</v>
+        <v>13542.41</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B189" t="s">
         <v>20</v>
@@ -4834,18 +4837,18 @@
         <v>3</v>
       </c>
       <c r="D189">
-        <v>345259.08308681601</v>
+        <v>354122.00298734597</v>
       </c>
       <c r="E189">
-        <v>674547.43113440101</v>
+        <v>678847.45344207797</v>
       </c>
       <c r="F189">
-        <v>10084.629999999999</v>
+        <v>11929.63</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B190" t="s">
         <v>20</v>
@@ -4854,18 +4857,18 @@
         <v>4</v>
       </c>
       <c r="D190">
-        <v>345235.88593821001</v>
+        <v>354096.01511414698</v>
       </c>
       <c r="E190">
-        <v>674645.36219238106</v>
+        <v>678964.71228278696</v>
       </c>
       <c r="F190">
-        <v>10040.58</v>
+        <v>18122.68</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B191" t="s">
         <v>20</v>
@@ -4874,18 +4877,18 @@
         <v>5</v>
       </c>
       <c r="D191">
-        <v>345212.70275373699</v>
+        <v>354127.906084763</v>
       </c>
       <c r="E191">
-        <v>674742.95099883003</v>
+        <v>679064.58883499797</v>
       </c>
       <c r="F191">
-        <v>10019.35</v>
+        <v>27575.79</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B192" t="s">
         <v>22</v>
@@ -4894,18 +4897,18 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>345345.73483116698</v>
+        <v>354296.50263523997</v>
       </c>
       <c r="E192">
-        <v>674286.625615931</v>
+        <v>678638.87583541498</v>
       </c>
       <c r="F192">
-        <v>14160.43</v>
+        <v>14937.08</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B193" t="s">
         <v>22</v>
@@ -4914,18 +4917,18 @@
         <v>2</v>
       </c>
       <c r="D193">
-        <v>345365.07293238601</v>
+        <v>354358.55842727202</v>
       </c>
       <c r="E193">
-        <v>674171.16934901197</v>
+        <v>678547.00077561301</v>
       </c>
       <c r="F193">
-        <v>11826.6</v>
+        <v>14748.95</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B194" t="s">
         <v>22</v>
@@ -4934,18 +4937,18 @@
         <v>3</v>
       </c>
       <c r="D194">
-        <v>345400.61606334202</v>
+        <v>354327.90418690001</v>
       </c>
       <c r="E194">
-        <v>674072.05111104401</v>
+        <v>678420.23839302198</v>
       </c>
       <c r="F194">
-        <v>10201.459999999999</v>
+        <v>10994.97</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B195" t="s">
         <v>22</v>
@@ -4954,18 +4957,18 @@
         <v>4</v>
       </c>
       <c r="D195">
-        <v>345444.39983216597</v>
+        <v>354311.79102493799</v>
       </c>
       <c r="E195">
-        <v>673980.42385362298</v>
+        <v>678315.31194904295</v>
       </c>
       <c r="F195">
-        <v>10094.459999999999</v>
+        <v>10303.57</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B196" t="s">
         <v>22</v>
@@ -4974,18 +4977,18 @@
         <v>5</v>
       </c>
       <c r="D196">
-        <v>345487.68502001697</v>
+        <v>354311.93945688498</v>
       </c>
       <c r="E196">
-        <v>673889.44321453304</v>
+        <v>678212.52789829404</v>
       </c>
       <c r="F196">
-        <v>10052.030000000001</v>
+        <v>12188.26</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B197" t="s">
         <v>21</v>
@@ -4994,18 +4997,18 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>345324.01945259399</v>
+        <v>354251.64509087399</v>
       </c>
       <c r="E197">
-        <v>674286.036352069</v>
+        <v>678659.85129536397</v>
       </c>
       <c r="F197">
-        <v>16818.63</v>
+        <v>13362.87</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B198" t="s">
         <v>21</v>
@@ -5014,18 +5017,18 @@
         <v>2</v>
       </c>
       <c r="D198">
-        <v>345209.92067033303</v>
+        <v>354132.99047836498</v>
       </c>
       <c r="E198">
-        <v>674227.99072675803</v>
+        <v>678659.04508339695</v>
       </c>
       <c r="F198">
-        <v>10368.280000000001</v>
+        <v>10318.89</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B199" t="s">
         <v>21</v>
@@ -5034,18 +5037,18 @@
         <v>3</v>
       </c>
       <c r="D199">
-        <v>345116.88983488601</v>
+        <v>354042.84488617798</v>
       </c>
       <c r="E199">
-        <v>674184.75010683702</v>
+        <v>678608.28653015697</v>
       </c>
       <c r="F199">
-        <v>10105.57</v>
+        <v>16045.57</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B200" t="s">
         <v>21</v>
@@ -5054,18 +5057,18 @@
         <v>4</v>
       </c>
       <c r="D200">
-        <v>345025.71723437298</v>
+        <v>353947.377504698</v>
       </c>
       <c r="E200">
-        <v>674141.75180702296</v>
+        <v>678559.47716685</v>
       </c>
       <c r="F200">
-        <v>10050.040000000001</v>
+        <v>10554.3</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B201" t="s">
         <v>21</v>
@@ -5074,578 +5077,578 @@
         <v>5</v>
       </c>
       <c r="D201">
-        <v>344934.95574273099</v>
+        <v>353842.89679596201</v>
       </c>
       <c r="E201">
-        <v>674098.831987096</v>
+        <v>678561.14849305095</v>
       </c>
       <c r="F201">
-        <v>10028.19</v>
+        <v>10312.59</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B202" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>319875.93033890298</v>
+        <v>345358.56280867098</v>
       </c>
       <c r="E202">
-        <v>741362.46954617405</v>
+        <v>674314.161461615</v>
       </c>
       <c r="F202">
-        <v>13400.75</v>
+        <v>14550.36</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B203" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C203">
         <v>2</v>
       </c>
       <c r="D203">
-        <v>319976.18081330298</v>
+        <v>345455.49268990703</v>
       </c>
       <c r="E203">
-        <v>741425.55660497502</v>
+        <v>674375.41815768904</v>
       </c>
       <c r="F203">
-        <v>10219.620000000001</v>
+        <v>13384.75</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B204" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C204">
         <v>3</v>
       </c>
       <c r="D204">
-        <v>320062.200938261</v>
+        <v>345553.53682766901</v>
       </c>
       <c r="E204">
-        <v>741479.39457070897</v>
+        <v>674419.71365683596</v>
       </c>
       <c r="F204">
-        <v>10066.15</v>
+        <v>10066.280000000001</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B205" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C205">
         <v>4</v>
       </c>
       <c r="D205">
-        <v>320147.359325664</v>
+        <v>345644.15136880201</v>
       </c>
       <c r="E205">
-        <v>741532.73813265201</v>
+        <v>674463.15095747996</v>
       </c>
       <c r="F205">
-        <v>10029.73</v>
+        <v>10029.91</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B206" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C206">
         <v>5</v>
       </c>
       <c r="D206">
-        <v>320232.29309066699</v>
+        <v>345734.53908244299</v>
       </c>
       <c r="E206">
-        <v>741585.96920131496</v>
+        <v>674506.474040634</v>
       </c>
       <c r="F206">
-        <v>10017.209999999999</v>
+        <v>10016.5</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B207" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>319592.41001745401</v>
+        <v>345325.21575097099</v>
       </c>
       <c r="E207">
-        <v>741294.56139626505</v>
+        <v>674313.47476292902</v>
       </c>
       <c r="F207">
-        <v>13249.43</v>
+        <v>19613.68</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B208" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D208">
-        <v>319533.35928059398</v>
+        <v>345282.21433012898</v>
       </c>
       <c r="E208">
-        <v>741386.51654164202</v>
+        <v>674448.08819381194</v>
       </c>
       <c r="F208">
-        <v>24212.12</v>
+        <v>10289.799999999999</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B209" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C209">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D209">
-        <v>319482.47066671698</v>
+        <v>345259.08308681601</v>
       </c>
       <c r="E209">
-        <v>741593.56241204496</v>
+        <v>674547.43113440101</v>
       </c>
       <c r="F209">
-        <v>13194.13</v>
+        <v>10084.629999999999</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B210" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D210">
-        <v>319865.32786133699</v>
+        <v>345235.88593821001</v>
       </c>
       <c r="E210">
-        <v>741322.49116249103</v>
+        <v>674645.36219238106</v>
       </c>
       <c r="F210">
-        <v>14073.28</v>
+        <v>10040.58</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B211" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D211">
-        <v>319941.41632626101</v>
+        <v>345212.70275373699</v>
       </c>
       <c r="E211">
-        <v>741224.832507201</v>
+        <v>674742.95099883003</v>
       </c>
       <c r="F211">
-        <v>11736.39</v>
+        <v>10019.35</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B212" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>320017.99467738502</v>
+        <v>345345.73483116698</v>
       </c>
       <c r="E212">
-        <v>741171.87527410104</v>
+        <v>674286.625615931</v>
       </c>
       <c r="F212">
-        <v>12958.77</v>
+        <v>14160.43</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B213" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C213">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>320110.75629733899</v>
+        <v>345365.07293238601</v>
       </c>
       <c r="E213">
-        <v>741111.30497748998</v>
+        <v>674171.16934901197</v>
       </c>
       <c r="F213">
-        <v>10030.959999999999</v>
+        <v>11826.6</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B214" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C214">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D214">
-        <v>320185.00387979101</v>
+        <v>345400.61606334202</v>
       </c>
       <c r="E214">
-        <v>741043.98122800002</v>
+        <v>674072.05111104401</v>
       </c>
       <c r="F214">
-        <v>10013.66</v>
+        <v>10201.459999999999</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B215" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D215">
-        <v>319827.23629392299</v>
+        <v>345444.39983216597</v>
       </c>
       <c r="E215">
-        <v>741334.84505455499</v>
+        <v>673980.42385362298</v>
       </c>
       <c r="F215">
-        <v>13448.67</v>
+        <v>10094.459999999999</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B216" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D216">
-        <v>319722.73469514301</v>
+        <v>345487.68502001697</v>
       </c>
       <c r="E216">
-        <v>741278.68209976796</v>
+        <v>673889.44321453304</v>
       </c>
       <c r="F216">
-        <v>10222.620000000001</v>
+        <v>10052.030000000001</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B217" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>319633.75583994301</v>
+        <v>345324.01945259399</v>
       </c>
       <c r="E217">
-        <v>741229.51838575699</v>
+        <v>674286.036352069</v>
       </c>
       <c r="F217">
-        <v>10103.6</v>
+        <v>16818.63</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B218" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C218">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>319549.856231371</v>
+        <v>345209.92067033303</v>
       </c>
       <c r="E218">
-        <v>741175.053656884</v>
+        <v>674227.99072675803</v>
       </c>
       <c r="F218">
-        <v>10178.120000000001</v>
+        <v>10368.280000000001</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B219" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C219">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D219">
-        <v>319464.18789545703</v>
+        <v>345116.88983488601</v>
       </c>
       <c r="E219">
-        <v>741121.79442720104</v>
+        <v>674184.75010683702</v>
       </c>
       <c r="F219">
-        <v>10017.89</v>
+        <v>10105.57</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B220" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D220">
-        <v>276334.75501806202</v>
+        <v>345025.71723437298</v>
       </c>
       <c r="E220">
-        <v>690900.523310096</v>
+        <v>674141.75180702296</v>
       </c>
       <c r="F220">
-        <v>13958.79</v>
+        <v>10050.040000000001</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B221" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D221">
-        <v>276220.889903765</v>
+        <v>344934.95574273099</v>
       </c>
       <c r="E221">
-        <v>690938.20260928897</v>
+        <v>674098.831987096</v>
       </c>
       <c r="F221">
-        <v>11478.52</v>
+        <v>10028.19</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B222" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>276141.58957829798</v>
+        <v>319875.93033890298</v>
       </c>
       <c r="E222">
-        <v>691016.24456710299</v>
+        <v>741362.46954617405</v>
       </c>
       <c r="F222">
-        <v>10585.62</v>
+        <v>13400.75</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B223" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>276067.40801735403</v>
+        <v>319976.18081330298</v>
       </c>
       <c r="E223">
-        <v>691089.93648054102</v>
+        <v>741425.55660497502</v>
       </c>
       <c r="F223">
-        <v>10270</v>
+        <v>10219.620000000001</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B224" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C224">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D224">
-        <v>276001.75448453397</v>
+        <v>320062.200938261</v>
       </c>
       <c r="E224">
-        <v>691171.42462708196</v>
+        <v>741479.39457070897</v>
       </c>
       <c r="F224">
-        <v>11611.42</v>
+        <v>10066.15</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B225" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D225">
-        <v>276344.86130628898</v>
+        <v>320147.359325664</v>
       </c>
       <c r="E225">
-        <v>690929.76165483496</v>
+        <v>741532.73813265201</v>
       </c>
       <c r="F225">
-        <v>14667.87</v>
+        <v>10029.73</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B226" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D226">
-        <v>276352.09500861901</v>
+        <v>320232.29309066699</v>
       </c>
       <c r="E226">
-        <v>691043.73893178499</v>
+        <v>741585.96920131496</v>
       </c>
       <c r="F226">
-        <v>11936.44</v>
+        <v>10017.209999999999</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B227" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C227">
         <v>3</v>
       </c>
       <c r="D227">
-        <v>276367.39808048401</v>
+        <v>319592.41001745401</v>
       </c>
       <c r="E227">
-        <v>691153.24192651198</v>
+        <v>741294.56139626505</v>
       </c>
       <c r="F227">
-        <v>10743.62</v>
+        <v>13249.43</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B228" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C228">
         <v>4</v>
       </c>
       <c r="D228">
-        <v>276416.98321259598</v>
+        <v>319533.35928059398</v>
       </c>
       <c r="E228">
-        <v>691247.40722843702</v>
+        <v>741386.51654164202</v>
       </c>
       <c r="F228">
-        <v>10891.52</v>
+        <v>24212.12</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B229" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C229">
         <v>5</v>
       </c>
       <c r="D229">
-        <v>276482.98736567399</v>
+        <v>319482.47066671698</v>
       </c>
       <c r="E229">
-        <v>691333.51268741605</v>
+        <v>741593.56241204496</v>
       </c>
       <c r="F229">
-        <v>12082.04</v>
+        <v>13194.13</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B230" t="s">
         <v>38</v>
@@ -5654,18 +5657,18 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>276382.80771853297</v>
+        <v>319865.32786133699</v>
       </c>
       <c r="E230">
-        <v>690923.14898710698</v>
+        <v>741322.49116249103</v>
       </c>
       <c r="F230">
-        <v>13384.44</v>
+        <v>14073.28</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B231" t="s">
         <v>38</v>
@@ -5674,18 +5677,18 @@
         <v>2</v>
       </c>
       <c r="D231">
-        <v>276476.12764897302</v>
+        <v>319941.41632626101</v>
       </c>
       <c r="E231">
-        <v>691001.00423508498</v>
+        <v>741224.832507201</v>
       </c>
       <c r="F231">
-        <v>11630.01</v>
+        <v>11736.39</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B232" t="s">
         <v>38</v>
@@ -5694,18 +5697,18 @@
         <v>3</v>
       </c>
       <c r="D232">
-        <v>276591.44894170301</v>
+        <v>320017.99467738502</v>
       </c>
       <c r="E232">
-        <v>690989.80143869901</v>
+        <v>741171.87527410104</v>
       </c>
       <c r="F232">
-        <v>17483.330000000002</v>
+        <v>12958.77</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B233" t="s">
         <v>38</v>
@@ -5714,18 +5717,18 @@
         <v>4</v>
       </c>
       <c r="D233">
-        <v>276704.86380073999</v>
+        <v>320110.75629733899</v>
       </c>
       <c r="E233">
-        <v>690905.86007410497</v>
+        <v>741111.30497748998</v>
       </c>
       <c r="F233">
-        <v>11907.72</v>
+        <v>10030.959999999999</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B234" t="s">
         <v>38</v>
@@ -5734,18 +5737,18 @@
         <v>5</v>
       </c>
       <c r="D234">
-        <v>276809.96029849898</v>
+        <v>320185.00387979101</v>
       </c>
       <c r="E234">
-        <v>690876.38982836704</v>
+        <v>741043.98122800002</v>
       </c>
       <c r="F234">
-        <v>10051</v>
+        <v>10013.66</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B235" t="s">
         <v>25</v>
@@ -5754,18 +5757,18 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>276340.12043731398</v>
+        <v>319827.23629392299</v>
       </c>
       <c r="E235">
-        <v>690888.19131180504</v>
+        <v>741334.84505455499</v>
       </c>
       <c r="F235">
-        <v>13659.99</v>
+        <v>13448.67</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B236" t="s">
         <v>25</v>
@@ -5774,18 +5777,18 @@
         <v>2</v>
       </c>
       <c r="D236">
-        <v>276241.58870514203</v>
+        <v>319722.73469514301</v>
       </c>
       <c r="E236">
-        <v>690820.37932716997</v>
+        <v>741278.68209976796</v>
       </c>
       <c r="F236">
-        <v>10241.14</v>
+        <v>10222.620000000001</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B237" t="s">
         <v>25</v>
@@ -5794,18 +5797,18 @@
         <v>3</v>
       </c>
       <c r="D237">
-        <v>276151.65579981101</v>
+        <v>319633.75583994301</v>
       </c>
       <c r="E237">
-        <v>690770.82369126903</v>
+        <v>741229.51838575699</v>
       </c>
       <c r="F237">
-        <v>10536.56</v>
+        <v>10103.6</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B238" t="s">
         <v>25</v>
@@ -5814,18 +5817,18 @@
         <v>4</v>
       </c>
       <c r="D238">
-        <v>276066.826105949</v>
+        <v>319549.856231371</v>
       </c>
       <c r="E238">
-        <v>690716.46321469801</v>
+        <v>741175.053656884</v>
       </c>
       <c r="F238">
-        <v>10815.2</v>
+        <v>10178.120000000001</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B239" t="s">
         <v>25</v>
@@ -5834,118 +5837,118 @@
         <v>5</v>
       </c>
       <c r="D239">
-        <v>275968.14371232298</v>
+        <v>319464.18789545703</v>
       </c>
       <c r="E239">
-        <v>690688.41504760995</v>
+        <v>741121.79442720104</v>
       </c>
       <c r="F239">
-        <v>10297.52</v>
+        <v>10017.89</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B240" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>356802.46420473198</v>
+        <v>276334.75501806202</v>
       </c>
       <c r="E240">
-        <v>666011.856169053</v>
+        <v>690900.523310096</v>
       </c>
       <c r="F240">
-        <v>15365.3</v>
+        <v>13958.79</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B241" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C241">
         <v>2</v>
       </c>
       <c r="D241">
-        <v>356877.910300616</v>
+        <v>276220.889903765</v>
       </c>
       <c r="E241">
-        <v>665909.27800602396</v>
+        <v>690938.20260928897</v>
       </c>
       <c r="F241">
-        <v>10238.299999999999</v>
+        <v>11478.52</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B242" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C242">
         <v>3</v>
       </c>
       <c r="D242">
-        <v>356954.94745783601</v>
+        <v>276141.58957829798</v>
       </c>
       <c r="E242">
-        <v>665835.18980760896</v>
+        <v>691016.24456710299</v>
       </c>
       <c r="F242">
-        <v>12463.42</v>
+        <v>10585.62</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B243" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C243">
         <v>4</v>
       </c>
       <c r="D243">
-        <v>357078.59272858599</v>
+        <v>276067.40801735403</v>
       </c>
       <c r="E243">
-        <v>665867.57352061698</v>
+        <v>691089.93648054102</v>
       </c>
       <c r="F243">
-        <v>25456.74</v>
+        <v>10270</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B244" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C244">
         <v>5</v>
       </c>
       <c r="D244">
-        <v>357211.56901102199</v>
+        <v>276001.75448453397</v>
       </c>
       <c r="E244">
-        <v>665894.035936306</v>
+        <v>691171.42462708196</v>
       </c>
       <c r="F244">
-        <v>12000.95</v>
+        <v>11611.42</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B245" t="s">
         <v>20</v>
@@ -5954,18 +5957,18 @@
         <v>1</v>
       </c>
       <c r="D245">
-        <v>356793.674338741</v>
+        <v>276344.86130628898</v>
       </c>
       <c r="E245">
-        <v>666054.06040557905</v>
+        <v>690929.76165483496</v>
       </c>
       <c r="F245">
-        <v>12692.3</v>
+        <v>14667.87</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B246" t="s">
         <v>20</v>
@@ -5974,18 +5977,18 @@
         <v>2</v>
       </c>
       <c r="D246">
-        <v>356814.45291916601</v>
+        <v>276352.09500861901</v>
       </c>
       <c r="E246">
-        <v>666162.40830059303</v>
+        <v>691043.73893178499</v>
       </c>
       <c r="F246">
-        <v>10887.18</v>
+        <v>11936.44</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B247" t="s">
         <v>20</v>
@@ -5994,18 +5997,18 @@
         <v>3</v>
       </c>
       <c r="D247">
-        <v>356864.75148305</v>
+        <v>276367.39808048401</v>
       </c>
       <c r="E247">
-        <v>666255.04766442603</v>
+        <v>691153.24192651198</v>
       </c>
       <c r="F247">
-        <v>10225.42</v>
+        <v>10743.62</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B248" t="s">
         <v>20</v>
@@ -6014,18 +6017,18 @@
         <v>4</v>
       </c>
       <c r="D248">
-        <v>356912.877555024</v>
+        <v>276416.98321259598</v>
       </c>
       <c r="E248">
-        <v>666341.65753948002</v>
+        <v>691247.40722843702</v>
       </c>
       <c r="F248">
-        <v>9484.6200000000008</v>
+        <v>10891.52</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B249" t="s">
         <v>20</v>
@@ -6034,618 +6037,618 @@
         <v>5</v>
       </c>
       <c r="D249">
-        <v>356936.36268304399</v>
+        <v>276482.98736567399</v>
       </c>
       <c r="E249">
-        <v>666392.43931861804</v>
+        <v>691333.51268741605</v>
       </c>
       <c r="F249">
-        <v>182.93</v>
+        <v>12082.04</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B250" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>356764.91021903203</v>
+        <v>276382.80771853297</v>
       </c>
       <c r="E250">
-        <v>666014.563724129</v>
+        <v>690923.14898710698</v>
       </c>
       <c r="F250">
-        <v>16443.150000000001</v>
+        <v>13384.44</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B251" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C251">
         <v>2</v>
       </c>
       <c r="D251">
-        <v>356685.35618980502</v>
+        <v>276476.12764897302</v>
       </c>
       <c r="E251">
-        <v>665917.51695114898</v>
+        <v>691001.00423508498</v>
       </c>
       <c r="F251">
-        <v>11876.68</v>
+        <v>11630.01</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B252" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C252">
         <v>3</v>
       </c>
       <c r="D252">
-        <v>356659.16200436902</v>
+        <v>276591.44894170301</v>
       </c>
       <c r="E252">
-        <v>665806.68107357097</v>
+        <v>690989.80143869901</v>
       </c>
       <c r="F252">
-        <v>10454.68</v>
+        <v>17483.330000000002</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B253" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C253">
         <v>4</v>
       </c>
       <c r="D253">
-        <v>356632.26706584502</v>
+        <v>276704.86380073999</v>
       </c>
       <c r="E253">
-        <v>665706.92037122801</v>
+        <v>690905.86007410497</v>
       </c>
       <c r="F253">
-        <v>10170</v>
+        <v>11907.72</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B254" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C254">
         <v>5</v>
       </c>
       <c r="D254">
-        <v>356599.29285065399</v>
+        <v>276809.96029849898</v>
       </c>
       <c r="E254">
-        <v>665611.72340973397</v>
+        <v>690876.38982836704</v>
       </c>
       <c r="F254">
-        <v>9984.7900000000009</v>
+        <v>10051</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B255" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>356757.65127240901</v>
+        <v>276340.12043731398</v>
       </c>
       <c r="E255">
-        <v>666023.90203619702</v>
+        <v>690888.19131180504</v>
       </c>
       <c r="F255">
-        <v>17097.82</v>
+        <v>13659.99</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B256" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C256">
         <v>2</v>
       </c>
       <c r="D256">
-        <v>356644.656367919</v>
+        <v>276241.58870514203</v>
       </c>
       <c r="E256">
-        <v>666056.20732879301</v>
+        <v>690820.37932716997</v>
       </c>
       <c r="F256">
-        <v>11012.96</v>
+        <v>10241.14</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B257" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C257">
         <v>3</v>
       </c>
       <c r="D257">
-        <v>356555.16048165999</v>
+        <v>276151.65579981101</v>
       </c>
       <c r="E257">
-        <v>666128.86185242503</v>
+        <v>690770.82369126903</v>
       </c>
       <c r="F257">
-        <v>18045.43</v>
+        <v>10536.56</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B258" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C258">
         <v>4</v>
       </c>
       <c r="D258">
-        <v>356523.70413526002</v>
+        <v>276066.826105949</v>
       </c>
       <c r="E258">
-        <v>666229.87111689802</v>
+        <v>690716.46321469801</v>
       </c>
       <c r="F258">
-        <v>18102.79</v>
+        <v>10815.2</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B259" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C259">
         <v>5</v>
       </c>
       <c r="D259">
-        <v>356412.436000088</v>
+        <v>275968.14371232298</v>
       </c>
       <c r="E259">
-        <v>666274.41128054401</v>
+        <v>690688.41504760995</v>
       </c>
       <c r="F259">
-        <v>12710.03</v>
+        <v>10297.52</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B260" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>295201.80017561401</v>
+        <v>356802.46420473198</v>
       </c>
       <c r="E260">
-        <v>687064.68562760402</v>
+        <v>666011.856169053</v>
       </c>
       <c r="F260">
-        <v>13253.71</v>
+        <v>15365.3</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B261" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C261">
         <v>2</v>
       </c>
       <c r="D261">
-        <v>295109.73979989399</v>
+        <v>356877.910300616</v>
       </c>
       <c r="E261">
-        <v>687138.89971782803</v>
+        <v>665909.27800602396</v>
       </c>
       <c r="F261">
-        <v>10564.91</v>
+        <v>10238.299999999999</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B262" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C262">
         <v>3</v>
       </c>
       <c r="D262">
-        <v>295065.53229749401</v>
+        <v>356954.94745783601</v>
       </c>
       <c r="E262">
-        <v>687234.72985104495</v>
+        <v>665835.18980760896</v>
       </c>
       <c r="F262">
-        <v>20590.91</v>
+        <v>12463.42</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B263" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C263">
         <v>4</v>
       </c>
       <c r="D263">
-        <v>295133.68042436999</v>
+        <v>357078.59272858599</v>
       </c>
       <c r="E263">
-        <v>687371.39431337605</v>
+        <v>665867.57352061698</v>
       </c>
       <c r="F263">
-        <v>13966.14</v>
+        <v>25456.74</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B264" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C264">
         <v>5</v>
       </c>
       <c r="D264">
-        <v>295182.96192119899</v>
+        <v>357211.56901102199</v>
       </c>
       <c r="E264">
-        <v>687492.61544766498</v>
+        <v>665894.035936306</v>
       </c>
       <c r="F264">
-        <v>11053.94</v>
+        <v>12000.95</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B265" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>295231.314518</v>
+        <v>356793.674338741</v>
       </c>
       <c r="E265">
-        <v>687017.61022538901</v>
+        <v>666054.06040557905</v>
       </c>
       <c r="F265">
-        <v>13329.92</v>
+        <v>12692.3</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B266" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C266">
         <v>2</v>
       </c>
       <c r="D266">
-        <v>295273.35514172801</v>
+        <v>356814.45291916601</v>
       </c>
       <c r="E266">
-        <v>686908.15664302302</v>
+        <v>666162.40830059303</v>
       </c>
       <c r="F266">
-        <v>10413.24</v>
+        <v>10887.18</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B267" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C267">
         <v>3</v>
       </c>
       <c r="D267">
-        <v>295317.88374356902</v>
+        <v>356864.75148305</v>
       </c>
       <c r="E267">
-        <v>686813.10188060603</v>
+        <v>666255.04766442603</v>
       </c>
       <c r="F267">
-        <v>11357.54</v>
+        <v>10225.42</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B268" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C268">
         <v>4</v>
       </c>
       <c r="D268">
-        <v>295418.92421939602</v>
+        <v>356912.877555024</v>
       </c>
       <c r="E268">
-        <v>686759.03143716103</v>
+        <v>666341.65753948002</v>
       </c>
       <c r="F268">
-        <v>12700.02</v>
+        <v>9484.6200000000008</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B269" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C269">
         <v>5</v>
       </c>
       <c r="D269">
-        <v>295495.90884119499</v>
+        <v>356936.36268304399</v>
       </c>
       <c r="E269">
-        <v>686726.08644166403</v>
+        <v>666392.43931861804</v>
       </c>
       <c r="F269">
-        <v>4166</v>
+        <v>182.93</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B270" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>295195.52913913998</v>
+        <v>356764.91021903203</v>
       </c>
       <c r="E270">
-        <v>687039.28556821099</v>
+        <v>666014.563724129</v>
       </c>
       <c r="F270">
-        <v>13428.26</v>
+        <v>16443.150000000001</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B271" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C271">
         <v>2</v>
       </c>
       <c r="D271">
-        <v>295077.65896898502</v>
+        <v>356685.35618980502</v>
       </c>
       <c r="E271">
-        <v>687017.05638960202</v>
+        <v>665917.51695114898</v>
       </c>
       <c r="F271">
-        <v>10671.02</v>
+        <v>11876.68</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B272" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C272">
         <v>3</v>
       </c>
       <c r="D272">
-        <v>294977.772242854</v>
+        <v>356659.16200436902</v>
       </c>
       <c r="E272">
-        <v>687052.59060062806</v>
+        <v>665806.68107357097</v>
       </c>
       <c r="F272">
-        <v>12045.6</v>
+        <v>10454.68</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B273" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C273">
         <v>4</v>
       </c>
       <c r="D273">
-        <v>294885.459909447</v>
+        <v>356632.26706584502</v>
       </c>
       <c r="E273">
-        <v>687140.60763375205</v>
+        <v>665706.92037122801</v>
       </c>
       <c r="F273">
-        <v>13984.47</v>
+        <v>10170</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B274" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C274">
         <v>5</v>
       </c>
       <c r="D274">
-        <v>294836.56388944999</v>
+        <v>356599.29285065399</v>
       </c>
       <c r="E274">
-        <v>687265.32892611402</v>
+        <v>665611.72340973397</v>
       </c>
       <c r="F274">
-        <v>13924.82</v>
+        <v>9984.7900000000009</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B275" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>294130.582019469</v>
+        <v>356757.65127240901</v>
       </c>
       <c r="E275">
-        <v>719652.80031242699</v>
+        <v>666023.90203619702</v>
       </c>
       <c r="F275">
-        <v>13783.64</v>
+        <v>17097.82</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B276" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C276">
         <v>2</v>
       </c>
       <c r="D276">
-        <v>294236.05905226601</v>
+        <v>356644.656367919</v>
       </c>
       <c r="E276">
-        <v>719707.99766796106</v>
+        <v>666056.20732879301</v>
       </c>
       <c r="F276">
-        <v>10318.799999999999</v>
+        <v>11012.96</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B277" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C277">
         <v>3</v>
       </c>
       <c r="D277">
-        <v>294322.59428155603</v>
+        <v>356555.16048165999</v>
       </c>
       <c r="E277">
-        <v>719762.40638305899</v>
+        <v>666128.86185242503</v>
       </c>
       <c r="F277">
-        <v>10092.64</v>
+        <v>18045.43</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B278" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C278">
         <v>4</v>
       </c>
       <c r="D278">
-        <v>294408.08091087098</v>
+        <v>356523.70413526002</v>
       </c>
       <c r="E278">
-        <v>719819.35831922095</v>
+        <v>666229.87111689802</v>
       </c>
       <c r="F278">
-        <v>10534.33</v>
+        <v>18102.79</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B279" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C279">
         <v>5</v>
       </c>
       <c r="D279">
-        <v>294440.67760787299</v>
+        <v>356412.436000088</v>
       </c>
       <c r="E279">
-        <v>719937.40196322696</v>
+        <v>666274.41128054401</v>
       </c>
       <c r="F279">
-        <v>22122.22</v>
+        <v>12710.03</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B280" t="s">
         <v>20</v>
@@ -6654,18 +6657,18 @@
         <v>1</v>
       </c>
       <c r="D280">
-        <v>294124.45651912998</v>
+        <v>295201.80017561401</v>
       </c>
       <c r="E280">
-        <v>719665.20865078003</v>
+        <v>687064.68562760402</v>
       </c>
       <c r="F280">
-        <v>14872.54</v>
+        <v>13253.71</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B281" t="s">
         <v>20</v>
@@ -6674,18 +6677,18 @@
         <v>2</v>
       </c>
       <c r="D281">
-        <v>294162.08207880502</v>
+        <v>295109.73979989399</v>
       </c>
       <c r="E281">
-        <v>719780.278024878</v>
+        <v>687138.89971782803</v>
       </c>
       <c r="F281">
-        <v>10464.129999999999</v>
+        <v>10564.91</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B282" t="s">
         <v>20</v>
@@ -6694,18 +6697,18 @@
         <v>3</v>
       </c>
       <c r="D282">
-        <v>294169.67592259502</v>
+        <v>295065.53229749401</v>
       </c>
       <c r="E282">
-        <v>719884.41764273494</v>
+        <v>687234.72985104495</v>
       </c>
       <c r="F282">
-        <v>11188.59</v>
+        <v>20590.91</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B283" t="s">
         <v>20</v>
@@ -6714,18 +6717,18 @@
         <v>4</v>
       </c>
       <c r="D283">
-        <v>294153.10502425698</v>
+        <v>295133.68042436999</v>
       </c>
       <c r="E283">
-        <v>719991.57189785806</v>
+        <v>687371.39431337605</v>
       </c>
       <c r="F283">
-        <v>10431.040000000001</v>
+        <v>13966.14</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B284" t="s">
         <v>20</v>
@@ -6734,18 +6737,18 @@
         <v>5</v>
       </c>
       <c r="D284">
-        <v>294130.78556694998</v>
+        <v>295182.96192119899</v>
       </c>
       <c r="E284">
-        <v>720093.264932408</v>
+        <v>687492.61544766498</v>
       </c>
       <c r="F284">
-        <v>10695.71</v>
+        <v>11053.94</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B285" t="s">
         <v>22</v>
@@ -6754,18 +6757,18 @@
         <v>1</v>
       </c>
       <c r="D285">
-        <v>294105.41435399198</v>
+        <v>295231.314518</v>
       </c>
       <c r="E285">
-        <v>719617.27883675799</v>
+        <v>687017.61022538901</v>
       </c>
       <c r="F285">
-        <v>13634.95</v>
+        <v>13329.92</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B286" t="s">
         <v>22</v>
@@ -6774,18 +6777,18 @@
         <v>2</v>
       </c>
       <c r="D286">
-        <v>294070.77025704499</v>
+        <v>295273.35514172801</v>
       </c>
       <c r="E286">
-        <v>719504.99769172701</v>
+        <v>686908.15664302302</v>
       </c>
       <c r="F286">
-        <v>10586.09</v>
+        <v>10413.24</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B287" t="s">
         <v>22</v>
@@ -6794,18 +6797,18 @@
         <v>3</v>
       </c>
       <c r="D287">
-        <v>294023.395590114</v>
+        <v>295317.88374356902</v>
       </c>
       <c r="E287">
-        <v>719412.15119194495</v>
+        <v>686813.10188060603</v>
       </c>
       <c r="F287">
-        <v>10160.94</v>
+        <v>11357.54</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B288" t="s">
         <v>22</v>
@@ -6814,18 +6817,18 @@
         <v>4</v>
       </c>
       <c r="D288">
-        <v>293970.85562881001</v>
+        <v>295418.92421939602</v>
       </c>
       <c r="E288">
-        <v>719322.85029577999</v>
+        <v>686759.03143716103</v>
       </c>
       <c r="F288">
-        <v>10864.58</v>
+        <v>12700.02</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B289" t="s">
         <v>22</v>
@@ -6834,118 +6837,118 @@
         <v>5</v>
       </c>
       <c r="D289">
-        <v>293897.09664076602</v>
+        <v>295495.90884119499</v>
       </c>
       <c r="E289">
-        <v>719250.28512718505</v>
+        <v>686726.08644166403</v>
       </c>
       <c r="F289">
-        <v>10737.22</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B290" t="s">
         <v>21</v>
       </c>
       <c r="C290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D290">
-        <v>293958.09929826501</v>
+        <v>295195.52913913998</v>
       </c>
       <c r="E290">
-        <v>719624.49597922806</v>
+        <v>687039.28556821099</v>
       </c>
       <c r="F290">
-        <v>10220.43</v>
+        <v>13428.26</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B291" t="s">
         <v>21</v>
       </c>
       <c r="C291">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D291">
-        <v>293857.57378912898</v>
+        <v>295077.65896898502</v>
       </c>
       <c r="E291">
-        <v>719610.58029757498</v>
+        <v>687017.05638960202</v>
       </c>
       <c r="F291">
-        <v>10066.209999999999</v>
+        <v>10671.02</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B292" t="s">
         <v>21</v>
       </c>
       <c r="C292">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D292">
-        <v>293758.04301682301</v>
+        <v>294977.772242854</v>
       </c>
       <c r="E292">
-        <v>719596.759643064</v>
+        <v>687052.59060062806</v>
       </c>
       <c r="F292">
-        <v>10029.57</v>
+        <v>12045.6</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B293" t="s">
         <v>21</v>
       </c>
       <c r="C293">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D293">
-        <v>293658.72948183602</v>
+        <v>294885.459909447</v>
       </c>
       <c r="E293">
-        <v>719583.19467909995</v>
+        <v>687140.60763375205</v>
       </c>
       <c r="F293">
-        <v>10017.27</v>
+        <v>13984.47</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B294" t="s">
         <v>21</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D294">
-        <v>294076.11734041502</v>
+        <v>294836.56388944999</v>
       </c>
       <c r="E294">
-        <v>719641.17597611004</v>
+        <v>687265.32892611402</v>
       </c>
       <c r="F294">
-        <v>13549.5</v>
+        <v>13924.82</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B295" t="s">
         <v>26</v>
@@ -6954,18 +6957,18 @@
         <v>1</v>
       </c>
       <c r="D295">
-        <v>331839.31111163902</v>
+        <v>294130.582019469</v>
       </c>
       <c r="E295">
-        <v>707006.34649853897</v>
+        <v>719652.80031242699</v>
       </c>
       <c r="F295">
-        <v>14209.09</v>
+        <v>13783.64</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B296" t="s">
         <v>26</v>
@@ -6974,18 +6977,18 @@
         <v>2</v>
       </c>
       <c r="D296">
-        <v>331948.84358856699</v>
+        <v>294236.05905226601</v>
       </c>
       <c r="E296">
-        <v>706984.78108364204</v>
+        <v>719707.99766796106</v>
       </c>
       <c r="F296">
-        <v>12893.87</v>
+        <v>10318.799999999999</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B297" t="s">
         <v>26</v>
@@ -6994,18 +6997,18 @@
         <v>3</v>
       </c>
       <c r="D297">
-        <v>332033.32939114998</v>
+        <v>294322.59428155603</v>
       </c>
       <c r="E297">
-        <v>706909.38519788499</v>
+        <v>719762.40638305899</v>
       </c>
       <c r="F297">
-        <v>10637.73</v>
+        <v>10092.64</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B298" t="s">
         <v>26</v>
@@ -7014,18 +7017,18 @@
         <v>4</v>
       </c>
       <c r="D298">
-        <v>332123.82150195999</v>
+        <v>294408.08091087098</v>
       </c>
       <c r="E298">
-        <v>706859.41504771495</v>
+        <v>719819.35831922095</v>
       </c>
       <c r="F298">
-        <v>10511.28</v>
+        <v>10534.33</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B299" t="s">
         <v>26</v>
@@ -7034,18 +7037,18 @@
         <v>5</v>
       </c>
       <c r="D299">
-        <v>332215.34506113298</v>
+        <v>294440.67760787299</v>
       </c>
       <c r="E299">
-        <v>706824.25665334403</v>
+        <v>719937.40196322696</v>
       </c>
       <c r="F299">
-        <v>10539.69</v>
+        <v>22122.22</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B300" t="s">
         <v>20</v>
@@ -7054,18 +7057,18 @@
         <v>1</v>
       </c>
       <c r="D300">
-        <v>331839.15134709101</v>
+        <v>294124.45651912998</v>
       </c>
       <c r="E300">
-        <v>707006.73241212405</v>
+        <v>719665.20865078003</v>
       </c>
       <c r="F300">
-        <v>14542.62</v>
+        <v>14872.54</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B301" t="s">
         <v>20</v>
@@ -7074,18 +7077,18 @@
         <v>2</v>
       </c>
       <c r="D301">
-        <v>331942.75281102402</v>
+        <v>294162.08207880502</v>
       </c>
       <c r="E301">
-        <v>707049.467692715</v>
+        <v>719780.278024878</v>
       </c>
       <c r="F301">
-        <v>14558.96</v>
+        <v>10464.129999999999</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B302" t="s">
         <v>20</v>
@@ -7094,18 +7097,18 @@
         <v>3</v>
       </c>
       <c r="D302">
-        <v>331960.22859583498</v>
+        <v>294169.67592259502</v>
       </c>
       <c r="E302">
-        <v>707190.72894381301</v>
+        <v>719884.41764273494</v>
       </c>
       <c r="F302">
-        <v>28264.67</v>
+        <v>11188.59</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B303" t="s">
         <v>20</v>
@@ -7114,18 +7117,18 @@
         <v>4</v>
       </c>
       <c r="D303">
-        <v>331826.354297477</v>
+        <v>294153.10502425698</v>
       </c>
       <c r="E303">
-        <v>707357.36115374102</v>
+        <v>719991.57189785806</v>
       </c>
       <c r="F303">
-        <v>13849.82</v>
+        <v>10431.040000000001</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B304" t="s">
         <v>20</v>
@@ -7134,18 +7137,18 @@
         <v>5</v>
       </c>
       <c r="D304">
-        <v>331740.897772166</v>
+        <v>294130.78556694998</v>
       </c>
       <c r="E304">
-        <v>707456.02752109501</v>
+        <v>720093.264932408</v>
       </c>
       <c r="F304">
-        <v>11739.18</v>
+        <v>10695.71</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B305" t="s">
         <v>22</v>
@@ -7154,18 +7157,18 @@
         <v>1</v>
       </c>
       <c r="D305">
-        <v>331836.06789951603</v>
+        <v>294105.41435399198</v>
       </c>
       <c r="E305">
-        <v>706998.50724012905</v>
+        <v>719617.27883675799</v>
       </c>
       <c r="F305">
-        <v>14615.96</v>
+        <v>13634.95</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B306" t="s">
         <v>22</v>
@@ -7174,18 +7177,18 @@
         <v>2</v>
       </c>
       <c r="D306">
-        <v>331865.91030296002</v>
+        <v>294070.77025704499</v>
       </c>
       <c r="E306">
-        <v>706893.43944753497</v>
+        <v>719504.99769172701</v>
       </c>
       <c r="F306">
-        <v>15316.72</v>
+        <v>10586.09</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B307" t="s">
         <v>22</v>
@@ -7194,18 +7197,18 @@
         <v>3</v>
       </c>
       <c r="D307">
-        <v>331794.278937052</v>
+        <v>294023.395590114</v>
       </c>
       <c r="E307">
-        <v>706767.58137256396</v>
+        <v>719412.15119194495</v>
       </c>
       <c r="F307">
-        <v>12248.42</v>
+        <v>10160.94</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B308" t="s">
         <v>22</v>
@@ -7214,18 +7217,18 @@
         <v>4</v>
       </c>
       <c r="D308">
-        <v>331741.52942704898</v>
+        <v>293970.85562881001</v>
       </c>
       <c r="E308">
-        <v>706672.87764136295</v>
+        <v>719322.85029577999</v>
       </c>
       <c r="F308">
-        <v>10528.95</v>
+        <v>10864.58</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B309" t="s">
         <v>22</v>
@@ -7234,118 +7237,118 @@
         <v>5</v>
       </c>
       <c r="D309">
-        <v>331745.37166404002</v>
+        <v>293897.09664076602</v>
       </c>
       <c r="E309">
-        <v>706570.93024992803</v>
+        <v>719250.28512718505</v>
       </c>
       <c r="F309">
-        <v>10018.49</v>
+        <v>10737.22</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B310" t="s">
         <v>21</v>
       </c>
       <c r="C310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D310">
-        <v>331787.55958399299</v>
+        <v>293958.09929826501</v>
       </c>
       <c r="E310">
-        <v>707031.25866057398</v>
+        <v>719624.49597922806</v>
       </c>
       <c r="F310">
-        <v>13528.33</v>
+        <v>10220.43</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B311" t="s">
         <v>21</v>
       </c>
       <c r="C311">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D311">
-        <v>331674.73297144199</v>
+        <v>293857.57378912898</v>
       </c>
       <c r="E311">
-        <v>707053.31864224805</v>
+        <v>719610.58029757498</v>
       </c>
       <c r="F311">
-        <v>16902.84</v>
+        <v>10066.209999999999</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B312" t="s">
         <v>21</v>
       </c>
       <c r="C312">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D312">
-        <v>331573.983446103</v>
+        <v>293758.04301682301</v>
       </c>
       <c r="E312">
-        <v>706949.44309940503</v>
+        <v>719596.759643064</v>
       </c>
       <c r="F312">
-        <v>12119.09</v>
+        <v>10029.57</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B313" t="s">
         <v>21</v>
       </c>
       <c r="C313">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D313">
-        <v>331497.29442932399</v>
+        <v>293658.72948183602</v>
       </c>
       <c r="E313">
-        <v>706861.82232691499</v>
+        <v>719583.19467909995</v>
       </c>
       <c r="F313">
-        <v>10842.21</v>
+        <v>10017.27</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B314" t="s">
         <v>21</v>
       </c>
       <c r="C314">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D314">
-        <v>331426.084313864</v>
+        <v>294076.11734041502</v>
       </c>
       <c r="E314">
-        <v>706782.97908488603</v>
+        <v>719641.17597611004</v>
       </c>
       <c r="F314">
-        <v>10359.89</v>
+        <v>13549.5</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B315" t="s">
         <v>26</v>
@@ -7354,18 +7357,18 @@
         <v>1</v>
       </c>
       <c r="D315">
-        <v>355139.63890018902</v>
+        <v>331839.31111163902</v>
       </c>
       <c r="E315">
-        <v>668638.57116060099</v>
+        <v>707006.34649853897</v>
       </c>
       <c r="F315">
-        <v>12432.33</v>
+        <v>14209.09</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B316" t="s">
         <v>26</v>
@@ -7374,18 +7377,18 @@
         <v>2</v>
       </c>
       <c r="D316">
-        <v>355155.70621769299</v>
+        <v>331948.84358856699</v>
       </c>
       <c r="E316">
-        <v>668536.651215869</v>
+        <v>706984.78108364204</v>
       </c>
       <c r="F316">
-        <v>12980.51</v>
+        <v>12893.87</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B317" t="s">
         <v>26</v>
@@ -7394,18 +7397,18 @@
         <v>3</v>
       </c>
       <c r="D317">
-        <v>355226.42496617697</v>
+        <v>332033.32939114998</v>
       </c>
       <c r="E317">
-        <v>668462.22378221794</v>
+        <v>706909.38519788499</v>
       </c>
       <c r="F317">
-        <v>15918.32</v>
+        <v>10637.73</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B318" t="s">
         <v>26</v>
@@ -7414,18 +7417,18 @@
         <v>4</v>
       </c>
       <c r="D318">
-        <v>355331.33589838201</v>
+        <v>332123.82150195999</v>
       </c>
       <c r="E318">
-        <v>668407.13248535898</v>
+        <v>706859.41504771495</v>
       </c>
       <c r="F318">
-        <v>13298.89</v>
+        <v>10511.28</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B319" t="s">
         <v>26</v>
@@ -7434,18 +7437,18 @@
         <v>5</v>
       </c>
       <c r="D319">
-        <v>355424.063856069</v>
+        <v>332215.34506113298</v>
       </c>
       <c r="E319">
-        <v>668356.50471880904</v>
+        <v>706824.25665334403</v>
       </c>
       <c r="F319">
-        <v>11826.78</v>
+        <v>10539.69</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B320" t="s">
         <v>20</v>
@@ -7454,18 +7457,18 @@
         <v>1</v>
       </c>
       <c r="D320">
-        <v>355134.10516178003</v>
+        <v>331839.15134709101</v>
       </c>
       <c r="E320">
-        <v>668672.45572282805</v>
+        <v>707006.73241212405</v>
       </c>
       <c r="F320">
-        <v>14882.77</v>
+        <v>14542.62</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B321" t="s">
         <v>20</v>
@@ -7474,18 +7477,18 @@
         <v>2</v>
       </c>
       <c r="D321">
-        <v>355214.55691870197</v>
+        <v>331942.75281102402</v>
       </c>
       <c r="E321">
-        <v>668763.035545739</v>
+        <v>707049.467692715</v>
       </c>
       <c r="F321">
-        <v>10756.56</v>
+        <v>14558.96</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B322" t="s">
         <v>20</v>
@@ -7494,18 +7497,18 @@
         <v>3</v>
       </c>
       <c r="D322">
-        <v>355267.94770066801</v>
+        <v>331960.22859583498</v>
       </c>
       <c r="E322">
-        <v>668854.76641142205</v>
+        <v>707190.72894381301</v>
       </c>
       <c r="F322">
-        <v>10338.530000000001</v>
+        <v>28264.67</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B323" t="s">
         <v>20</v>
@@ -7514,18 +7517,18 @@
         <v>4</v>
       </c>
       <c r="D323">
-        <v>355317.670261833</v>
+        <v>331826.354297477</v>
       </c>
       <c r="E323">
-        <v>668944.30448214198</v>
+        <v>707357.36115374102</v>
       </c>
       <c r="F323">
-        <v>10121.17</v>
+        <v>13849.82</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B324" t="s">
         <v>20</v>
@@ -7534,18 +7537,18 @@
         <v>5</v>
       </c>
       <c r="D324">
-        <v>355375.09648293001</v>
+        <v>331740.897772166</v>
       </c>
       <c r="E324">
-        <v>669026.68412663601</v>
+        <v>707456.02752109501</v>
       </c>
       <c r="F324">
-        <v>10027.1</v>
+        <v>11739.18</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B325" t="s">
         <v>22</v>
@@ -7554,18 +7557,18 @@
         <v>1</v>
       </c>
       <c r="D325">
-        <v>355121.56637892599</v>
+        <v>331836.06789951603</v>
       </c>
       <c r="E325">
-        <v>668643.21822049899</v>
+        <v>706998.50724012905</v>
       </c>
       <c r="F325">
-        <v>16432.61</v>
+        <v>14615.96</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B326" t="s">
         <v>22</v>
@@ -7574,18 +7577,18 @@
         <v>2</v>
       </c>
       <c r="D326">
-        <v>355086.18208338501</v>
+        <v>331865.91030296002</v>
       </c>
       <c r="E326">
-        <v>668525.67726480495</v>
+        <v>706893.43944753497</v>
       </c>
       <c r="F326">
-        <v>10883.01</v>
+        <v>15316.72</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B327" t="s">
         <v>22</v>
@@ -7594,18 +7597,18 @@
         <v>3</v>
       </c>
       <c r="D327">
-        <v>355044.60501491901</v>
+        <v>331794.278937052</v>
       </c>
       <c r="E327">
-        <v>668428.23152741697</v>
+        <v>706767.58137256396</v>
       </c>
       <c r="F327">
-        <v>10124.81</v>
+        <v>12248.42</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B328" t="s">
         <v>22</v>
@@ -7614,18 +7617,18 @@
         <v>4</v>
       </c>
       <c r="D328">
-        <v>355010.63955021801</v>
+        <v>331741.52942704898</v>
       </c>
       <c r="E328">
-        <v>668332.79793525999</v>
+        <v>706672.87764136295</v>
       </c>
       <c r="F328">
-        <v>10153.469999999999</v>
+        <v>10528.95</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B329" t="s">
         <v>22</v>
@@ -7634,18 +7637,18 @@
         <v>5</v>
       </c>
       <c r="D329">
-        <v>354993.49715493002</v>
+        <v>331745.37166404002</v>
       </c>
       <c r="E329">
-        <v>668236.05223459599</v>
+        <v>706570.93024992803</v>
       </c>
       <c r="F329">
-        <v>11203.73</v>
+        <v>10018.49</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B330" t="s">
         <v>21</v>
@@ -7654,18 +7657,18 @@
         <v>1</v>
       </c>
       <c r="D330">
-        <v>355077.33267259703</v>
+        <v>331787.55958399299</v>
       </c>
       <c r="E330">
-        <v>668672.25801287498</v>
+        <v>707031.25866057398</v>
       </c>
       <c r="F330">
-        <v>13695.82</v>
+        <v>13528.33</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B331" t="s">
         <v>21</v>
@@ -7674,18 +7677,18 @@
         <v>2</v>
       </c>
       <c r="D331">
-        <v>354961.08803851902</v>
+        <v>331674.73297144199</v>
       </c>
       <c r="E331">
-        <v>668701.78506951302</v>
+        <v>707053.31864224805</v>
       </c>
       <c r="F331">
-        <v>10227.01</v>
+        <v>16902.84</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B332" t="s">
         <v>21</v>
@@ -7694,18 +7697,18 @@
         <v>3</v>
       </c>
       <c r="D332">
-        <v>354863.184881386</v>
+        <v>331573.983446103</v>
       </c>
       <c r="E332">
-        <v>668729.05804632301</v>
+        <v>706949.44309940503</v>
       </c>
       <c r="F332">
-        <v>10089.89</v>
+        <v>12119.09</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B333" t="s">
         <v>21</v>
@@ -7714,18 +7717,18 @@
         <v>4</v>
       </c>
       <c r="D333">
-        <v>354772.32235266699</v>
+        <v>331497.29442932399</v>
       </c>
       <c r="E333">
-        <v>668774.744411372</v>
+        <v>706861.82232691499</v>
       </c>
       <c r="F333">
-        <v>10611.63</v>
+        <v>10842.21</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B334" t="s">
         <v>21</v>
@@ -7734,918 +7737,918 @@
         <v>5</v>
       </c>
       <c r="D334">
-        <v>354688.61609999801</v>
+        <v>331426.084313864</v>
       </c>
       <c r="E334">
-        <v>668837.02659551497</v>
+        <v>706782.97908488603</v>
       </c>
       <c r="F334">
-        <v>10230.280000000001</v>
+        <v>10359.89</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B335" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C335">
         <v>1</v>
       </c>
       <c r="D335">
-        <v>274768.30475244398</v>
+        <v>355139.63890018902</v>
       </c>
       <c r="E335">
-        <v>689252.25667627796</v>
+        <v>668638.57116060099</v>
       </c>
       <c r="F335">
-        <v>13297.49</v>
+        <v>12432.33</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B336" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C336">
         <v>2</v>
       </c>
       <c r="D336">
-        <v>274851.32000993798</v>
+        <v>355155.70621769299</v>
       </c>
       <c r="E336">
-        <v>689336.02263226605</v>
+        <v>668536.651215869</v>
       </c>
       <c r="F336">
-        <v>10228.34</v>
+        <v>12980.51</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B337" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C337">
         <v>3</v>
       </c>
       <c r="D337">
-        <v>274916.77088854002</v>
+        <v>355226.42496617697</v>
       </c>
       <c r="E337">
-        <v>689413.63419099303</v>
+        <v>668462.22378221794</v>
       </c>
       <c r="F337">
-        <v>10240.799999999999</v>
+        <v>15918.32</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B338" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C338">
         <v>4</v>
       </c>
       <c r="D338">
-        <v>274995.15611338499</v>
+        <v>355331.33589838201</v>
       </c>
       <c r="E338">
-        <v>689476.85706910398</v>
+        <v>668407.13248535898</v>
       </c>
       <c r="F338">
-        <v>11087.15</v>
+        <v>13298.89</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B339" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C339">
         <v>5</v>
       </c>
       <c r="D339">
-        <v>275099.21771143802</v>
+        <v>355424.063856069</v>
       </c>
       <c r="E339">
-        <v>689510.74176493101</v>
+        <v>668356.50471880904</v>
       </c>
       <c r="F339">
-        <v>10773.74</v>
+        <v>11826.78</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B340" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C340">
         <v>1</v>
       </c>
       <c r="D340">
-        <v>274724.59021627001</v>
+        <v>355134.10516178003</v>
       </c>
       <c r="E340">
-        <v>689245.13862296205</v>
+        <v>668672.45572282805</v>
       </c>
       <c r="F340">
-        <v>13399.05</v>
+        <v>14882.77</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B341" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C341">
         <v>2</v>
       </c>
       <c r="D341">
-        <v>274620.57863414602</v>
+        <v>355214.55691870197</v>
       </c>
       <c r="E341">
-        <v>689301.78802976198</v>
+        <v>668763.035545739</v>
       </c>
       <c r="F341">
-        <v>10219.15</v>
+        <v>10756.56</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B342" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C342">
         <v>3</v>
       </c>
       <c r="D342">
-        <v>274538.05340105901</v>
+        <v>355267.94770066801</v>
       </c>
       <c r="E342">
-        <v>689360.82703550998</v>
+        <v>668854.76641142205</v>
       </c>
       <c r="F342">
-        <v>10305.64</v>
+        <v>10338.530000000001</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B343" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C343">
         <v>4</v>
       </c>
       <c r="D343">
-        <v>274454.35863363103</v>
+        <v>355317.670261833</v>
       </c>
       <c r="E343">
-        <v>689417.25195306505</v>
+        <v>668944.30448214198</v>
       </c>
       <c r="F343">
-        <v>10049.370000000001</v>
+        <v>10121.17</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B344" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C344">
         <v>5</v>
       </c>
       <c r="D344">
-        <v>274366.31369965803</v>
+        <v>355375.09648293001</v>
       </c>
       <c r="E344">
-        <v>689465.50783969206</v>
+        <v>669026.68412663601</v>
       </c>
       <c r="F344">
-        <v>10029.77</v>
+        <v>10027.1</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B345" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C345">
         <v>1</v>
       </c>
       <c r="D345">
-        <v>274765.62657313998</v>
+        <v>355121.56637892599</v>
       </c>
       <c r="E345">
-        <v>689208.65790040395</v>
+        <v>668643.21822049899</v>
       </c>
       <c r="F345">
-        <v>13509.9</v>
+        <v>16432.61</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B346" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C346">
         <v>2</v>
       </c>
       <c r="D346">
-        <v>274832.54120479798</v>
+        <v>355086.18208338501</v>
       </c>
       <c r="E346">
-        <v>689106.77929849003</v>
+        <v>668525.67726480495</v>
       </c>
       <c r="F346">
-        <v>11694.6</v>
+        <v>10883.01</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B347" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C347">
         <v>3</v>
       </c>
       <c r="D347">
-        <v>274914.52205700998</v>
+        <v>355044.60501491901</v>
       </c>
       <c r="E347">
-        <v>689054.23771989997</v>
+        <v>668428.23152741697</v>
       </c>
       <c r="F347">
-        <v>11991.96</v>
+        <v>10124.81</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B348" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C348">
         <v>4</v>
       </c>
       <c r="D348">
-        <v>274997.38456307299</v>
+        <v>355010.63955021801</v>
       </c>
       <c r="E348">
-        <v>688985.75040704303</v>
+        <v>668332.79793525999</v>
       </c>
       <c r="F348">
-        <v>11167.82</v>
+        <v>10153.469999999999</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B349" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C349">
         <v>5</v>
       </c>
       <c r="D349">
-        <v>275102.790262644</v>
+        <v>354993.49715493002</v>
       </c>
       <c r="E349">
-        <v>688956.29884223104</v>
+        <v>668236.05223459599</v>
       </c>
       <c r="F349">
-        <v>10904.39</v>
+        <v>11203.73</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B350" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C350">
         <v>1</v>
       </c>
       <c r="D350">
-        <v>274738.44953763601</v>
+        <v>355077.33267259703</v>
       </c>
       <c r="E350">
-        <v>689205.43471221696</v>
+        <v>668672.25801287498</v>
       </c>
       <c r="F350">
-        <v>13508.94</v>
+        <v>13695.82</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B351" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C351">
         <v>2</v>
       </c>
       <c r="D351">
-        <v>274682.58713810903</v>
+        <v>354961.08803851902</v>
       </c>
       <c r="E351">
-        <v>689098.42679775704</v>
+        <v>668701.78506951302</v>
       </c>
       <c r="F351">
-        <v>12049.2</v>
+        <v>10227.01</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B352" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C352">
         <v>3</v>
       </c>
       <c r="D352">
-        <v>274577.73731309501</v>
+        <v>354863.184881386</v>
       </c>
       <c r="E352">
-        <v>689054.54441636603</v>
+        <v>668729.05804632301</v>
       </c>
       <c r="F352">
-        <v>11473.47</v>
+        <v>10089.89</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B353" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C353">
         <v>4</v>
       </c>
       <c r="D353">
-        <v>274471.49411908397</v>
+        <v>354772.32235266699</v>
       </c>
       <c r="E353">
-        <v>689021.05890565005</v>
+        <v>668774.744411372</v>
       </c>
       <c r="F353">
-        <v>10617.21</v>
+        <v>10611.63</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B354" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C354">
         <v>5</v>
       </c>
       <c r="D354">
-        <v>274381.31567247101</v>
+        <v>354688.61609999801</v>
       </c>
       <c r="E354">
-        <v>688973.70684151002</v>
+        <v>668837.02659551497</v>
       </c>
       <c r="F354">
-        <v>10053.31</v>
+        <v>10230.280000000001</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B355" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C355">
         <v>1</v>
       </c>
       <c r="D355">
-        <v>319264.678969573</v>
+        <v>274768.30475244398</v>
       </c>
       <c r="E355">
-        <v>714683.217843908</v>
+        <v>689252.25667627796</v>
       </c>
       <c r="F355">
-        <v>13457.27</v>
+        <v>13297.49</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B356" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C356">
         <v>2</v>
       </c>
       <c r="D356">
-        <v>319375.64238955302</v>
+        <v>274851.32000993798</v>
       </c>
       <c r="E356">
-        <v>714730.35404282506</v>
+        <v>689336.02263226605</v>
       </c>
       <c r="F356">
-        <v>11119.38</v>
+        <v>10228.34</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B357" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C357">
         <v>3</v>
       </c>
       <c r="D357">
-        <v>319433.66574395698</v>
+        <v>274916.77088854002</v>
       </c>
       <c r="E357">
-        <v>714818.05792328005</v>
+        <v>689413.63419099303</v>
       </c>
       <c r="F357">
-        <v>13225.67</v>
+        <v>10240.799999999999</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B358" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C358">
         <v>4</v>
       </c>
       <c r="D358">
-        <v>319527.15108832897</v>
+        <v>274995.15611338499</v>
       </c>
       <c r="E358">
-        <v>714875.49687041703</v>
+        <v>689476.85706910398</v>
       </c>
       <c r="F358">
-        <v>12131.42</v>
+        <v>11087.15</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B359" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C359">
         <v>5</v>
       </c>
       <c r="D359">
-        <v>319645.75346869702</v>
+        <v>275099.21771143802</v>
       </c>
       <c r="E359">
-        <v>714840.35830465704</v>
+        <v>689510.74176493101</v>
       </c>
       <c r="F359">
-        <v>18502.53</v>
+        <v>10773.74</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B360" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C360">
         <v>1</v>
       </c>
       <c r="D360">
-        <v>319233.42956630501</v>
+        <v>274724.59021627001</v>
       </c>
       <c r="E360">
-        <v>714702.49144383799</v>
+        <v>689245.13862296205</v>
       </c>
       <c r="F360">
-        <v>13466.31</v>
+        <v>13399.05</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B361" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C361">
         <v>2</v>
       </c>
       <c r="D361">
-        <v>319203.88278185402</v>
+        <v>274620.57863414602</v>
       </c>
       <c r="E361">
-        <v>714817.37415313802</v>
+        <v>689301.78802976198</v>
       </c>
       <c r="F361">
-        <v>10408.370000000001</v>
+        <v>10219.15</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B362" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C362">
         <v>3</v>
       </c>
       <c r="D362">
-        <v>319179.82551114599</v>
+        <v>274538.05340105901</v>
       </c>
       <c r="E362">
-        <v>714916.00439878996</v>
+        <v>689360.82703550998</v>
       </c>
       <c r="F362">
-        <v>10160.75</v>
+        <v>10305.64</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B363" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C363">
         <v>4</v>
       </c>
       <c r="D363">
-        <v>319167.10701577301</v>
+        <v>274454.35863363103</v>
       </c>
       <c r="E363">
-        <v>715016.32699130196</v>
+        <v>689417.25195306505</v>
       </c>
       <c r="F363">
-        <v>10059.23</v>
+        <v>10049.370000000001</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B364" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C364">
         <v>5</v>
       </c>
       <c r="D364">
-        <v>319155.24713975698</v>
+        <v>274366.31369965803</v>
       </c>
       <c r="E364">
-        <v>715116.10862629896</v>
+        <v>689465.50783969206</v>
       </c>
       <c r="F364">
-        <v>10041.280000000001</v>
+        <v>10029.77</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B365" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C365">
         <v>1</v>
       </c>
       <c r="D365">
-        <v>319223.84188868402</v>
+        <v>274765.62657313998</v>
       </c>
       <c r="E365">
-        <v>714651.605644066</v>
+        <v>689208.65790040395</v>
       </c>
       <c r="F365">
-        <v>14979.58</v>
+        <v>13509.9</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B366" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C366">
         <v>2</v>
       </c>
       <c r="D366">
-        <v>319214.65827596898</v>
+        <v>274832.54120479798</v>
       </c>
       <c r="E366">
-        <v>714530.57097302505</v>
+        <v>689106.77929849003</v>
       </c>
       <c r="F366">
-        <v>10314.209999999999</v>
+        <v>11694.6</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B367" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C367">
         <v>3</v>
       </c>
       <c r="D367">
-        <v>319210.01760589902</v>
+        <v>274914.52205700998</v>
       </c>
       <c r="E367">
-        <v>714428.50001791003</v>
+        <v>689054.23771989997</v>
       </c>
       <c r="F367">
-        <v>10122.129999999999</v>
+        <v>11991.96</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B368" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C368">
         <v>4</v>
       </c>
       <c r="D368">
-        <v>319200.15921964397</v>
+        <v>274997.38456307299</v>
       </c>
       <c r="E368">
-        <v>714328.22437763505</v>
+        <v>688985.75040704303</v>
       </c>
       <c r="F368">
-        <v>10511.89</v>
+        <v>11167.82</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B369" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C369">
         <v>5</v>
       </c>
       <c r="D369">
-        <v>319167.006719439</v>
+        <v>275102.790262644</v>
       </c>
       <c r="E369">
-        <v>714231.92988393304</v>
+        <v>688956.29884223104</v>
       </c>
       <c r="F369">
-        <v>10056.85</v>
+        <v>10904.39</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B370" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C370">
         <v>1</v>
       </c>
       <c r="D370">
-        <v>319210.14363386401</v>
+        <v>274738.44953763601</v>
       </c>
       <c r="E370">
-        <v>714682.53102188895</v>
+        <v>689205.43471221696</v>
       </c>
       <c r="F370">
-        <v>16075.88</v>
+        <v>13508.94</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B371" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C371">
         <v>2</v>
       </c>
       <c r="D371">
-        <v>319098.00572393998</v>
+        <v>274682.58713810903</v>
       </c>
       <c r="E371">
-        <v>714636.09271349001</v>
+        <v>689098.42679775704</v>
       </c>
       <c r="F371">
-        <v>11238.68</v>
+        <v>12049.2</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B372" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C372">
         <v>3</v>
       </c>
       <c r="D372">
-        <v>318994.606126033</v>
+        <v>274577.73731309501</v>
       </c>
       <c r="E372">
-        <v>714645.23011437606</v>
+        <v>689054.54441636603</v>
       </c>
       <c r="F372">
-        <v>13778.87</v>
+        <v>11473.47</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B373" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C373">
         <v>4</v>
       </c>
       <c r="D373">
-        <v>318889.86937162402</v>
+        <v>274471.49411908397</v>
       </c>
       <c r="E373">
-        <v>714698.10648719606</v>
+        <v>689021.05890565005</v>
       </c>
       <c r="F373">
-        <v>10517.64</v>
+        <v>10617.21</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B374" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C374">
         <v>5</v>
       </c>
       <c r="D374">
-        <v>318794.86597628897</v>
+        <v>274381.31567247101</v>
       </c>
       <c r="E374">
-        <v>714742.43368432706</v>
+        <v>688973.70684151002</v>
       </c>
       <c r="F374">
-        <v>10713.43</v>
+        <v>10053.31</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B375" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C375">
         <v>1</v>
       </c>
       <c r="D375">
-        <v>320540.94807077502</v>
+        <v>319264.678969573</v>
       </c>
       <c r="E375">
-        <v>688566.25165296905</v>
+        <v>714683.217843908</v>
       </c>
       <c r="F375">
-        <v>13483.7</v>
+        <v>13457.27</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B376" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C376">
         <v>2</v>
       </c>
       <c r="D376">
-        <v>320627.393281091</v>
+        <v>319375.64238955302</v>
       </c>
       <c r="E376">
-        <v>688647.92773999204</v>
+        <v>714730.35404282506</v>
       </c>
       <c r="F376">
-        <v>10488.27</v>
+        <v>11119.38</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B377" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C377">
         <v>3</v>
       </c>
       <c r="D377">
-        <v>320713.89986529102</v>
+        <v>319433.66574395698</v>
       </c>
       <c r="E377">
-        <v>688704.17742196599</v>
+        <v>714818.05792328005</v>
       </c>
       <c r="F377">
-        <v>10291.530000000001</v>
+        <v>13225.67</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B378" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C378">
         <v>4</v>
       </c>
       <c r="D378">
-        <v>320804.26018386497</v>
+        <v>319527.15108832897</v>
       </c>
       <c r="E378">
-        <v>688750.17499432701</v>
+        <v>714875.49687041703</v>
       </c>
       <c r="F378">
-        <v>10514.93</v>
+        <v>12131.42</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B379" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C379">
         <v>5</v>
       </c>
       <c r="D379">
-        <v>320897.797558958</v>
+        <v>319645.75346869702</v>
       </c>
       <c r="E379">
-        <v>688792.26846647996</v>
+        <v>714840.35830465704</v>
       </c>
       <c r="F379">
-        <v>10322.4</v>
+        <v>18502.53</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B380" t="s">
         <v>20</v>
@@ -8654,18 +8657,18 @@
         <v>1</v>
       </c>
       <c r="D380">
-        <v>320503.97479479498</v>
+        <v>319233.42956630501</v>
       </c>
       <c r="E380">
-        <v>688570.81280849804</v>
+        <v>714702.49144383799</v>
       </c>
       <c r="F380">
-        <v>16933.04</v>
+        <v>13466.31</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B381" t="s">
         <v>20</v>
@@ -8674,18 +8677,18 @@
         <v>2</v>
       </c>
       <c r="D381">
-        <v>320394.65335885499</v>
+        <v>319203.88278185402</v>
       </c>
       <c r="E381">
-        <v>688572.330999834</v>
+        <v>714817.37415313802</v>
       </c>
       <c r="F381">
-        <v>16022.52</v>
+        <v>10408.370000000001</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B382" t="s">
         <v>20</v>
@@ -8694,18 +8697,18 @@
         <v>3</v>
       </c>
       <c r="D382">
-        <v>320300.05286983802</v>
+        <v>319179.82551114599</v>
       </c>
       <c r="E382">
-        <v>688642.95421080396</v>
+        <v>714916.00439878996</v>
       </c>
       <c r="F382">
-        <v>13794.48</v>
+        <v>10160.75</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B383" t="s">
         <v>20</v>
@@ -8714,18 +8717,18 @@
         <v>4</v>
       </c>
       <c r="D383">
-        <v>320257.06155696302</v>
+        <v>319167.10701577301</v>
       </c>
       <c r="E383">
-        <v>688763.80028224504</v>
+        <v>715016.32699130196</v>
       </c>
       <c r="F383">
-        <v>12048.68</v>
+        <v>10059.23</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B384" t="s">
         <v>20</v>
@@ -8734,212 +8737,612 @@
         <v>5</v>
       </c>
       <c r="D384">
-        <v>320197.53124564502</v>
+        <v>319155.24713975698</v>
       </c>
       <c r="E384">
-        <v>688853.34926597902</v>
+        <v>715116.10862629896</v>
       </c>
       <c r="F384">
-        <v>10751.01</v>
+        <v>10041.280000000001</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B385" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C385">
         <v>1</v>
       </c>
       <c r="D385">
-        <v>320535.31456242298</v>
+        <v>319223.84188868402</v>
       </c>
       <c r="E385">
-        <v>688517.28643629001</v>
+        <v>714651.605644066</v>
       </c>
       <c r="F385">
-        <v>18630.990000000002</v>
+        <v>14979.58</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B386" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C386">
         <v>2</v>
       </c>
       <c r="D386">
-        <v>320645.11555474799</v>
+        <v>319214.65827596898</v>
       </c>
       <c r="E386">
-        <v>688513.46110551897</v>
+        <v>714530.57097302505</v>
       </c>
       <c r="F386">
-        <v>13036.4</v>
+        <v>10314.209999999999</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B387" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C387">
         <v>3</v>
       </c>
       <c r="D387">
-        <v>320769.51842111401</v>
+        <v>319210.01760589902</v>
       </c>
       <c r="E387">
-        <v>688519.91085894301</v>
+        <v>714428.50001791003</v>
       </c>
       <c r="F387">
-        <v>10265.75</v>
+        <v>10122.129999999999</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B388" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C388">
         <v>4</v>
       </c>
       <c r="D388">
-        <v>320868.922022513</v>
+        <v>319200.15921964397</v>
       </c>
       <c r="E388">
-        <v>688501.83170882298</v>
+        <v>714328.22437763505</v>
       </c>
       <c r="F388">
-        <v>10067.719999999999</v>
+        <v>10511.89</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B389" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C389">
         <v>5</v>
       </c>
       <c r="D389">
-        <v>320967.41189535701</v>
+        <v>319167.006719439</v>
       </c>
       <c r="E389">
-        <v>688483.058903525</v>
+        <v>714231.92988393304</v>
       </c>
       <c r="F389">
-        <v>10263.44</v>
+        <v>10056.85</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B390" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C390">
         <v>1</v>
       </c>
       <c r="D390">
-        <v>320503.73152548802</v>
+        <v>319210.14363386401</v>
       </c>
       <c r="E390">
-        <v>688569.95991849795</v>
+        <v>714682.53102188895</v>
       </c>
       <c r="F390">
-        <v>17342.86</v>
+        <v>16075.88</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B391" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C391">
         <v>2</v>
       </c>
       <c r="D391">
-        <v>320410.32805032702</v>
+        <v>319098.00572393998</v>
       </c>
       <c r="E391">
-        <v>688503.49678037001</v>
+        <v>714636.09271349001</v>
       </c>
       <c r="F391">
-        <v>26650.82</v>
+        <v>11238.68</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B392" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C392">
         <v>3</v>
       </c>
       <c r="D392">
-        <v>320423.91211241001</v>
+        <v>318994.606126033</v>
       </c>
       <c r="E392">
-        <v>688328.61161559599</v>
+        <v>714645.23011437606</v>
       </c>
       <c r="F392">
-        <v>11817.57</v>
+        <v>13778.87</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B393" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C393">
         <v>4</v>
       </c>
       <c r="D393">
-        <v>320427.82447813102</v>
+        <v>318889.86937162402</v>
       </c>
       <c r="E393">
-        <v>688206.78880114504</v>
+        <v>714698.10648719606</v>
       </c>
       <c r="F393">
-        <v>12435.29</v>
+        <v>10517.64</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B394" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C394">
         <v>5</v>
       </c>
       <c r="D394">
+        <v>318794.86597628897</v>
+      </c>
+      <c r="E394">
+        <v>714742.43368432706</v>
+      </c>
+      <c r="F394">
+        <v>10713.43</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>47</v>
+      </c>
+      <c r="B395" t="s">
+        <v>24</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>320540.94807077502</v>
+      </c>
+      <c r="E395">
+        <v>688566.25165296905</v>
+      </c>
+      <c r="F395">
+        <v>13483.7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>47</v>
+      </c>
+      <c r="B396" t="s">
+        <v>24</v>
+      </c>
+      <c r="C396">
+        <v>2</v>
+      </c>
+      <c r="D396">
+        <v>320627.393281091</v>
+      </c>
+      <c r="E396">
+        <v>688647.92773999204</v>
+      </c>
+      <c r="F396">
+        <v>10488.27</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>47</v>
+      </c>
+      <c r="B397" t="s">
+        <v>24</v>
+      </c>
+      <c r="C397">
+        <v>3</v>
+      </c>
+      <c r="D397">
+        <v>320713.89986529102</v>
+      </c>
+      <c r="E397">
+        <v>688704.17742196599</v>
+      </c>
+      <c r="F397">
+        <v>10291.530000000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>47</v>
+      </c>
+      <c r="B398" t="s">
+        <v>24</v>
+      </c>
+      <c r="C398">
+        <v>4</v>
+      </c>
+      <c r="D398">
+        <v>320804.26018386497</v>
+      </c>
+      <c r="E398">
+        <v>688750.17499432701</v>
+      </c>
+      <c r="F398">
+        <v>10514.93</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>47</v>
+      </c>
+      <c r="B399" t="s">
+        <v>24</v>
+      </c>
+      <c r="C399">
+        <v>5</v>
+      </c>
+      <c r="D399">
+        <v>320897.797558958</v>
+      </c>
+      <c r="E399">
+        <v>688792.26846647996</v>
+      </c>
+      <c r="F399">
+        <v>10322.4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>47</v>
+      </c>
+      <c r="B400" t="s">
+        <v>20</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>320503.97479479498</v>
+      </c>
+      <c r="E400">
+        <v>688570.81280849804</v>
+      </c>
+      <c r="F400">
+        <v>16933.04</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>47</v>
+      </c>
+      <c r="B401" t="s">
+        <v>20</v>
+      </c>
+      <c r="C401">
+        <v>2</v>
+      </c>
+      <c r="D401">
+        <v>320394.65335885499</v>
+      </c>
+      <c r="E401">
+        <v>688572.330999834</v>
+      </c>
+      <c r="F401">
+        <v>16022.52</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>47</v>
+      </c>
+      <c r="B402" t="s">
+        <v>20</v>
+      </c>
+      <c r="C402">
+        <v>3</v>
+      </c>
+      <c r="D402">
+        <v>320300.05286983802</v>
+      </c>
+      <c r="E402">
+        <v>688642.95421080396</v>
+      </c>
+      <c r="F402">
+        <v>13794.48</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>47</v>
+      </c>
+      <c r="B403" t="s">
+        <v>20</v>
+      </c>
+      <c r="C403">
+        <v>4</v>
+      </c>
+      <c r="D403">
+        <v>320257.06155696302</v>
+      </c>
+      <c r="E403">
+        <v>688763.80028224504</v>
+      </c>
+      <c r="F403">
+        <v>12048.68</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>47</v>
+      </c>
+      <c r="B404" t="s">
+        <v>20</v>
+      </c>
+      <c r="C404">
+        <v>5</v>
+      </c>
+      <c r="D404">
+        <v>320197.53124564502</v>
+      </c>
+      <c r="E404">
+        <v>688853.34926597902</v>
+      </c>
+      <c r="F404">
+        <v>10751.01</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>47</v>
+      </c>
+      <c r="B405" t="s">
+        <v>38</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405">
+        <v>320535.31456242298</v>
+      </c>
+      <c r="E405">
+        <v>688517.28643629001</v>
+      </c>
+      <c r="F405">
+        <v>18630.990000000002</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>47</v>
+      </c>
+      <c r="B406" t="s">
+        <v>38</v>
+      </c>
+      <c r="C406">
+        <v>2</v>
+      </c>
+      <c r="D406">
+        <v>320645.11555474799</v>
+      </c>
+      <c r="E406">
+        <v>688513.46110551897</v>
+      </c>
+      <c r="F406">
+        <v>13036.4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>47</v>
+      </c>
+      <c r="B407" t="s">
+        <v>38</v>
+      </c>
+      <c r="C407">
+        <v>3</v>
+      </c>
+      <c r="D407">
+        <v>320769.51842111401</v>
+      </c>
+      <c r="E407">
+        <v>688519.91085894301</v>
+      </c>
+      <c r="F407">
+        <v>10265.75</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>47</v>
+      </c>
+      <c r="B408" t="s">
+        <v>38</v>
+      </c>
+      <c r="C408">
+        <v>4</v>
+      </c>
+      <c r="D408">
+        <v>320868.922022513</v>
+      </c>
+      <c r="E408">
+        <v>688501.83170882298</v>
+      </c>
+      <c r="F408">
+        <v>10067.719999999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>47</v>
+      </c>
+      <c r="B409" t="s">
+        <v>38</v>
+      </c>
+      <c r="C409">
+        <v>5</v>
+      </c>
+      <c r="D409">
+        <v>320967.41189535701</v>
+      </c>
+      <c r="E409">
+        <v>688483.058903525</v>
+      </c>
+      <c r="F409">
+        <v>10263.44</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>47</v>
+      </c>
+      <c r="B410" t="s">
+        <v>22</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410">
+        <v>320503.73152548802</v>
+      </c>
+      <c r="E410">
+        <v>688569.95991849795</v>
+      </c>
+      <c r="F410">
+        <v>17342.86</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>47</v>
+      </c>
+      <c r="B411" t="s">
+        <v>22</v>
+      </c>
+      <c r="C411">
+        <v>2</v>
+      </c>
+      <c r="D411">
+        <v>320410.32805032702</v>
+      </c>
+      <c r="E411">
+        <v>688503.49678037001</v>
+      </c>
+      <c r="F411">
+        <v>26650.82</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>47</v>
+      </c>
+      <c r="B412" t="s">
+        <v>22</v>
+      </c>
+      <c r="C412">
+        <v>3</v>
+      </c>
+      <c r="D412">
+        <v>320423.91211241001</v>
+      </c>
+      <c r="E412">
+        <v>688328.61161559599</v>
+      </c>
+      <c r="F412">
+        <v>11817.57</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>47</v>
+      </c>
+      <c r="B413" t="s">
+        <v>22</v>
+      </c>
+      <c r="C413">
+        <v>4</v>
+      </c>
+      <c r="D413">
+        <v>320427.82447813102</v>
+      </c>
+      <c r="E413">
+        <v>688206.78880114504</v>
+      </c>
+      <c r="F413">
+        <v>12435.29</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>47</v>
+      </c>
+      <c r="B414" t="s">
+        <v>22</v>
+      </c>
+      <c r="C414">
+        <v>5</v>
+      </c>
+      <c r="D414">
         <v>320475.24207073601</v>
       </c>
-      <c r="E394">
+      <c r="E414">
         <v>688100.10736432497</v>
       </c>
-      <c r="F394">
+      <c r="F414">
         <v>11819.94</v>
       </c>
     </row>

--- a/data/Transect section data 2013 and 2014.xlsx
+++ b/data/Transect section data 2013 and 2014.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="30" windowWidth="18960" windowHeight="6225"/>
+    <workbookView xWindow="165" yWindow="7305" windowWidth="18960" windowHeight="6240"/>
   </bookViews>
   <sheets>
     <sheet name="section data" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'section data'!$A$1:$G$600</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'section data'!$A$1:$G$639</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="49">
   <si>
     <t>SITE</t>
   </si>
@@ -125,9 +125,6 @@
     <t>West Lodge Balmule</t>
   </si>
   <si>
-    <t>Annfield Farm</t>
-  </si>
-  <si>
     <t>Mairi_TransectName</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Whitehills</t>
+  </si>
+  <si>
+    <t>Annfield</t>
   </si>
 </sst>
 </file>
@@ -1035,11 +1035,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M637"/>
+  <dimension ref="A1:G639"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A617" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C624" sqref="C624"/>
+      <pane ySplit="1" topLeftCell="A529" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G534" sqref="G534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B118" t="s">
         <v>11</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B122" t="s">
         <v>25</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B123" t="s">
         <v>25</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B124" t="s">
         <v>25</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B125" t="s">
         <v>25</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B126" t="s">
         <v>25</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
@@ -3725,9 +3725,9 @@
         <v>10339.36</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
@@ -3748,9 +3748,9 @@
         <v>10101.620000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
@@ -3771,9 +3771,9 @@
         <v>10049.370000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
@@ -3794,9 +3794,9 @@
         <v>10092.69</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>13</v>
@@ -3816,13 +3816,10 @@
       <c r="G132" s="6">
         <v>15946.74</v>
       </c>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
-      <c r="L132" s="6"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>13</v>
@@ -3842,15 +3839,10 @@
       <c r="G133" s="6">
         <v>13521.83</v>
       </c>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
-      <c r="K133" s="6"/>
-      <c r="L133" s="6"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>13</v>
@@ -3870,15 +3862,10 @@
       <c r="G134" s="6">
         <v>13218.15</v>
       </c>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
-      <c r="L134" s="6"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>13</v>
@@ -3898,15 +3885,10 @@
       <c r="G135" s="6">
         <v>13044.66</v>
       </c>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-      <c r="L135" s="6"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>13</v>
@@ -3926,15 +3908,10 @@
       <c r="G136" s="6">
         <v>11471.85</v>
       </c>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
-      <c r="L136" s="6"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>20</v>
@@ -3954,15 +3931,10 @@
       <c r="G137" s="6">
         <v>15401.7</v>
       </c>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
-      <c r="L137" s="6"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>20</v>
@@ -3982,15 +3954,10 @@
       <c r="G138" s="6">
         <v>15903.44</v>
       </c>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
-      <c r="K138" s="6"/>
-      <c r="L138" s="6"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>20</v>
@@ -4010,15 +3977,10 @@
       <c r="G139" s="6">
         <v>11647.31</v>
       </c>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
-      <c r="K139" s="6"/>
-      <c r="L139" s="6"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>20</v>
@@ -4038,15 +4000,10 @@
       <c r="G140" s="6">
         <v>10685.32</v>
       </c>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="K140" s="6"/>
-      <c r="L140" s="6"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>20</v>
@@ -4066,15 +4023,10 @@
       <c r="G141" s="6">
         <v>13304.23</v>
       </c>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
-      <c r="K141" s="6"/>
-      <c r="L141" s="6"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>25</v>
@@ -4094,15 +4046,10 @@
       <c r="G142" s="6">
         <v>14037.45</v>
       </c>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
-      <c r="K142" s="6"/>
-      <c r="L142" s="6"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>25</v>
@@ -4122,15 +4069,10 @@
       <c r="G143" s="6">
         <v>10220.969999999999</v>
       </c>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="K143" s="6"/>
-      <c r="L143" s="6"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>25</v>
@@ -4150,15 +4092,10 @@
       <c r="G144" s="6">
         <v>10066.07</v>
       </c>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
-      <c r="K144" s="6"/>
-      <c r="L144" s="6"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>25</v>
@@ -4178,15 +4115,10 @@
       <c r="G145" s="6">
         <v>10028.76</v>
       </c>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
-      <c r="K145" s="6"/>
-      <c r="L145" s="6"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>25</v>
@@ -4206,15 +4138,10 @@
       <c r="G146" s="6">
         <v>10974.05</v>
       </c>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="6"/>
-      <c r="K146" s="6"/>
-      <c r="L146" s="6"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>8</v>
@@ -4234,15 +4161,10 @@
       <c r="G147" s="6">
         <v>15400.06</v>
       </c>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
-      <c r="K147" s="6"/>
-      <c r="L147" s="6"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>8</v>
@@ -4262,15 +4184,10 @@
       <c r="G148" s="6">
         <v>10533.64</v>
       </c>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
-      <c r="K148" s="6"/>
-      <c r="L148" s="6"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>8</v>
@@ -4290,15 +4207,10 @@
       <c r="G149" s="6">
         <v>10152.129999999999</v>
       </c>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
-      <c r="J149" s="6"/>
-      <c r="K149" s="6"/>
-      <c r="L149" s="6"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>8</v>
@@ -4318,15 +4230,10 @@
       <c r="G150" s="6">
         <v>15786.72</v>
       </c>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
-      <c r="K150" s="6"/>
-      <c r="L150" s="6"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>8</v>
@@ -4346,15 +4253,10 @@
       <c r="G151" s="6">
         <v>13977.27</v>
       </c>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
-      <c r="K151" s="6"/>
-      <c r="L151" s="6"/>
-    </row>
-    <row r="152" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>11</v>
@@ -4375,9 +4277,9 @@
         <v>14040.68</v>
       </c>
     </row>
-    <row r="153" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>11</v>
@@ -4398,9 +4300,9 @@
         <v>16801.54</v>
       </c>
     </row>
-    <row r="154" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>11</v>
@@ -4421,9 +4323,9 @@
         <v>12429.15</v>
       </c>
     </row>
-    <row r="155" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>11</v>
@@ -4444,9 +4346,9 @@
         <v>11021</v>
       </c>
     </row>
-    <row r="156" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>11</v>
@@ -4467,9 +4369,9 @@
         <v>10387.02</v>
       </c>
     </row>
-    <row r="157" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>20</v>
@@ -4490,9 +4392,9 @@
         <v>14238.14</v>
       </c>
     </row>
-    <row r="158" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>20</v>
@@ -4513,9 +4415,9 @@
         <v>13125.81</v>
       </c>
     </row>
-    <row r="159" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>20</v>
@@ -4536,9 +4438,9 @@
         <v>10289</v>
       </c>
     </row>
-    <row r="160" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>20</v>
@@ -4561,7 +4463,7 @@
     </row>
     <row r="161" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>20</v>
@@ -4584,7 +4486,7 @@
     </row>
     <row r="162" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>25</v>
@@ -4607,7 +4509,7 @@
     </row>
     <row r="163" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>25</v>
@@ -4630,7 +4532,7 @@
     </row>
     <row r="164" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>25</v>
@@ -4653,7 +4555,7 @@
     </row>
     <row r="165" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>25</v>
@@ -4676,7 +4578,7 @@
     </row>
     <row r="166" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>25</v>
@@ -4699,7 +4601,7 @@
     </row>
     <row r="167" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>12</v>
@@ -4722,7 +4624,7 @@
     </row>
     <row r="168" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>12</v>
@@ -4745,7 +4647,7 @@
     </row>
     <row r="169" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>12</v>
@@ -4768,7 +4670,7 @@
     </row>
     <row r="170" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>12</v>
@@ -4791,7 +4693,7 @@
     </row>
     <row r="171" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>12</v>
@@ -6614,7 +6516,7 @@
     </row>
     <row r="262" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B262" s="13" t="s">
         <v>7</v>
@@ -6637,7 +6539,7 @@
     </row>
     <row r="263" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B263" s="13" t="s">
         <v>7</v>
@@ -6660,7 +6562,7 @@
     </row>
     <row r="264" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B264" s="13" t="s">
         <v>7</v>
@@ -6683,7 +6585,7 @@
     </row>
     <row r="265" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B265" s="13" t="s">
         <v>7</v>
@@ -6706,7 +6608,7 @@
     </row>
     <row r="266" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B266" s="13" t="s">
         <v>7</v>
@@ -6729,7 +6631,7 @@
     </row>
     <row r="267" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B267" s="13" t="s">
         <v>9</v>
@@ -6752,7 +6654,7 @@
     </row>
     <row r="268" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B268" s="13" t="s">
         <v>9</v>
@@ -6775,7 +6677,7 @@
     </row>
     <row r="269" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B269" s="13" t="s">
         <v>9</v>
@@ -6798,7 +6700,7 @@
     </row>
     <row r="270" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B270" s="13" t="s">
         <v>9</v>
@@ -6821,7 +6723,7 @@
     </row>
     <row r="271" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B271" s="13" t="s">
         <v>9</v>
@@ -6844,7 +6746,7 @@
     </row>
     <row r="272" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B272" s="13" t="s">
         <v>8</v>
@@ -6867,7 +6769,7 @@
     </row>
     <row r="273" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B273" s="13" t="s">
         <v>8</v>
@@ -6890,7 +6792,7 @@
     </row>
     <row r="274" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B274" s="13" t="s">
         <v>8</v>
@@ -6913,7 +6815,7 @@
     </row>
     <row r="275" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B275" s="13" t="s">
         <v>8</v>
@@ -6936,7 +6838,7 @@
     </row>
     <row r="276" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B276" s="13" t="s">
         <v>8</v>
@@ -7359,7 +7261,7 @@
     </row>
     <row r="297" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B297" s="17" t="s">
         <v>11</v>
@@ -7382,7 +7284,7 @@
     </row>
     <row r="298" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B298" s="17" t="s">
         <v>11</v>
@@ -7405,7 +7307,7 @@
     </row>
     <row r="299" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B299" s="17" t="s">
         <v>11</v>
@@ -7428,7 +7330,7 @@
     </row>
     <row r="300" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B300" s="17" t="s">
         <v>11</v>
@@ -7451,7 +7353,7 @@
     </row>
     <row r="301" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B301" s="17" t="s">
         <v>11</v>
@@ -7474,7 +7376,7 @@
     </row>
     <row r="302" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B302" s="17" t="s">
         <v>20</v>
@@ -7497,7 +7399,7 @@
     </row>
     <row r="303" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B303" s="17" t="s">
         <v>20</v>
@@ -7520,7 +7422,7 @@
     </row>
     <row r="304" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B304" s="17" t="s">
         <v>20</v>
@@ -7543,7 +7445,7 @@
     </row>
     <row r="305" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B305" s="17" t="s">
         <v>20</v>
@@ -7566,7 +7468,7 @@
     </row>
     <row r="306" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B306" s="17" t="s">
         <v>20</v>
@@ -7589,7 +7491,7 @@
     </row>
     <row r="307" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B307" s="17" t="s">
         <v>25</v>
@@ -7612,7 +7514,7 @@
     </row>
     <row r="308" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B308" s="17" t="s">
         <v>25</v>
@@ -7635,7 +7537,7 @@
     </row>
     <row r="309" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B309" s="17" t="s">
         <v>25</v>
@@ -7658,7 +7560,7 @@
     </row>
     <row r="310" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B310" s="17" t="s">
         <v>25</v>
@@ -7681,7 +7583,7 @@
     </row>
     <row r="311" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B311" s="17" t="s">
         <v>25</v>
@@ -7704,7 +7606,7 @@
     </row>
     <row r="312" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B312" s="17" t="s">
         <v>12</v>
@@ -7727,7 +7629,7 @@
     </row>
     <row r="313" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B313" s="17" t="s">
         <v>12</v>
@@ -7750,7 +7652,7 @@
     </row>
     <row r="314" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B314" s="17" t="s">
         <v>12</v>
@@ -7773,7 +7675,7 @@
     </row>
     <row r="315" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B315" s="17" t="s">
         <v>12</v>
@@ -7796,7 +7698,7 @@
     </row>
     <row r="316" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B316" s="17" t="s">
         <v>12</v>
@@ -7917,44 +7819,44 @@
         <v>10017.209999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+    <row r="322" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D322">
-        <v>3</v>
-      </c>
-      <c r="E322">
-        <v>319592.41001745401</v>
-      </c>
-      <c r="F322">
-        <v>741294.56139626505</v>
-      </c>
-      <c r="G322">
-        <v>13249.43</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="D322" s="39">
+        <v>1</v>
+      </c>
+      <c r="E322" s="39">
+        <v>319827.23629392299</v>
+      </c>
+      <c r="F322" s="39">
+        <v>741334.84505455499</v>
+      </c>
+      <c r="G322" s="39">
+        <v>13448.67</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D323">
-        <v>4</v>
-      </c>
-      <c r="E323">
-        <v>319533.35928059398</v>
-      </c>
-      <c r="F323">
-        <v>741386.51654164202</v>
-      </c>
-      <c r="G323">
-        <v>24212.12</v>
+      <c r="D323" s="39">
+        <v>2</v>
+      </c>
+      <c r="E323" s="39">
+        <v>319722.73469514301</v>
+      </c>
+      <c r="F323" s="39">
+        <v>741278.68209976796</v>
+      </c>
+      <c r="G323" s="39">
+        <v>10222.620000000001</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -7965,16 +7867,16 @@
         <v>20</v>
       </c>
       <c r="D324">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E324">
-        <v>319482.47066671698</v>
+        <v>319592.41001745401</v>
       </c>
       <c r="F324">
-        <v>741593.56241204496</v>
+        <v>741294.56139626505</v>
       </c>
       <c r="G324">
-        <v>13194.13</v>
+        <v>13249.43</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -7982,19 +7884,19 @@
         <v>24</v>
       </c>
       <c r="B325" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D325">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E325">
-        <v>319865.32786133699</v>
+        <v>319533.35928059398</v>
       </c>
       <c r="F325">
-        <v>741322.49116249103</v>
+        <v>741386.51654164202</v>
       </c>
       <c r="G325">
-        <v>14073.28</v>
+        <v>24212.12</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -8002,19 +7904,19 @@
         <v>24</v>
       </c>
       <c r="B326" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D326">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E326">
-        <v>319941.41632626101</v>
+        <v>319482.47066671698</v>
       </c>
       <c r="F326">
-        <v>741224.832507201</v>
+        <v>741593.56241204496</v>
       </c>
       <c r="G326">
-        <v>11736.39</v>
+        <v>13194.13</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -8025,16 +7927,16 @@
         <v>25</v>
       </c>
       <c r="D327">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E327">
-        <v>320017.99467738502</v>
+        <v>319865.32786133699</v>
       </c>
       <c r="F327">
-        <v>741171.87527410104</v>
+        <v>741322.49116249103</v>
       </c>
       <c r="G327">
-        <v>12958.77</v>
+        <v>14073.28</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -8045,16 +7947,16 @@
         <v>25</v>
       </c>
       <c r="D328">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E328">
-        <v>320110.75629733899</v>
+        <v>319941.41632626101</v>
       </c>
       <c r="F328">
-        <v>741111.30497748998</v>
+        <v>741224.832507201</v>
       </c>
       <c r="G328">
-        <v>10030.959999999999</v>
+        <v>11736.39</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -8065,16 +7967,16 @@
         <v>25</v>
       </c>
       <c r="D329">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E329">
-        <v>320185.00387979101</v>
+        <v>320017.99467738502</v>
       </c>
       <c r="F329">
-        <v>741043.98122800002</v>
+        <v>741171.87527410104</v>
       </c>
       <c r="G329">
-        <v>10013.66</v>
+        <v>12958.77</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -8082,19 +7984,19 @@
         <v>24</v>
       </c>
       <c r="B330" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D330">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E330">
-        <v>319827.23629392299</v>
+        <v>320110.75629733899</v>
       </c>
       <c r="F330">
-        <v>741334.84505455499</v>
+        <v>741111.30497748998</v>
       </c>
       <c r="G330">
-        <v>13448.67</v>
+        <v>10030.959999999999</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -8102,19 +8004,19 @@
         <v>24</v>
       </c>
       <c r="B331" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D331">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E331">
-        <v>319722.73469514301</v>
+        <v>320185.00387979101</v>
       </c>
       <c r="F331">
-        <v>741278.68209976796</v>
+        <v>741043.98122800002</v>
       </c>
       <c r="G331">
-        <v>10222.620000000001</v>
+        <v>10013.66</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -8125,16 +8027,16 @@
         <v>12</v>
       </c>
       <c r="D332">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E332">
-        <v>319633.75583994301</v>
+        <v>319827.23629392299</v>
       </c>
       <c r="F332">
-        <v>741229.51838575699</v>
+        <v>741334.84505455499</v>
       </c>
       <c r="G332">
-        <v>10103.6</v>
+        <v>13448.67</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -8145,16 +8047,16 @@
         <v>12</v>
       </c>
       <c r="D333">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E333">
-        <v>319549.856231371</v>
+        <v>319722.73469514301</v>
       </c>
       <c r="F333">
-        <v>741175.053656884</v>
+        <v>741278.68209976796</v>
       </c>
       <c r="G333">
-        <v>10178.120000000001</v>
+        <v>10222.620000000001</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -8165,56 +8067,56 @@
         <v>12</v>
       </c>
       <c r="D334">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E334">
-        <v>319464.18789545703</v>
+        <v>319633.75583994301</v>
       </c>
       <c r="F334">
-        <v>741121.79442720104</v>
+        <v>741229.51838575699</v>
       </c>
       <c r="G334">
-        <v>10017.89</v>
+        <v>10103.6</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B335" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D335">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E335">
-        <v>276334.75501806202</v>
+        <v>319549.856231371</v>
       </c>
       <c r="F335">
-        <v>690900.523310096</v>
+        <v>741175.053656884</v>
       </c>
       <c r="G335">
-        <v>13958.79</v>
+        <v>10178.120000000001</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B336" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D336">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E336">
-        <v>276220.889903765</v>
+        <v>319464.18789545703</v>
       </c>
       <c r="F336">
-        <v>690938.20260928897</v>
+        <v>741121.79442720104</v>
       </c>
       <c r="G336">
-        <v>11478.52</v>
+        <v>10017.89</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -8225,16 +8127,16 @@
         <v>20</v>
       </c>
       <c r="D337">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E337">
-        <v>276141.58957829798</v>
+        <v>276334.75501806202</v>
       </c>
       <c r="F337">
-        <v>691016.24456710299</v>
+        <v>690900.523310096</v>
       </c>
       <c r="G337">
-        <v>10585.62</v>
+        <v>13958.79</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -8245,16 +8147,16 @@
         <v>20</v>
       </c>
       <c r="D338">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E338">
-        <v>276067.40801735403</v>
+        <v>276220.889903765</v>
       </c>
       <c r="F338">
-        <v>691089.93648054102</v>
+        <v>690938.20260928897</v>
       </c>
       <c r="G338">
-        <v>10270</v>
+        <v>11478.52</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -8265,16 +8167,16 @@
         <v>20</v>
       </c>
       <c r="D339">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E339">
-        <v>276001.75448453397</v>
+        <v>276141.58957829798</v>
       </c>
       <c r="F339">
-        <v>691171.42462708196</v>
+        <v>691016.24456710299</v>
       </c>
       <c r="G339">
-        <v>11611.42</v>
+        <v>10585.62</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -8282,19 +8184,19 @@
         <v>26</v>
       </c>
       <c r="B340" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D340">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E340">
-        <v>276344.86130628898</v>
+        <v>276067.40801735403</v>
       </c>
       <c r="F340">
-        <v>690929.76165483496</v>
+        <v>691089.93648054102</v>
       </c>
       <c r="G340">
-        <v>14667.87</v>
+        <v>10270</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -8302,19 +8204,19 @@
         <v>26</v>
       </c>
       <c r="B341" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D341">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E341">
-        <v>276352.09500861901</v>
+        <v>276001.75448453397</v>
       </c>
       <c r="F341">
-        <v>691043.73893178499</v>
+        <v>691171.42462708196</v>
       </c>
       <c r="G341">
-        <v>11936.44</v>
+        <v>11611.42</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -8325,16 +8227,16 @@
         <v>7</v>
       </c>
       <c r="D342">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E342">
-        <v>276367.39808048401</v>
+        <v>276344.86130628898</v>
       </c>
       <c r="F342">
-        <v>691153.24192651198</v>
+        <v>690929.76165483496</v>
       </c>
       <c r="G342">
-        <v>10743.62</v>
+        <v>14667.87</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -8345,16 +8247,16 @@
         <v>7</v>
       </c>
       <c r="D343">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E343">
-        <v>276416.98321259598</v>
+        <v>276352.09500861901</v>
       </c>
       <c r="F343">
-        <v>691247.40722843702</v>
+        <v>691043.73893178499</v>
       </c>
       <c r="G343">
-        <v>10891.52</v>
+        <v>11936.44</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -8365,16 +8267,16 @@
         <v>7</v>
       </c>
       <c r="D344">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E344">
-        <v>276482.98736567399</v>
+        <v>276367.39808048401</v>
       </c>
       <c r="F344">
-        <v>691333.51268741605</v>
+        <v>691153.24192651198</v>
       </c>
       <c r="G344">
-        <v>12082.04</v>
+        <v>10743.62</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -8382,19 +8284,19 @@
         <v>26</v>
       </c>
       <c r="B345" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D345">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E345">
-        <v>276382.80771853297</v>
+        <v>276416.98321259598</v>
       </c>
       <c r="F345">
-        <v>690923.14898710698</v>
+        <v>691247.40722843702</v>
       </c>
       <c r="G345">
-        <v>13384.44</v>
+        <v>10891.52</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -8402,19 +8304,19 @@
         <v>26</v>
       </c>
       <c r="B346" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D346">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E346">
-        <v>276476.12764897302</v>
+        <v>276482.98736567399</v>
       </c>
       <c r="F346">
-        <v>691001.00423508498</v>
+        <v>691333.51268741605</v>
       </c>
       <c r="G346">
-        <v>11630.01</v>
+        <v>12082.04</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -8425,16 +8327,16 @@
         <v>25</v>
       </c>
       <c r="D347">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E347">
-        <v>276591.44894170301</v>
+        <v>276382.80771853297</v>
       </c>
       <c r="F347">
-        <v>690989.80143869901</v>
+        <v>690923.14898710698</v>
       </c>
       <c r="G347">
-        <v>17483.330000000002</v>
+        <v>13384.44</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -8445,16 +8347,16 @@
         <v>25</v>
       </c>
       <c r="D348">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E348">
-        <v>276704.86380073999</v>
+        <v>276476.12764897302</v>
       </c>
       <c r="F348">
-        <v>690905.86007410497</v>
+        <v>691001.00423508498</v>
       </c>
       <c r="G348">
-        <v>11907.72</v>
+        <v>11630.01</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -8465,16 +8367,16 @@
         <v>25</v>
       </c>
       <c r="D349">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E349">
-        <v>276809.96029849898</v>
+        <v>276591.44894170301</v>
       </c>
       <c r="F349">
-        <v>690876.38982836704</v>
+        <v>690989.80143869901</v>
       </c>
       <c r="G349">
-        <v>10051</v>
+        <v>17483.330000000002</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
@@ -8482,19 +8384,19 @@
         <v>26</v>
       </c>
       <c r="B350" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D350">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E350">
-        <v>276340.12043731398</v>
+        <v>276704.86380073999</v>
       </c>
       <c r="F350">
-        <v>690888.19131180504</v>
+        <v>690905.86007410497</v>
       </c>
       <c r="G350">
-        <v>13659.99</v>
+        <v>11907.72</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -8502,19 +8404,19 @@
         <v>26</v>
       </c>
       <c r="B351" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D351">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E351">
-        <v>276241.58870514203</v>
+        <v>276809.96029849898</v>
       </c>
       <c r="F351">
-        <v>690820.37932716997</v>
+        <v>690876.38982836704</v>
       </c>
       <c r="G351">
-        <v>10241.14</v>
+        <v>10051</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
@@ -8525,19 +8427,19 @@
         <v>12</v>
       </c>
       <c r="D352">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E352">
-        <v>276151.65579981101</v>
+        <v>276340.12043731398</v>
       </c>
       <c r="F352">
-        <v>690770.82369126903</v>
+        <v>690888.19131180504</v>
       </c>
       <c r="G352">
-        <v>10536.56</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+        <v>13659.99</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>26</v>
       </c>
@@ -8545,19 +8447,19 @@
         <v>12</v>
       </c>
       <c r="D353">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E353">
-        <v>276066.826105949</v>
+        <v>276241.58870514203</v>
       </c>
       <c r="F353">
-        <v>690716.46321469801</v>
+        <v>690820.37932716997</v>
       </c>
       <c r="G353">
-        <v>10815.2</v>
-      </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+        <v>10241.14</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>26</v>
       </c>
@@ -8565,73 +8467,61 @@
         <v>12</v>
       </c>
       <c r="D354">
+        <v>3</v>
+      </c>
+      <c r="E354">
+        <v>276151.65579981101</v>
+      </c>
+      <c r="F354">
+        <v>690770.82369126903</v>
+      </c>
+      <c r="G354">
+        <v>10536.56</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>26</v>
+      </c>
+      <c r="B355" t="s">
+        <v>12</v>
+      </c>
+      <c r="D355">
+        <v>4</v>
+      </c>
+      <c r="E355">
+        <v>276066.826105949</v>
+      </c>
+      <c r="F355">
+        <v>690716.46321469801</v>
+      </c>
+      <c r="G355">
+        <v>10815.2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>26</v>
+      </c>
+      <c r="B356" t="s">
+        <v>12</v>
+      </c>
+      <c r="D356">
         <v>5</v>
       </c>
-      <c r="E354">
+      <c r="E356">
         <v>275968.14371232298</v>
       </c>
-      <c r="F354">
+      <c r="F356">
         <v>690688.41504760995</v>
       </c>
-      <c r="G354">
+      <c r="G356">
         <v>10297.52</v>
       </c>
     </row>
-    <row r="355" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B355" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C355" s="19">
-        <v>2</v>
-      </c>
-      <c r="D355" s="20">
-        <v>1</v>
-      </c>
-      <c r="E355" s="22">
-        <v>314920.65987149102</v>
-      </c>
-      <c r="F355" s="22">
-        <v>711784.95740155899</v>
-      </c>
-      <c r="G355" s="21">
-        <v>13238.68</v>
-      </c>
-      <c r="H355" s="21"/>
-      <c r="I355" s="21"/>
-    </row>
-    <row r="356" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B356" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C356" s="19">
-        <v>2</v>
-      </c>
-      <c r="D356" s="20">
-        <v>2</v>
-      </c>
-      <c r="E356" s="22">
-        <v>315031.43416328402</v>
-      </c>
-      <c r="F356" s="22">
-        <v>711825.12725573499</v>
-      </c>
-      <c r="G356" s="21">
-        <v>10274.41</v>
-      </c>
-      <c r="H356" s="21"/>
-      <c r="I356" s="21"/>
-      <c r="L356" s="21"/>
-      <c r="M356" s="21"/>
-    </row>
-    <row r="357" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B357" s="20" t="s">
         <v>11</v>
@@ -8640,25 +8530,21 @@
         <v>2</v>
       </c>
       <c r="D357" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E357" s="22">
-        <v>315128.38991454197</v>
+        <v>314920.65987149102</v>
       </c>
       <c r="F357" s="22">
-        <v>711856.53638905496</v>
+        <v>711784.95740155899</v>
       </c>
       <c r="G357" s="21">
-        <v>10581.02</v>
-      </c>
-      <c r="H357" s="21"/>
-      <c r="I357" s="21"/>
-      <c r="L357" s="21"/>
-      <c r="M357" s="21"/>
-    </row>
-    <row r="358" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13238.68</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B358" s="20" t="s">
         <v>11</v>
@@ -8667,25 +8553,21 @@
         <v>2</v>
       </c>
       <c r="D358" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E358" s="22">
-        <v>315231.04335409898</v>
+        <v>315031.43416328402</v>
       </c>
       <c r="F358" s="22">
-        <v>711851.23332219606</v>
+        <v>711825.12725573499</v>
       </c>
       <c r="G358" s="21">
-        <v>16199.97</v>
-      </c>
-      <c r="H358" s="21"/>
-      <c r="I358" s="21"/>
-      <c r="L358" s="21"/>
-      <c r="M358" s="21"/>
-    </row>
-    <row r="359" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10274.41</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B359" s="20" t="s">
         <v>11</v>
@@ -8694,79 +8576,67 @@
         <v>2</v>
       </c>
       <c r="D359" s="20">
+        <v>3</v>
+      </c>
+      <c r="E359" s="22">
+        <v>315128.38991454197</v>
+      </c>
+      <c r="F359" s="22">
+        <v>711856.53638905496</v>
+      </c>
+      <c r="G359" s="21">
+        <v>10581.02</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B360" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360" s="19">
+        <v>2</v>
+      </c>
+      <c r="D360" s="20">
+        <v>4</v>
+      </c>
+      <c r="E360" s="22">
+        <v>315231.04335409898</v>
+      </c>
+      <c r="F360" s="22">
+        <v>711851.23332219606</v>
+      </c>
+      <c r="G360" s="21">
+        <v>16199.97</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B361" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C361" s="19">
+        <v>2</v>
+      </c>
+      <c r="D361" s="20">
         <v>5</v>
       </c>
-      <c r="E359" s="22">
+      <c r="E361" s="22">
         <v>315325.76932469499</v>
       </c>
-      <c r="F359" s="22">
+      <c r="F361" s="22">
         <v>711790.07485812402</v>
       </c>
-      <c r="G359" s="21">
+      <c r="G361" s="21">
         <v>7199.13</v>
       </c>
-      <c r="H359" s="21"/>
-      <c r="I359" s="21"/>
-      <c r="L359" s="21"/>
-      <c r="M359" s="21"/>
-    </row>
-    <row r="360" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B360" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C360" s="19">
-        <v>1</v>
-      </c>
-      <c r="D360" s="20">
-        <v>1</v>
-      </c>
-      <c r="E360" s="22">
-        <v>314886.61420067598</v>
-      </c>
-      <c r="F360" s="22">
-        <v>711800.32347320905</v>
-      </c>
-      <c r="G360" s="21">
-        <v>14994.21</v>
-      </c>
-      <c r="H360" s="21"/>
-      <c r="I360" s="21"/>
-      <c r="L360" s="21"/>
-      <c r="M360" s="21"/>
-    </row>
-    <row r="361" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B361" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C361" s="19">
-        <v>1</v>
-      </c>
-      <c r="D361" s="20">
-        <v>2</v>
-      </c>
-      <c r="E361" s="22">
-        <v>314810.97615326301</v>
-      </c>
-      <c r="F361" s="22">
-        <v>711883.94309024699</v>
-      </c>
-      <c r="G361" s="21">
-        <v>11798.94</v>
-      </c>
-      <c r="H361" s="21"/>
-      <c r="I361" s="21"/>
-      <c r="L361" s="21"/>
-      <c r="M361" s="21"/>
-    </row>
-    <row r="362" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B362" s="20" t="s">
         <v>20</v>
@@ -8775,25 +8645,21 @@
         <v>1</v>
       </c>
       <c r="D362" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E362" s="22">
-        <v>314728.19883589202</v>
+        <v>314886.61420067598</v>
       </c>
       <c r="F362" s="22">
-        <v>711960.77417487698</v>
+        <v>711800.32347320905</v>
       </c>
       <c r="G362" s="21">
-        <v>15075.33</v>
-      </c>
-      <c r="H362" s="21"/>
-      <c r="I362" s="21"/>
-      <c r="L362" s="21"/>
-      <c r="M362" s="21"/>
-    </row>
-    <row r="363" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14994.21</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B363" s="20" t="s">
         <v>20</v>
@@ -8802,79 +8668,67 @@
         <v>1</v>
       </c>
       <c r="D363" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E363" s="22">
+        <v>314810.97615326301</v>
+      </c>
+      <c r="F363" s="22">
+        <v>711883.94309024699</v>
+      </c>
+      <c r="G363" s="21">
+        <v>11798.94</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B364" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C364" s="19">
+        <v>1</v>
+      </c>
+      <c r="D364" s="20">
+        <v>3</v>
+      </c>
+      <c r="E364" s="22">
+        <v>314728.19883589202</v>
+      </c>
+      <c r="F364" s="22">
+        <v>711960.77417487698</v>
+      </c>
+      <c r="G364" s="21">
+        <v>15075.33</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B365" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C365" s="19">
+        <v>1</v>
+      </c>
+      <c r="D365" s="20">
+        <v>4</v>
+      </c>
+      <c r="E365" s="22">
         <v>314610.71399650897</v>
       </c>
-      <c r="F363" s="22">
+      <c r="F365" s="22">
         <v>711943.74231962103</v>
       </c>
-      <c r="G363" s="21">
+      <c r="G365" s="21">
         <v>15459.4</v>
       </c>
-      <c r="H363" s="21"/>
-      <c r="I363" s="21"/>
-      <c r="L363" s="21"/>
-      <c r="M363" s="21"/>
-    </row>
-    <row r="364" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B364" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C364" s="19">
-        <v>3</v>
-      </c>
-      <c r="D364" s="20">
-        <v>1</v>
-      </c>
-      <c r="E364" s="22">
-        <v>314892.98923996399</v>
-      </c>
-      <c r="F364" s="22">
-        <v>711739.62910851603</v>
-      </c>
-      <c r="G364" s="21">
-        <v>15956.78</v>
-      </c>
-      <c r="H364" s="21"/>
-      <c r="I364" s="21"/>
-      <c r="L364" s="21"/>
-      <c r="M364" s="21"/>
-    </row>
-    <row r="365" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B365" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C365" s="19">
-        <v>3</v>
-      </c>
-      <c r="D365" s="20">
-        <v>2</v>
-      </c>
-      <c r="E365" s="22">
-        <v>314936.24939369701</v>
-      </c>
-      <c r="F365" s="22">
-        <v>711635.19283492095</v>
-      </c>
-      <c r="G365" s="21">
-        <v>14624.63</v>
-      </c>
-      <c r="H365" s="21"/>
-      <c r="I365" s="21"/>
-      <c r="L365" s="21"/>
-      <c r="M365" s="21"/>
-    </row>
-    <row r="366" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B366" s="20" t="s">
         <v>9</v>
@@ -8883,25 +8737,21 @@
         <v>3</v>
       </c>
       <c r="D366" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E366" s="22">
-        <v>314895.23965818598</v>
+        <v>314892.98923996399</v>
       </c>
       <c r="F366" s="22">
-        <v>711520.95062776096</v>
+        <v>711739.62910851603</v>
       </c>
       <c r="G366" s="21">
-        <v>14091.72</v>
-      </c>
-      <c r="H366" s="21"/>
-      <c r="I366" s="21"/>
-      <c r="L366" s="21"/>
-      <c r="M366" s="21"/>
-    </row>
-    <row r="367" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15956.78</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B367" s="20" t="s">
         <v>9</v>
@@ -8910,25 +8760,21 @@
         <v>3</v>
       </c>
       <c r="D367" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E367" s="22">
-        <v>314986.88926144497</v>
+        <v>314936.24939369701</v>
       </c>
       <c r="F367" s="22">
-        <v>711439.15223287896</v>
+        <v>711635.19283492095</v>
       </c>
       <c r="G367" s="21">
-        <v>13525.55</v>
-      </c>
-      <c r="H367" s="21"/>
-      <c r="I367" s="21"/>
-      <c r="L367" s="21"/>
-      <c r="M367" s="21"/>
-    </row>
-    <row r="368" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14624.63</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B368" s="20" t="s">
         <v>9</v>
@@ -8937,79 +8783,67 @@
         <v>3</v>
       </c>
       <c r="D368" s="20">
+        <v>3</v>
+      </c>
+      <c r="E368" s="22">
+        <v>314895.23965818598</v>
+      </c>
+      <c r="F368" s="22">
+        <v>711520.95062776096</v>
+      </c>
+      <c r="G368" s="21">
+        <v>14091.72</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B369" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C369" s="19">
+        <v>3</v>
+      </c>
+      <c r="D369" s="20">
+        <v>4</v>
+      </c>
+      <c r="E369" s="22">
+        <v>314986.88926144497</v>
+      </c>
+      <c r="F369" s="22">
+        <v>711439.15223287896</v>
+      </c>
+      <c r="G369" s="21">
+        <v>13525.55</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B370" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C370" s="19">
+        <v>3</v>
+      </c>
+      <c r="D370" s="20">
         <v>5</v>
       </c>
-      <c r="E368" s="22">
+      <c r="E370" s="22">
         <v>315112.48078491999</v>
       </c>
-      <c r="F368" s="22">
+      <c r="F370" s="22">
         <v>711379.40775105997</v>
       </c>
-      <c r="G368" s="21">
+      <c r="G370" s="21">
         <v>14101.55</v>
       </c>
-      <c r="H368" s="21"/>
-      <c r="I368" s="21"/>
-      <c r="L368" s="21"/>
-      <c r="M368" s="21"/>
-    </row>
-    <row r="369" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B369" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C369" s="19">
-        <v>4</v>
-      </c>
-      <c r="D369" s="20">
-        <v>1</v>
-      </c>
-      <c r="E369" s="22">
-        <v>314877.03018609597</v>
-      </c>
-      <c r="F369" s="22">
-        <v>711746.93004946399</v>
-      </c>
-      <c r="G369" s="21">
-        <v>14569.11</v>
-      </c>
-      <c r="H369" s="21"/>
-      <c r="I369" s="21"/>
-      <c r="L369" s="21"/>
-      <c r="M369" s="21"/>
-    </row>
-    <row r="370" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B370" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C370" s="19">
-        <v>4</v>
-      </c>
-      <c r="D370" s="20">
-        <v>2</v>
-      </c>
-      <c r="E370" s="22">
-        <v>314759.01880297798</v>
-      </c>
-      <c r="F370" s="22">
-        <v>711739.45427512005</v>
-      </c>
-      <c r="G370" s="21">
-        <v>14781.73</v>
-      </c>
-      <c r="H370" s="21"/>
-      <c r="I370" s="21"/>
-      <c r="L370" s="21"/>
-      <c r="M370" s="21"/>
-    </row>
-    <row r="371" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B371" s="20" t="s">
         <v>8</v>
@@ -9018,25 +8852,21 @@
         <v>4</v>
       </c>
       <c r="D371" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E371" s="22">
-        <v>314655.22414031299</v>
+        <v>314877.03018609597</v>
       </c>
       <c r="F371" s="22">
-        <v>711824.82174461195</v>
+        <v>711746.93004946399</v>
       </c>
       <c r="G371" s="21">
-        <v>11564.67</v>
-      </c>
-      <c r="H371" s="21"/>
-      <c r="I371" s="21"/>
-      <c r="L371" s="21"/>
-      <c r="M371" s="21"/>
-    </row>
-    <row r="372" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14569.11</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B372" s="20" t="s">
         <v>8</v>
@@ -9045,25 +8875,21 @@
         <v>4</v>
       </c>
       <c r="D372" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E372" s="22">
-        <v>314553.72140529699</v>
+        <v>314759.01880297798</v>
       </c>
       <c r="F372" s="22">
-        <v>711846.91011643095</v>
+        <v>711739.45427512005</v>
       </c>
       <c r="G372" s="21">
-        <v>14354.91</v>
-      </c>
-      <c r="H372" s="21"/>
-      <c r="I372" s="21"/>
-      <c r="L372" s="21"/>
-      <c r="M372" s="21"/>
-    </row>
-    <row r="373" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14781.73</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B373" s="20" t="s">
         <v>8</v>
@@ -9072,71 +8898,67 @@
         <v>4</v>
       </c>
       <c r="D373" s="20">
+        <v>3</v>
+      </c>
+      <c r="E373" s="22">
+        <v>314655.22414031299</v>
+      </c>
+      <c r="F373" s="22">
+        <v>711824.82174461195</v>
+      </c>
+      <c r="G373" s="21">
+        <v>11564.67</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B374" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C374" s="19">
+        <v>4</v>
+      </c>
+      <c r="D374" s="20">
+        <v>4</v>
+      </c>
+      <c r="E374" s="22">
+        <v>314553.72140529699</v>
+      </c>
+      <c r="F374" s="22">
+        <v>711846.91011643095</v>
+      </c>
+      <c r="G374" s="21">
+        <v>14354.91</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B375" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C375" s="19">
+        <v>4</v>
+      </c>
+      <c r="D375" s="20">
         <v>5</v>
       </c>
-      <c r="E373" s="22">
+      <c r="E375" s="22">
         <v>314488.53581566497</v>
       </c>
-      <c r="F373" s="22">
+      <c r="F375" s="22">
         <v>711834.92509848799</v>
       </c>
-      <c r="G373" s="21">
+      <c r="G375" s="21">
         <v>3369.17</v>
       </c>
-      <c r="H373" s="21"/>
-      <c r="I373" s="21"/>
-      <c r="L373" s="21"/>
-      <c r="M373" s="21"/>
-    </row>
-    <row r="374" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B374" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C374" s="22">
-        <v>1</v>
-      </c>
-      <c r="D374" s="23">
-        <v>1</v>
-      </c>
-      <c r="E374" s="24">
-        <v>314747.37834650598</v>
-      </c>
-      <c r="F374" s="24">
-        <v>711324.79782330804</v>
-      </c>
-      <c r="G374" s="23">
-        <v>13479.33</v>
-      </c>
-    </row>
-    <row r="375" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B375" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C375" s="22">
-        <v>1</v>
-      </c>
-      <c r="D375" s="23">
-        <v>2</v>
-      </c>
-      <c r="E375" s="24">
-        <v>314808.391851914</v>
-      </c>
-      <c r="F375" s="24">
-        <v>711426.77708426199</v>
-      </c>
-      <c r="G375" s="23">
-        <v>10218.82</v>
-      </c>
-    </row>
-    <row r="376" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B376" s="23" t="s">
         <v>11</v>
@@ -9145,21 +8967,21 @@
         <v>1</v>
       </c>
       <c r="D376" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E376" s="24">
-        <v>314860.58745437401</v>
+        <v>314747.37834650598</v>
       </c>
       <c r="F376" s="24">
-        <v>711513.81178448105</v>
+        <v>711324.79782330804</v>
       </c>
       <c r="G376" s="23">
-        <v>10069.48</v>
-      </c>
-    </row>
-    <row r="377" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13479.33</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B377" s="23" t="s">
         <v>11</v>
@@ -9168,21 +8990,21 @@
         <v>1</v>
       </c>
       <c r="D377" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E377" s="24">
-        <v>314915.78674284799</v>
+        <v>314808.391851914</v>
       </c>
       <c r="F377" s="24">
-        <v>711597.81730232597</v>
+        <v>711426.77708426199</v>
       </c>
       <c r="G377" s="23">
-        <v>10041.129999999999</v>
-      </c>
-    </row>
-    <row r="378" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10218.82</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B378" s="23" t="s">
         <v>11</v>
@@ -9191,67 +9013,67 @@
         <v>1</v>
       </c>
       <c r="D378" s="23">
+        <v>3</v>
+      </c>
+      <c r="E378" s="24">
+        <v>314860.58745437401</v>
+      </c>
+      <c r="F378" s="24">
+        <v>711513.81178448105</v>
+      </c>
+      <c r="G378" s="23">
+        <v>10069.48</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B379" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C379" s="22">
+        <v>1</v>
+      </c>
+      <c r="D379" s="23">
+        <v>4</v>
+      </c>
+      <c r="E379" s="24">
+        <v>314915.78674284799</v>
+      </c>
+      <c r="F379" s="24">
+        <v>711597.81730232597</v>
+      </c>
+      <c r="G379" s="23">
+        <v>10041.129999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B380" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C380" s="22">
+        <v>1</v>
+      </c>
+      <c r="D380" s="23">
         <v>5</v>
       </c>
-      <c r="E378" s="24">
+      <c r="E380" s="24">
         <v>314972.561099154</v>
       </c>
-      <c r="F378" s="24">
+      <c r="F380" s="24">
         <v>711680.54544058698</v>
       </c>
-      <c r="G378" s="23">
+      <c r="G380" s="23">
         <v>10025.18</v>
       </c>
     </row>
-    <row r="379" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B379" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C379" s="22">
-        <v>2</v>
-      </c>
-      <c r="D379" s="23">
-        <v>1</v>
-      </c>
-      <c r="E379" s="24">
-        <v>314726.82956501201</v>
-      </c>
-      <c r="F379" s="24">
-        <v>711328.057724452</v>
-      </c>
-      <c r="G379" s="23">
-        <v>13489.74</v>
-      </c>
-    </row>
-    <row r="380" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B380" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C380" s="22">
-        <v>2</v>
-      </c>
-      <c r="D380" s="23">
-        <v>2</v>
-      </c>
-      <c r="E380" s="24">
-        <v>314699.92194507999</v>
-      </c>
-      <c r="F380" s="24">
-        <v>711443.86260966095</v>
-      </c>
-      <c r="G380" s="23">
-        <v>10218.879999999999</v>
-      </c>
-    </row>
-    <row r="381" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B381" s="23" t="s">
         <v>20</v>
@@ -9260,21 +9082,21 @@
         <v>2</v>
       </c>
       <c r="D381" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E381" s="24">
-        <v>314664.30086764903</v>
+        <v>314726.82956501201</v>
       </c>
       <c r="F381" s="24">
-        <v>711539.18541837903</v>
+        <v>711328.057724452</v>
       </c>
       <c r="G381" s="23">
-        <v>10339.75</v>
-      </c>
-    </row>
-    <row r="382" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13489.74</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B382" s="23" t="s">
         <v>20</v>
@@ -9283,21 +9105,21 @@
         <v>2</v>
       </c>
       <c r="D382" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E382" s="24">
-        <v>314612.279459332</v>
+        <v>314699.92194507999</v>
       </c>
       <c r="F382" s="24">
-        <v>711627.84884498804</v>
+        <v>711443.86260966095</v>
       </c>
       <c r="G382" s="23">
-        <v>10198.4</v>
-      </c>
-    </row>
-    <row r="383" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10218.879999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B383" s="23" t="s">
         <v>20</v>
@@ -9306,67 +9128,67 @@
         <v>2</v>
       </c>
       <c r="D383" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E383" s="24">
-        <v>314563.61010254</v>
+        <v>314664.30086764903</v>
       </c>
       <c r="F383" s="24">
-        <v>711716.98093924404</v>
+        <v>711539.18541837903</v>
       </c>
       <c r="G383" s="23">
-        <v>10409.290000000001</v>
-      </c>
-    </row>
-    <row r="384" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10339.75</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B384" s="23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C384" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D384" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E384" s="24">
-        <v>314759.86590857699</v>
+        <v>314612.279459332</v>
       </c>
       <c r="F384" s="24">
-        <v>711289.74319046398</v>
+        <v>711627.84884498804</v>
       </c>
       <c r="G384" s="23">
-        <v>13976.51</v>
+        <v>10198.4</v>
       </c>
     </row>
     <row r="385" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B385" s="23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C385" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D385" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E385" s="24">
-        <v>314840.62734847702</v>
+        <v>314563.61010254</v>
       </c>
       <c r="F385" s="24">
-        <v>711203.39350392495</v>
+        <v>711716.98093924404</v>
       </c>
       <c r="G385" s="23">
-        <v>10718.34</v>
+        <v>10409.290000000001</v>
       </c>
     </row>
     <row r="386" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B386" s="23" t="s">
         <v>25</v>
@@ -9375,21 +9197,21 @@
         <v>3</v>
       </c>
       <c r="D386" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E386" s="24">
-        <v>314841.71494552901</v>
+        <v>314759.86590857699</v>
       </c>
       <c r="F386" s="24">
-        <v>711083.50343276805</v>
+        <v>711289.74319046398</v>
       </c>
       <c r="G386" s="23">
-        <v>19164.57</v>
+        <v>13976.51</v>
       </c>
     </row>
     <row r="387" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B387" s="23" t="s">
         <v>25</v>
@@ -9398,21 +9220,21 @@
         <v>3</v>
       </c>
       <c r="D387" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E387" s="24">
-        <v>314819.00957126002</v>
+        <v>314840.62734847702</v>
       </c>
       <c r="F387" s="24">
-        <v>710966.10672667995</v>
+        <v>711203.39350392495</v>
       </c>
       <c r="G387" s="23">
-        <v>10701.1</v>
+        <v>10718.34</v>
       </c>
     </row>
     <row r="388" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B388" s="23" t="s">
         <v>25</v>
@@ -9421,67 +9243,67 @@
         <v>3</v>
       </c>
       <c r="D388" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E388" s="24">
-        <v>314846.12765677302</v>
+        <v>314841.71494552901</v>
       </c>
       <c r="F388" s="24">
-        <v>710865.49289928598</v>
+        <v>711083.50343276805</v>
       </c>
       <c r="G388" s="23">
-        <v>10747.24</v>
+        <v>19164.57</v>
       </c>
     </row>
     <row r="389" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B389" s="23" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C389" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D389" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E389" s="24">
-        <v>314723.56513639097</v>
+        <v>314819.00957126002</v>
       </c>
       <c r="F389" s="24">
-        <v>711274.87690904795</v>
+        <v>710966.10672667995</v>
       </c>
       <c r="G389" s="23">
-        <v>13485.5</v>
+        <v>10701.1</v>
       </c>
     </row>
     <row r="390" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B390" s="23" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C390" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D390" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E390" s="24">
-        <v>314682.39800013602</v>
+        <v>314846.12765677302</v>
       </c>
       <c r="F390" s="24">
-        <v>711162.95363417699</v>
+        <v>710865.49289928598</v>
       </c>
       <c r="G390" s="23">
-        <v>10319.66</v>
+        <v>10747.24</v>
       </c>
     </row>
     <row r="391" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B391" s="23" t="s">
         <v>12</v>
@@ -9490,21 +9312,21 @@
         <v>4</v>
       </c>
       <c r="D391" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E391" s="24">
-        <v>314617.97145978903</v>
+        <v>314723.56513639097</v>
       </c>
       <c r="F391" s="24">
-        <v>711082.00161187002</v>
+        <v>711274.87690904795</v>
       </c>
       <c r="G391" s="23">
-        <v>16343.84</v>
+        <v>13485.5</v>
       </c>
     </row>
     <row r="392" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B392" s="23" t="s">
         <v>12</v>
@@ -9513,21 +9335,21 @@
         <v>4</v>
       </c>
       <c r="D392" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E392" s="24">
-        <v>314482.79821932002</v>
+        <v>314682.39800013602</v>
       </c>
       <c r="F392" s="24">
-        <v>711063.60852896003</v>
+        <v>711162.95363417699</v>
       </c>
       <c r="G392" s="23">
-        <v>11865.6</v>
+        <v>10319.66</v>
       </c>
     </row>
     <row r="393" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B393" s="23" t="s">
         <v>12</v>
@@ -9536,67 +9358,67 @@
         <v>4</v>
       </c>
       <c r="D393" s="23">
+        <v>3</v>
+      </c>
+      <c r="E393" s="24">
+        <v>314617.97145978903</v>
+      </c>
+      <c r="F393" s="24">
+        <v>711082.00161187002</v>
+      </c>
+      <c r="G393" s="23">
+        <v>16343.84</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B394" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C394" s="22">
+        <v>4</v>
+      </c>
+      <c r="D394" s="23">
+        <v>4</v>
+      </c>
+      <c r="E394" s="24">
+        <v>314482.79821932002</v>
+      </c>
+      <c r="F394" s="24">
+        <v>711063.60852896003</v>
+      </c>
+      <c r="G394" s="23">
+        <v>11865.6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B395" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C395" s="22">
+        <v>4</v>
+      </c>
+      <c r="D395" s="23">
         <v>5</v>
       </c>
-      <c r="E393" s="24">
+      <c r="E395" s="24">
         <v>314374.08933597797</v>
       </c>
-      <c r="F393" s="24">
+      <c r="F395" s="24">
         <v>711032.61580214195</v>
       </c>
-      <c r="G393" s="23">
+      <c r="G395" s="23">
         <v>10464.41</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B394" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C394" s="24">
-        <v>2</v>
-      </c>
-      <c r="D394" s="25">
-        <v>1</v>
-      </c>
-      <c r="E394" s="26">
-        <v>280381.22335511202</v>
-      </c>
-      <c r="F394" s="26">
-        <v>706497.51029170002</v>
-      </c>
-      <c r="G394" s="25">
-        <v>12784</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B395" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C395" s="24">
-        <v>2</v>
-      </c>
-      <c r="D395" s="25">
-        <v>2</v>
-      </c>
-      <c r="E395" s="26">
-        <v>280489.73524069</v>
-      </c>
-      <c r="F395" s="26">
-        <v>706545.46954931004</v>
-      </c>
-      <c r="G395" s="25">
-        <v>14724.44</v>
       </c>
     </row>
     <row r="396" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B396" s="25" t="s">
         <v>13</v>
@@ -9605,21 +9427,21 @@
         <v>2</v>
       </c>
       <c r="D396" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E396" s="26">
-        <v>280604.209184331</v>
+        <v>280381.22335511202</v>
       </c>
       <c r="F396" s="26">
-        <v>706484.82380425895</v>
+        <v>706497.51029170002</v>
       </c>
       <c r="G396" s="25">
-        <v>13681.52</v>
+        <v>12784</v>
       </c>
     </row>
     <row r="397" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B397" s="25" t="s">
         <v>13</v>
@@ -9628,21 +9450,21 @@
         <v>2</v>
       </c>
       <c r="D397" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E397" s="26">
-        <v>280702.87162229198</v>
+        <v>280489.73524069</v>
       </c>
       <c r="F397" s="26">
-        <v>706393.82963845099</v>
+        <v>706545.46954931004</v>
       </c>
       <c r="G397" s="25">
-        <v>12381.41</v>
+        <v>14724.44</v>
       </c>
     </row>
     <row r="398" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B398" s="25" t="s">
         <v>13</v>
@@ -9651,67 +9473,67 @@
         <v>2</v>
       </c>
       <c r="D398" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E398" s="26">
-        <v>280764.61965845601</v>
+        <v>280604.209184331</v>
       </c>
       <c r="F398" s="26">
-        <v>706311.34558313002</v>
+        <v>706484.82380425895</v>
       </c>
       <c r="G398" s="25">
-        <v>12312.41</v>
+        <v>13681.52</v>
       </c>
     </row>
     <row r="399" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B399" s="25" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C399" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D399" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E399" s="26">
-        <v>280358.29267583799</v>
+        <v>280702.87162229198</v>
       </c>
       <c r="F399" s="26">
-        <v>706507.16312872502</v>
+        <v>706393.82963845099</v>
       </c>
       <c r="G399" s="25">
-        <v>13189.66</v>
+        <v>12381.41</v>
       </c>
     </row>
     <row r="400" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B400" s="25" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C400" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D400" s="25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E400" s="26">
-        <v>280287.58266801399</v>
+        <v>280764.61965845601</v>
       </c>
       <c r="F400" s="26">
-        <v>706586.80002838396</v>
+        <v>706311.34558313002</v>
       </c>
       <c r="G400" s="25">
-        <v>13491.03</v>
+        <v>12312.41</v>
       </c>
     </row>
     <row r="401" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B401" s="25" t="s">
         <v>20</v>
@@ -9720,21 +9542,21 @@
         <v>3</v>
       </c>
       <c r="D401" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E401" s="26">
-        <v>280187.12308598799</v>
+        <v>280358.29267583799</v>
       </c>
       <c r="F401" s="26">
-        <v>706647.55146063701</v>
+        <v>706507.16312872502</v>
       </c>
       <c r="G401" s="25">
-        <v>10273.11</v>
+        <v>13189.66</v>
       </c>
     </row>
     <row r="402" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B402" s="25" t="s">
         <v>20</v>
@@ -9743,21 +9565,21 @@
         <v>3</v>
       </c>
       <c r="D402" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E402" s="26">
-        <v>280141.28188244998</v>
+        <v>280287.58266801399</v>
       </c>
       <c r="F402" s="26">
-        <v>706748.50321615697</v>
+        <v>706586.80002838396</v>
       </c>
       <c r="G402" s="25">
-        <v>12551.21</v>
+        <v>13491.03</v>
       </c>
     </row>
     <row r="403" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B403" s="25" t="s">
         <v>20</v>
@@ -9766,67 +9588,67 @@
         <v>3</v>
       </c>
       <c r="D403" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E403" s="26">
-        <v>280160.94517078099</v>
+        <v>280187.12308598799</v>
       </c>
       <c r="F403" s="26">
-        <v>706856.03015812195</v>
+        <v>706647.55146063701</v>
       </c>
       <c r="G403" s="25">
-        <v>18518.330000000002</v>
+        <v>10273.11</v>
       </c>
     </row>
     <row r="404" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B404" s="25" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C404" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D404" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E404" s="26">
-        <v>280341.33813331701</v>
+        <v>280141.28188244998</v>
       </c>
       <c r="F404" s="26">
-        <v>706457.35814381903</v>
+        <v>706748.50321615697</v>
       </c>
       <c r="G404" s="25">
-        <v>14537.04</v>
+        <v>12551.21</v>
       </c>
     </row>
     <row r="405" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B405" s="25" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C405" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D405" s="25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E405" s="26">
-        <v>280324.84195845301</v>
+        <v>280160.94517078099</v>
       </c>
       <c r="F405" s="26">
-        <v>706340.49053460895</v>
+        <v>706856.03015812195</v>
       </c>
       <c r="G405" s="25">
-        <v>17331.07</v>
+        <v>18518.330000000002</v>
       </c>
     </row>
     <row r="406" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B406" s="25" t="s">
         <v>9</v>
@@ -9835,21 +9657,21 @@
         <v>1</v>
       </c>
       <c r="D406" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E406" s="26">
-        <v>280451.72621475701</v>
+        <v>280341.33813331701</v>
       </c>
       <c r="F406" s="26">
-        <v>706240.770157789</v>
+        <v>706457.35814381903</v>
       </c>
       <c r="G406" s="25">
-        <v>15187.58</v>
+        <v>14537.04</v>
       </c>
     </row>
     <row r="407" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B407" s="25" t="s">
         <v>9</v>
@@ -9858,67 +9680,67 @@
         <v>1</v>
       </c>
       <c r="D407" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E407" s="26">
-        <v>280543.07244561799</v>
+        <v>280324.84195845301</v>
       </c>
       <c r="F407" s="26">
-        <v>706198.83802611404</v>
+        <v>706340.49053460895</v>
       </c>
       <c r="G407" s="25">
-        <v>10115.65</v>
+        <v>17331.07</v>
       </c>
     </row>
     <row r="408" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B408" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C408" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D408" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E408" s="26">
-        <v>280353.36393726798</v>
+        <v>280451.72621475701</v>
       </c>
       <c r="F408" s="26">
-        <v>706507.29145545396</v>
+        <v>706240.770157789</v>
       </c>
       <c r="G408" s="25">
-        <v>14132.21</v>
+        <v>15187.58</v>
       </c>
     </row>
     <row r="409" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B409" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C409" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D409" s="25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E409" s="26">
-        <v>280258.71266809298</v>
+        <v>280543.07244561799</v>
       </c>
       <c r="F409" s="26">
-        <v>706542.15881270904</v>
+        <v>706198.83802611404</v>
       </c>
       <c r="G409" s="25">
-        <v>18691.490000000002</v>
+        <v>10115.65</v>
       </c>
     </row>
     <row r="410" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B410" s="25" t="s">
         <v>12</v>
@@ -9927,21 +9749,21 @@
         <v>4</v>
       </c>
       <c r="D410" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E410" s="26">
-        <v>280115.91323545203</v>
+        <v>280353.36393726798</v>
       </c>
       <c r="F410" s="26">
-        <v>706466.87825282</v>
+        <v>706507.29145545396</v>
       </c>
       <c r="G410" s="25">
-        <v>11383.63</v>
+        <v>14132.21</v>
       </c>
     </row>
     <row r="411" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B411" s="25" t="s">
         <v>12</v>
@@ -9950,21 +9772,21 @@
         <v>4</v>
       </c>
       <c r="D411" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E411" s="26">
-        <v>280021.22083096497</v>
+        <v>280258.71266809298</v>
       </c>
       <c r="F411" s="26">
-        <v>706403.57664944802</v>
+        <v>706542.15881270904</v>
       </c>
       <c r="G411" s="25">
-        <v>11430.97</v>
+        <v>18691.490000000002</v>
       </c>
     </row>
     <row r="412" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B412" s="25" t="s">
         <v>12</v>
@@ -9973,67 +9795,67 @@
         <v>4</v>
       </c>
       <c r="D412" s="25">
+        <v>3</v>
+      </c>
+      <c r="E412" s="26">
+        <v>280115.91323545203</v>
+      </c>
+      <c r="F412" s="26">
+        <v>706466.87825282</v>
+      </c>
+      <c r="G412" s="25">
+        <v>11383.63</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B413" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C413" s="24">
+        <v>4</v>
+      </c>
+      <c r="D413" s="25">
+        <v>4</v>
+      </c>
+      <c r="E413" s="26">
+        <v>280021.22083096497</v>
+      </c>
+      <c r="F413" s="26">
+        <v>706403.57664944802</v>
+      </c>
+      <c r="G413" s="25">
+        <v>11430.97</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B414" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C414" s="24">
+        <v>4</v>
+      </c>
+      <c r="D414" s="25">
         <v>5</v>
       </c>
-      <c r="E412" s="26">
+      <c r="E414" s="26">
         <v>279933.29644849198</v>
       </c>
-      <c r="F412" s="26">
+      <c r="F414" s="26">
         <v>706340.44821124303</v>
       </c>
-      <c r="G412" s="25">
+      <c r="G414" s="25">
         <v>10689.97</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B413" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C413" s="26">
-        <v>4</v>
-      </c>
-      <c r="D413" s="27">
-        <v>1</v>
-      </c>
-      <c r="E413" s="28">
-        <v>353094.42249251797</v>
-      </c>
-      <c r="F413" s="28">
-        <v>639864.00213935098</v>
-      </c>
-      <c r="G413" s="27">
-        <v>13464.74</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B414" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C414" s="26">
-        <v>4</v>
-      </c>
-      <c r="D414" s="27">
-        <v>2</v>
-      </c>
-      <c r="E414" s="28">
-        <v>353177.99236443802</v>
-      </c>
-      <c r="F414" s="28">
-        <v>639779.61402146902</v>
-      </c>
-      <c r="G414" s="27">
-        <v>10218.9</v>
       </c>
     </row>
     <row r="415" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B415" s="27" t="s">
         <v>13</v>
@@ -10042,21 +9864,21 @@
         <v>4</v>
       </c>
       <c r="D415" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E415" s="28">
-        <v>353264.99406145897</v>
+        <v>353094.42249251797</v>
       </c>
       <c r="F415" s="28">
-        <v>639720.08031438105</v>
+        <v>639864.00213935098</v>
       </c>
       <c r="G415" s="27">
-        <v>12987.25</v>
+        <v>13464.74</v>
       </c>
     </row>
     <row r="416" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B416" s="27" t="s">
         <v>13</v>
@@ -10065,21 +9887,21 @@
         <v>4</v>
       </c>
       <c r="D416" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E416" s="28">
-        <v>353380.17252505798</v>
+        <v>353177.99236443802</v>
       </c>
       <c r="F416" s="28">
-        <v>639719.54813536606</v>
+        <v>639779.61402146902</v>
       </c>
       <c r="G416" s="27">
-        <v>11188.57</v>
+        <v>10218.9</v>
       </c>
     </row>
     <row r="417" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B417" s="27" t="s">
         <v>13</v>
@@ -10088,67 +9910,67 @@
         <v>4</v>
       </c>
       <c r="D417" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E417" s="28">
-        <v>353489.69663803303</v>
+        <v>353264.99406145897</v>
       </c>
       <c r="F417" s="28">
-        <v>639713.706155714</v>
+        <v>639720.08031438105</v>
       </c>
       <c r="G417" s="27">
-        <v>10590.77</v>
+        <v>12987.25</v>
       </c>
     </row>
     <row r="418" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B418" s="27" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C418" s="26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D418" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E418" s="28">
-        <v>353083.18003051903</v>
+        <v>353380.17252505798</v>
       </c>
       <c r="F418" s="28">
-        <v>639910.84888956998</v>
+        <v>639719.54813536606</v>
       </c>
       <c r="G418" s="27">
-        <v>14039.95</v>
+        <v>11188.57</v>
       </c>
     </row>
     <row r="419" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B419" s="27" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C419" s="26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D419" s="27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E419" s="28">
-        <v>353103.01109206298</v>
+        <v>353489.69663803303</v>
       </c>
       <c r="F419" s="28">
-        <v>640028.06042452599</v>
+        <v>639713.706155714</v>
       </c>
       <c r="G419" s="27">
-        <v>10683.37</v>
+        <v>10590.77</v>
       </c>
     </row>
     <row r="420" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B420" s="27" t="s">
         <v>7</v>
@@ -10157,21 +9979,21 @@
         <v>2</v>
       </c>
       <c r="D420" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E420" s="28">
-        <v>353164.74444886699</v>
+        <v>353083.18003051903</v>
       </c>
       <c r="F420" s="28">
-        <v>640112.67434094404</v>
+        <v>639910.84888956998</v>
       </c>
       <c r="G420" s="27">
-        <v>11424.99</v>
+        <v>14039.95</v>
       </c>
     </row>
     <row r="421" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B421" s="27" t="s">
         <v>7</v>
@@ -10180,67 +10002,67 @@
         <v>2</v>
       </c>
       <c r="D421" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E421" s="28">
-        <v>353209.46031148802</v>
+        <v>353103.01109206298</v>
       </c>
       <c r="F421" s="28">
-        <v>640160.89032537001</v>
+        <v>640028.06042452599</v>
       </c>
       <c r="G421" s="27">
-        <v>1278.21</v>
+        <v>10683.37</v>
       </c>
     </row>
     <row r="422" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B422" s="27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C422" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D422" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E422" s="28">
-        <v>353100.160866244</v>
+        <v>353164.74444886699</v>
       </c>
       <c r="F422" s="28">
-        <v>639872.13112342695</v>
+        <v>640112.67434094404</v>
       </c>
       <c r="G422" s="27">
-        <v>13476.64</v>
+        <v>11424.99</v>
       </c>
     </row>
     <row r="423" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B423" s="27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C423" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D423" s="27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E423" s="28">
-        <v>353215.597786723</v>
+        <v>353209.46031148802</v>
       </c>
       <c r="F423" s="28">
-        <v>639836.07217338099</v>
+        <v>640160.89032537001</v>
       </c>
       <c r="G423" s="27">
-        <v>11972.9</v>
+        <v>1278.21</v>
       </c>
     </row>
     <row r="424" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B424" s="27" t="s">
         <v>11</v>
@@ -10249,21 +10071,21 @@
         <v>3</v>
       </c>
       <c r="D424" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E424" s="28">
-        <v>353320.62782981398</v>
+        <v>353100.160866244</v>
       </c>
       <c r="F424" s="28">
-        <v>639880.61233893805</v>
+        <v>639872.13112342695</v>
       </c>
       <c r="G424" s="27">
-        <v>11606.43</v>
+        <v>13476.64</v>
       </c>
     </row>
     <row r="425" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B425" s="27" t="s">
         <v>11</v>
@@ -10272,21 +10094,21 @@
         <v>3</v>
       </c>
       <c r="D425" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E425" s="28">
-        <v>353417.40768312698</v>
+        <v>353215.597786723</v>
       </c>
       <c r="F425" s="28">
-        <v>639931.29055981</v>
+        <v>639836.07217338099</v>
       </c>
       <c r="G425" s="27">
-        <v>10019.57</v>
+        <v>11972.9</v>
       </c>
     </row>
     <row r="426" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B426" s="27" t="s">
         <v>11</v>
@@ -10295,67 +10117,67 @@
         <v>3</v>
       </c>
       <c r="D426" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E426" s="28">
-        <v>353472.97767533502</v>
+        <v>353320.62782981398</v>
       </c>
       <c r="F426" s="28">
-        <v>639947.89348228299</v>
+        <v>639880.61233893805</v>
       </c>
       <c r="G426" s="27">
-        <v>353.56</v>
+        <v>11606.43</v>
       </c>
     </row>
     <row r="427" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B427" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C427" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D427" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E427" s="28">
-        <v>353094.42249251797</v>
+        <v>353417.40768312698</v>
       </c>
       <c r="F427" s="28">
-        <v>639864.00213935098</v>
+        <v>639931.29055981</v>
       </c>
       <c r="G427" s="27">
-        <v>13464.74</v>
+        <v>10019.57</v>
       </c>
     </row>
     <row r="428" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B428" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C428" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D428" s="27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E428" s="28">
-        <v>353175.29045221</v>
+        <v>353472.97767533502</v>
       </c>
       <c r="F428" s="28">
-        <v>639774.23307802505</v>
+        <v>639947.89348228299</v>
       </c>
       <c r="G428" s="27">
-        <v>10971.32</v>
+        <v>353.56</v>
       </c>
     </row>
     <row r="429" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B429" s="27" t="s">
         <v>12</v>
@@ -10364,21 +10186,21 @@
         <v>1</v>
       </c>
       <c r="D429" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E429" s="28">
-        <v>353129.70877619297</v>
+        <v>353094.42249251797</v>
       </c>
       <c r="F429" s="28">
-        <v>639658.95124869398</v>
+        <v>639864.00213935098</v>
       </c>
       <c r="G429" s="27">
-        <v>31924.91</v>
+        <v>13464.74</v>
       </c>
     </row>
     <row r="430" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A430" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B430" s="27" t="s">
         <v>12</v>
@@ -10387,21 +10209,21 @@
         <v>1</v>
       </c>
       <c r="D430" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E430" s="28">
-        <v>352902.96932883101</v>
+        <v>353175.29045221</v>
       </c>
       <c r="F430" s="28">
-        <v>639587.44410513702</v>
+        <v>639774.23307802505</v>
       </c>
       <c r="G430" s="27">
-        <v>16482.32</v>
+        <v>10971.32</v>
       </c>
     </row>
     <row r="431" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B431" s="27" t="s">
         <v>12</v>
@@ -10410,67 +10232,67 @@
         <v>1</v>
       </c>
       <c r="D431" s="27">
+        <v>3</v>
+      </c>
+      <c r="E431" s="28">
+        <v>353129.70877619297</v>
+      </c>
+      <c r="F431" s="28">
+        <v>639658.95124869398</v>
+      </c>
+      <c r="G431" s="27">
+        <v>31924.91</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B432" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C432" s="26">
+        <v>1</v>
+      </c>
+      <c r="D432" s="27">
+        <v>4</v>
+      </c>
+      <c r="E432" s="28">
+        <v>352902.96932883101</v>
+      </c>
+      <c r="F432" s="28">
+        <v>639587.44410513702</v>
+      </c>
+      <c r="G432" s="27">
+        <v>16482.32</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B433" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C433" s="26">
+        <v>1</v>
+      </c>
+      <c r="D433" s="27">
         <v>5</v>
       </c>
-      <c r="E431" s="28">
+      <c r="E433" s="28">
         <v>352809.77473806002</v>
       </c>
-      <c r="F431" s="28">
+      <c r="F433" s="28">
         <v>639564.872373424</v>
       </c>
-      <c r="G431" s="27">
+      <c r="G433" s="27">
         <v>3706.9</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B432" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C432" s="28">
-        <v>1</v>
-      </c>
-      <c r="D432" s="31">
-        <v>1</v>
-      </c>
-      <c r="E432" s="32">
-        <v>379239.17632043402</v>
-      </c>
-      <c r="F432" s="32">
-        <v>650604.52041634999</v>
-      </c>
-      <c r="G432" s="33">
-        <v>13072.52</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B433" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C433" s="28">
-        <v>1</v>
-      </c>
-      <c r="D433" s="31">
-        <v>2</v>
-      </c>
-      <c r="E433" s="32">
-        <v>379198.77181845898</v>
-      </c>
-      <c r="F433" s="32">
-        <v>650718.48639325297</v>
-      </c>
-      <c r="G433" s="33">
-        <v>14258.91</v>
       </c>
     </row>
     <row r="434" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B434" s="30" t="s">
         <v>7</v>
@@ -10479,21 +10301,21 @@
         <v>1</v>
       </c>
       <c r="D434" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E434" s="32">
-        <v>379249.91593315901</v>
+        <v>379239.17632043402</v>
       </c>
       <c r="F434" s="32">
-        <v>650806.15931122599</v>
+        <v>650604.52041634999</v>
       </c>
       <c r="G434" s="33">
-        <v>22264.91</v>
+        <v>13072.52</v>
       </c>
     </row>
     <row r="435" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B435" s="30" t="s">
         <v>7</v>
@@ -10502,67 +10324,67 @@
         <v>1</v>
       </c>
       <c r="D435" s="31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E435" s="32">
-        <v>379395.5949427</v>
+        <v>379198.77181845898</v>
       </c>
       <c r="F435" s="32">
-        <v>650877.83116376004</v>
+        <v>650718.48639325297</v>
       </c>
       <c r="G435" s="33">
-        <v>8298.26</v>
+        <v>14258.91</v>
       </c>
     </row>
     <row r="436" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B436" s="30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C436" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D436" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E436" s="32">
-        <v>379268.82312989602</v>
+        <v>379249.91593315901</v>
       </c>
       <c r="F436" s="32">
-        <v>650557.54964597605</v>
+        <v>650806.15931122599</v>
       </c>
       <c r="G436" s="33">
-        <v>13890.83</v>
+        <v>22264.91</v>
       </c>
     </row>
     <row r="437" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B437" s="30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C437" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D437" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E437" s="32">
-        <v>379337.827764983</v>
+        <v>379395.5949427</v>
       </c>
       <c r="F437" s="32">
-        <v>650455.73497321794</v>
+        <v>650877.83116376004</v>
       </c>
       <c r="G437" s="33">
-        <v>11104</v>
+        <v>8298.26</v>
       </c>
     </row>
     <row r="438" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B438" s="30" t="s">
         <v>9</v>
@@ -10571,21 +10393,21 @@
         <v>3</v>
       </c>
       <c r="D438" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E438" s="32">
-        <v>379406.35749030602</v>
+        <v>379268.82312989602</v>
       </c>
       <c r="F438" s="32">
-        <v>650387.00074714702</v>
+        <v>650557.54964597605</v>
       </c>
       <c r="G438" s="33">
-        <v>10952.73</v>
+        <v>13890.83</v>
       </c>
     </row>
     <row r="439" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B439" s="30" t="s">
         <v>9</v>
@@ -10594,21 +10416,21 @@
         <v>3</v>
       </c>
       <c r="D439" s="31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E439" s="32">
-        <v>379469.00720493298</v>
+        <v>379337.827764983</v>
       </c>
       <c r="F439" s="32">
-        <v>650304.39623219694</v>
+        <v>650455.73497321794</v>
       </c>
       <c r="G439" s="33">
-        <v>10035.26</v>
+        <v>11104</v>
       </c>
     </row>
     <row r="440" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B440" s="30" t="s">
         <v>9</v>
@@ -10617,67 +10439,67 @@
         <v>3</v>
       </c>
       <c r="D440" s="31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E440" s="32">
-        <v>379529.75700513402</v>
+        <v>379406.35749030602</v>
       </c>
       <c r="F440" s="32">
-        <v>650224.66439501196</v>
+        <v>650387.00074714702</v>
       </c>
       <c r="G440" s="33">
-        <v>10013.43</v>
+        <v>10952.73</v>
       </c>
     </row>
     <row r="441" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B441" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C441" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D441" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E441" s="32">
-        <v>379268.82312989602</v>
+        <v>379469.00720493298</v>
       </c>
       <c r="F441" s="32">
-        <v>650557.54964597605</v>
+        <v>650304.39623219694</v>
       </c>
       <c r="G441" s="33">
-        <v>13890.83</v>
+        <v>10035.26</v>
       </c>
     </row>
     <row r="442" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B442" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C442" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D442" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E442" s="32">
-        <v>379306.91876098898</v>
+        <v>379529.75700513402</v>
       </c>
       <c r="F442" s="32">
-        <v>650437.86067417695</v>
+        <v>650224.66439501196</v>
       </c>
       <c r="G442" s="33">
-        <v>15144.96</v>
+        <v>10013.43</v>
       </c>
     </row>
     <row r="443" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B443" s="30" t="s">
         <v>8</v>
@@ -10686,21 +10508,21 @@
         <v>2</v>
       </c>
       <c r="D443" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E443" s="32">
-        <v>379227.95288025902</v>
+        <v>379268.82312989602</v>
       </c>
       <c r="F443" s="32">
-        <v>650353.310296571</v>
+        <v>650557.54964597605</v>
       </c>
       <c r="G443" s="33">
-        <v>19315.98</v>
+        <v>13890.83</v>
       </c>
     </row>
     <row r="444" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B444" s="30" t="s">
         <v>8</v>
@@ -10709,21 +10531,21 @@
         <v>2</v>
       </c>
       <c r="D444" s="31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E444" s="32">
-        <v>379067.852096488</v>
+        <v>379306.91876098898</v>
       </c>
       <c r="F444" s="32">
-        <v>650284.94403405802</v>
+        <v>650437.86067417695</v>
       </c>
       <c r="G444" s="33">
-        <v>11888.3</v>
+        <v>15144.96</v>
       </c>
     </row>
     <row r="445" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B445" s="30" t="s">
         <v>8</v>
@@ -10732,56 +10554,62 @@
         <v>2</v>
       </c>
       <c r="D445" s="31">
+        <v>3</v>
+      </c>
+      <c r="E445" s="32">
+        <v>379227.95288025902</v>
+      </c>
+      <c r="F445" s="32">
+        <v>650353.310296571</v>
+      </c>
+      <c r="G445" s="33">
+        <v>19315.98</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B446" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C446" s="28">
+        <v>2</v>
+      </c>
+      <c r="D446" s="31">
+        <v>4</v>
+      </c>
+      <c r="E446" s="32">
+        <v>379067.852096488</v>
+      </c>
+      <c r="F446" s="32">
+        <v>650284.94403405802</v>
+      </c>
+      <c r="G446" s="33">
+        <v>11888.3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B447" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C447" s="28">
+        <v>2</v>
+      </c>
+      <c r="D447" s="31">
         <v>5</v>
       </c>
-      <c r="E445" s="32">
+      <c r="E447" s="32">
         <v>378963.434292497</v>
       </c>
-      <c r="F445" s="32">
+      <c r="F447" s="32">
         <v>650236.12681499706</v>
       </c>
-      <c r="G445" s="33">
+      <c r="G447" s="33">
         <v>11012.52</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
-        <v>27</v>
-      </c>
-      <c r="B446" t="s">
-        <v>13</v>
-      </c>
-      <c r="D446">
-        <v>1</v>
-      </c>
-      <c r="E446">
-        <v>356802.46420473198</v>
-      </c>
-      <c r="F446">
-        <v>666011.856169053</v>
-      </c>
-      <c r="G446">
-        <v>15365.3</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
-        <v>27</v>
-      </c>
-      <c r="B447" t="s">
-        <v>13</v>
-      </c>
-      <c r="D447">
-        <v>2</v>
-      </c>
-      <c r="E447">
-        <v>356877.910300616</v>
-      </c>
-      <c r="F447">
-        <v>665909.27800602396</v>
-      </c>
-      <c r="G447">
-        <v>10238.299999999999</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
@@ -10792,16 +10620,16 @@
         <v>13</v>
       </c>
       <c r="D448">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E448">
-        <v>356954.94745783601</v>
+        <v>356802.46420473198</v>
       </c>
       <c r="F448">
-        <v>665835.18980760896</v>
+        <v>666011.856169053</v>
       </c>
       <c r="G448">
-        <v>12463.42</v>
+        <v>15365.3</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
@@ -10812,16 +10640,16 @@
         <v>13</v>
       </c>
       <c r="D449">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E449">
-        <v>357078.59272858599</v>
+        <v>356877.910300616</v>
       </c>
       <c r="F449">
-        <v>665867.57352061698</v>
+        <v>665909.27800602396</v>
       </c>
       <c r="G449">
-        <v>25456.74</v>
+        <v>10238.299999999999</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
@@ -10832,16 +10660,16 @@
         <v>13</v>
       </c>
       <c r="D450">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E450">
-        <v>357211.56901102199</v>
+        <v>356954.94745783601</v>
       </c>
       <c r="F450">
-        <v>665894.035936306</v>
+        <v>665835.18980760896</v>
       </c>
       <c r="G450">
-        <v>12000.95</v>
+        <v>12463.42</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
@@ -10849,19 +10677,19 @@
         <v>27</v>
       </c>
       <c r="B451" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D451">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E451">
-        <v>356793.674338741</v>
+        <v>357078.59272858599</v>
       </c>
       <c r="F451">
-        <v>666054.06040557905</v>
+        <v>665867.57352061698</v>
       </c>
       <c r="G451">
-        <v>12692.3</v>
+        <v>25456.74</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
@@ -10869,19 +10697,19 @@
         <v>27</v>
       </c>
       <c r="B452" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D452">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E452">
-        <v>356814.45291916601</v>
+        <v>357211.56901102199</v>
       </c>
       <c r="F452">
-        <v>666162.40830059303</v>
+        <v>665894.035936306</v>
       </c>
       <c r="G452">
-        <v>10887.18</v>
+        <v>12000.95</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
@@ -10892,16 +10720,16 @@
         <v>7</v>
       </c>
       <c r="D453">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E453">
-        <v>356864.75148305</v>
+        <v>356793.674338741</v>
       </c>
       <c r="F453">
-        <v>666255.04766442603</v>
+        <v>666054.06040557905</v>
       </c>
       <c r="G453">
-        <v>10225.42</v>
+        <v>12692.3</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
@@ -10912,16 +10740,16 @@
         <v>7</v>
       </c>
       <c r="D454">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E454">
-        <v>356912.877555024</v>
+        <v>356814.45291916601</v>
       </c>
       <c r="F454">
-        <v>666341.65753948002</v>
+        <v>666162.40830059303</v>
       </c>
       <c r="G454">
-        <v>9484.6200000000008</v>
+        <v>10887.18</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
@@ -10932,16 +10760,16 @@
         <v>7</v>
       </c>
       <c r="D455">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E455">
-        <v>356936.36268304399</v>
+        <v>356864.75148305</v>
       </c>
       <c r="F455">
-        <v>666392.43931861804</v>
+        <v>666255.04766442603</v>
       </c>
       <c r="G455">
-        <v>182.93</v>
+        <v>10225.42</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
@@ -10949,19 +10777,19 @@
         <v>27</v>
       </c>
       <c r="B456" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D456">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E456">
-        <v>356764.91021903203</v>
+        <v>356912.877555024</v>
       </c>
       <c r="F456">
-        <v>666014.563724129</v>
+        <v>666341.65753948002</v>
       </c>
       <c r="G456">
-        <v>16443.150000000001</v>
+        <v>9484.6200000000008</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
@@ -10969,19 +10797,19 @@
         <v>27</v>
       </c>
       <c r="B457" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D457">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E457">
-        <v>356685.35618980502</v>
+        <v>356936.36268304399</v>
       </c>
       <c r="F457">
-        <v>665917.51695114898</v>
+        <v>666392.43931861804</v>
       </c>
       <c r="G457">
-        <v>11876.68</v>
+        <v>182.93</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
@@ -10992,16 +10820,16 @@
         <v>9</v>
       </c>
       <c r="D458">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E458">
-        <v>356659.16200436902</v>
+        <v>356764.91021903203</v>
       </c>
       <c r="F458">
-        <v>665806.68107357097</v>
+        <v>666014.563724129</v>
       </c>
       <c r="G458">
-        <v>10454.68</v>
+        <v>16443.150000000001</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
@@ -11012,16 +10840,16 @@
         <v>9</v>
       </c>
       <c r="D459">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E459">
-        <v>356632.26706584502</v>
+        <v>356685.35618980502</v>
       </c>
       <c r="F459">
-        <v>665706.92037122801</v>
+        <v>665917.51695114898</v>
       </c>
       <c r="G459">
-        <v>10170</v>
+        <v>11876.68</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
@@ -11032,16 +10860,16 @@
         <v>9</v>
       </c>
       <c r="D460">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E460">
-        <v>356599.29285065399</v>
+        <v>356659.16200436902</v>
       </c>
       <c r="F460">
-        <v>665611.72340973397</v>
+        <v>665806.68107357097</v>
       </c>
       <c r="G460">
-        <v>9984.7900000000009</v>
+        <v>10454.68</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
@@ -11049,19 +10877,19 @@
         <v>27</v>
       </c>
       <c r="B461" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D461">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E461">
-        <v>356757.65127240901</v>
+        <v>356632.26706584502</v>
       </c>
       <c r="F461">
-        <v>666023.90203619702</v>
+        <v>665706.92037122801</v>
       </c>
       <c r="G461">
-        <v>17097.82</v>
+        <v>10170</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
@@ -11069,19 +10897,19 @@
         <v>27</v>
       </c>
       <c r="B462" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D462">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E462">
-        <v>356644.656367919</v>
+        <v>356599.29285065399</v>
       </c>
       <c r="F462">
-        <v>666056.20732879301</v>
+        <v>665611.72340973397</v>
       </c>
       <c r="G462">
-        <v>11012.96</v>
+        <v>9984.7900000000009</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
@@ -11092,16 +10920,16 @@
         <v>8</v>
       </c>
       <c r="D463">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E463">
-        <v>356555.16048165999</v>
+        <v>356757.65127240901</v>
       </c>
       <c r="F463">
-        <v>666128.86185242503</v>
+        <v>666023.90203619702</v>
       </c>
       <c r="G463">
-        <v>18045.43</v>
+        <v>17097.82</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
@@ -11112,16 +10940,16 @@
         <v>8</v>
       </c>
       <c r="D464">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E464">
-        <v>356523.70413526002</v>
+        <v>356644.656367919</v>
       </c>
       <c r="F464">
-        <v>666229.87111689802</v>
+        <v>666056.20732879301</v>
       </c>
       <c r="G464">
-        <v>18102.79</v>
+        <v>11012.96</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
@@ -11132,56 +10960,56 @@
         <v>8</v>
       </c>
       <c r="D465">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E465">
-        <v>356412.436000088</v>
+        <v>356555.16048165999</v>
       </c>
       <c r="F465">
-        <v>666274.41128054401</v>
+        <v>666128.86185242503</v>
       </c>
       <c r="G465">
-        <v>12710.03</v>
+        <v>18045.43</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B466" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D466">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E466">
-        <v>295201.80017561401</v>
+        <v>356523.70413526002</v>
       </c>
       <c r="F466">
-        <v>687064.68562760402</v>
+        <v>666229.87111689802</v>
       </c>
       <c r="G466">
-        <v>13253.71</v>
+        <v>18102.79</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B467" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D467">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E467">
-        <v>295109.73979989399</v>
+        <v>356412.436000088</v>
       </c>
       <c r="F467">
-        <v>687138.89971782803</v>
+        <v>666274.41128054401</v>
       </c>
       <c r="G467">
-        <v>10564.91</v>
+        <v>12710.03</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
@@ -11192,16 +11020,16 @@
         <v>7</v>
       </c>
       <c r="D468">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E468">
-        <v>295065.53229749401</v>
+        <v>295201.80017561401</v>
       </c>
       <c r="F468">
-        <v>687234.72985104495</v>
+        <v>687064.68562760402</v>
       </c>
       <c r="G468">
-        <v>20590.91</v>
+        <v>13253.71</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
@@ -11212,16 +11040,16 @@
         <v>7</v>
       </c>
       <c r="D469">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E469">
-        <v>295133.68042436999</v>
+        <v>295109.73979989399</v>
       </c>
       <c r="F469">
-        <v>687371.39431337605</v>
+        <v>687138.89971782803</v>
       </c>
       <c r="G469">
-        <v>13966.14</v>
+        <v>10564.91</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
@@ -11232,16 +11060,16 @@
         <v>7</v>
       </c>
       <c r="D470">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E470">
-        <v>295182.96192119899</v>
+        <v>295065.53229749401</v>
       </c>
       <c r="F470">
-        <v>687492.61544766498</v>
+        <v>687234.72985104495</v>
       </c>
       <c r="G470">
-        <v>11053.94</v>
+        <v>20590.91</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
@@ -11249,19 +11077,19 @@
         <v>28</v>
       </c>
       <c r="B471" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D471">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E471">
-        <v>295231.314518</v>
+        <v>295133.68042436999</v>
       </c>
       <c r="F471">
-        <v>687017.61022538901</v>
+        <v>687371.39431337605</v>
       </c>
       <c r="G471">
-        <v>13329.92</v>
+        <v>13966.14</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
@@ -11269,19 +11097,19 @@
         <v>28</v>
       </c>
       <c r="B472" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D472">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E472">
-        <v>295273.35514172801</v>
+        <v>295182.96192119899</v>
       </c>
       <c r="F472">
-        <v>686908.15664302302</v>
+        <v>687492.61544766498</v>
       </c>
       <c r="G472">
-        <v>10413.24</v>
+        <v>11053.94</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
@@ -11292,16 +11120,16 @@
         <v>9</v>
       </c>
       <c r="D473">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E473">
-        <v>295317.88374356902</v>
+        <v>295231.314518</v>
       </c>
       <c r="F473">
-        <v>686813.10188060603</v>
+        <v>687017.61022538901</v>
       </c>
       <c r="G473">
-        <v>11357.54</v>
+        <v>13329.92</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
@@ -11312,16 +11140,16 @@
         <v>9</v>
       </c>
       <c r="D474">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E474">
-        <v>295418.92421939602</v>
+        <v>295273.35514172801</v>
       </c>
       <c r="F474">
-        <v>686759.03143716103</v>
+        <v>686908.15664302302</v>
       </c>
       <c r="G474">
-        <v>12700.02</v>
+        <v>10413.24</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
@@ -11332,16 +11160,16 @@
         <v>9</v>
       </c>
       <c r="D475">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E475">
-        <v>295495.90884119499</v>
+        <v>295317.88374356902</v>
       </c>
       <c r="F475">
-        <v>686726.08644166403</v>
+        <v>686813.10188060603</v>
       </c>
       <c r="G475">
-        <v>4166</v>
+        <v>11357.54</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
@@ -11349,19 +11177,19 @@
         <v>28</v>
       </c>
       <c r="B476" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D476">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E476">
-        <v>295195.52913913998</v>
+        <v>295418.92421939602</v>
       </c>
       <c r="F476">
-        <v>687039.28556821099</v>
+        <v>686759.03143716103</v>
       </c>
       <c r="G476">
-        <v>13428.26</v>
+        <v>12700.02</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
@@ -11369,19 +11197,19 @@
         <v>28</v>
       </c>
       <c r="B477" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D477">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E477">
-        <v>295077.65896898502</v>
+        <v>295495.90884119499</v>
       </c>
       <c r="F477">
-        <v>687017.05638960202</v>
+        <v>686726.08644166403</v>
       </c>
       <c r="G477">
-        <v>10671.02</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
@@ -11392,16 +11220,16 @@
         <v>8</v>
       </c>
       <c r="D478">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E478">
-        <v>294977.772242854</v>
+        <v>295195.52913913998</v>
       </c>
       <c r="F478">
-        <v>687052.59060062806</v>
+        <v>687039.28556821099</v>
       </c>
       <c r="G478">
-        <v>12045.6</v>
+        <v>13428.26</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
@@ -11412,16 +11240,16 @@
         <v>8</v>
       </c>
       <c r="D479">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E479">
-        <v>294885.459909447</v>
+        <v>295077.65896898502</v>
       </c>
       <c r="F479">
-        <v>687140.60763375205</v>
+        <v>687017.05638960202</v>
       </c>
       <c r="G479">
-        <v>13984.47</v>
+        <v>10671.02</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
@@ -11432,56 +11260,56 @@
         <v>8</v>
       </c>
       <c r="D480">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E480">
-        <v>294836.56388944999</v>
+        <v>294977.772242854</v>
       </c>
       <c r="F480">
-        <v>687265.32892611402</v>
+        <v>687052.59060062806</v>
       </c>
       <c r="G480">
-        <v>13924.82</v>
+        <v>12045.6</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B481" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D481">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E481">
-        <v>294130.582019469</v>
+        <v>294885.459909447</v>
       </c>
       <c r="F481">
-        <v>719652.80031242699</v>
+        <v>687140.60763375205</v>
       </c>
       <c r="G481">
-        <v>13783.64</v>
+        <v>13984.47</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B482" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D482">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E482">
-        <v>294236.05905226601</v>
+        <v>294836.56388944999</v>
       </c>
       <c r="F482">
-        <v>719707.99766796106</v>
+        <v>687265.32892611402</v>
       </c>
       <c r="G482">
-        <v>10318.799999999999</v>
+        <v>13924.82</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
@@ -11492,16 +11320,16 @@
         <v>13</v>
       </c>
       <c r="D483">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E483">
-        <v>294322.59428155603</v>
+        <v>294130.582019469</v>
       </c>
       <c r="F483">
-        <v>719762.40638305899</v>
+        <v>719652.80031242699</v>
       </c>
       <c r="G483">
-        <v>10092.64</v>
+        <v>13783.64</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
@@ -11512,16 +11340,16 @@
         <v>13</v>
       </c>
       <c r="D484">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E484">
-        <v>294408.08091087098</v>
+        <v>294236.05905226601</v>
       </c>
       <c r="F484">
-        <v>719819.35831922095</v>
+        <v>719707.99766796106</v>
       </c>
       <c r="G484">
-        <v>10534.33</v>
+        <v>10318.799999999999</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
@@ -11532,16 +11360,16 @@
         <v>13</v>
       </c>
       <c r="D485">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E485">
-        <v>294440.67760787299</v>
+        <v>294322.59428155603</v>
       </c>
       <c r="F485">
-        <v>719937.40196322696</v>
+        <v>719762.40638305899</v>
       </c>
       <c r="G485">
-        <v>22122.22</v>
+        <v>10092.64</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
@@ -11549,19 +11377,19 @@
         <v>29</v>
       </c>
       <c r="B486" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D486">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E486">
-        <v>294124.45651912998</v>
+        <v>294408.08091087098</v>
       </c>
       <c r="F486">
-        <v>719665.20865078003</v>
+        <v>719819.35831922095</v>
       </c>
       <c r="G486">
-        <v>14872.54</v>
+        <v>10534.33</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
@@ -11569,19 +11397,19 @@
         <v>29</v>
       </c>
       <c r="B487" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D487">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E487">
-        <v>294162.08207880502</v>
+        <v>294440.67760787299</v>
       </c>
       <c r="F487">
-        <v>719780.278024878</v>
+        <v>719937.40196322696</v>
       </c>
       <c r="G487">
-        <v>10464.129999999999</v>
+        <v>22122.22</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
@@ -11592,16 +11420,16 @@
         <v>7</v>
       </c>
       <c r="D488">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E488">
-        <v>294169.67592259502</v>
+        <v>294124.45651912998</v>
       </c>
       <c r="F488">
-        <v>719884.41764273494</v>
+        <v>719665.20865078003</v>
       </c>
       <c r="G488">
-        <v>11188.59</v>
+        <v>14872.54</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
@@ -11612,16 +11440,16 @@
         <v>7</v>
       </c>
       <c r="D489">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E489">
-        <v>294153.10502425698</v>
+        <v>294162.08207880502</v>
       </c>
       <c r="F489">
-        <v>719991.57189785806</v>
+        <v>719780.278024878</v>
       </c>
       <c r="G489">
-        <v>10431.040000000001</v>
+        <v>10464.129999999999</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
@@ -11632,16 +11460,16 @@
         <v>7</v>
       </c>
       <c r="D490">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E490">
-        <v>294130.78556694998</v>
+        <v>294169.67592259502</v>
       </c>
       <c r="F490">
-        <v>720093.264932408</v>
+        <v>719884.41764273494</v>
       </c>
       <c r="G490">
-        <v>10695.71</v>
+        <v>11188.59</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
@@ -11649,19 +11477,19 @@
         <v>29</v>
       </c>
       <c r="B491" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D491">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E491">
-        <v>294105.41435399198</v>
+        <v>294153.10502425698</v>
       </c>
       <c r="F491">
-        <v>719617.27883675799</v>
+        <v>719991.57189785806</v>
       </c>
       <c r="G491">
-        <v>13634.95</v>
+        <v>10431.040000000001</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
@@ -11669,19 +11497,19 @@
         <v>29</v>
       </c>
       <c r="B492" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D492">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E492">
-        <v>294070.77025704499</v>
+        <v>294130.78556694998</v>
       </c>
       <c r="F492">
-        <v>719504.99769172701</v>
+        <v>720093.264932408</v>
       </c>
       <c r="G492">
-        <v>10586.09</v>
+        <v>10695.71</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
@@ -11692,16 +11520,16 @@
         <v>9</v>
       </c>
       <c r="D493">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E493">
-        <v>294023.395590114</v>
+        <v>294105.41435399198</v>
       </c>
       <c r="F493">
-        <v>719412.15119194495</v>
+        <v>719617.27883675799</v>
       </c>
       <c r="G493">
-        <v>10160.94</v>
+        <v>13634.95</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
@@ -11712,16 +11540,16 @@
         <v>9</v>
       </c>
       <c r="D494">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E494">
-        <v>293970.85562881001</v>
+        <v>294070.77025704499</v>
       </c>
       <c r="F494">
-        <v>719322.85029577999</v>
+        <v>719504.99769172701</v>
       </c>
       <c r="G494">
-        <v>10864.58</v>
+        <v>10586.09</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
@@ -11732,16 +11560,16 @@
         <v>9</v>
       </c>
       <c r="D495">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E495">
-        <v>293897.09664076602</v>
+        <v>294023.395590114</v>
       </c>
       <c r="F495">
-        <v>719250.28512718505</v>
+        <v>719412.15119194495</v>
       </c>
       <c r="G495">
-        <v>10737.22</v>
+        <v>10160.94</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
@@ -11749,19 +11577,19 @@
         <v>29</v>
       </c>
       <c r="B496" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D496">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E496">
-        <v>293958.09929826501</v>
+        <v>293970.85562881001</v>
       </c>
       <c r="F496">
-        <v>719624.49597922806</v>
+        <v>719322.85029577999</v>
       </c>
       <c r="G496">
-        <v>10220.43</v>
+        <v>10864.58</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
@@ -11769,19 +11597,19 @@
         <v>29</v>
       </c>
       <c r="B497" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D497">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E497">
-        <v>293857.57378912898</v>
+        <v>293897.09664076602</v>
       </c>
       <c r="F497">
-        <v>719610.58029757498</v>
+        <v>719250.28512718505</v>
       </c>
       <c r="G497">
-        <v>10066.209999999999</v>
+        <v>10737.22</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
@@ -11792,16 +11620,16 @@
         <v>8</v>
       </c>
       <c r="D498">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E498">
-        <v>293758.04301682301</v>
+        <v>293958.09929826501</v>
       </c>
       <c r="F498">
-        <v>719596.759643064</v>
+        <v>719624.49597922806</v>
       </c>
       <c r="G498">
-        <v>10029.57</v>
+        <v>10220.43</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
@@ -11812,16 +11640,16 @@
         <v>8</v>
       </c>
       <c r="D499">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E499">
-        <v>293658.72948183602</v>
+        <v>293857.57378912898</v>
       </c>
       <c r="F499">
-        <v>719583.19467909995</v>
+        <v>719610.58029757498</v>
       </c>
       <c r="G499">
-        <v>10017.27</v>
+        <v>10066.209999999999</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
@@ -11832,56 +11660,56 @@
         <v>8</v>
       </c>
       <c r="D500">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E500">
-        <v>294076.11734041502</v>
+        <v>293758.04301682301</v>
       </c>
       <c r="F500">
-        <v>719641.17597611004</v>
+        <v>719596.759643064</v>
       </c>
       <c r="G500">
-        <v>13549.5</v>
+        <v>10029.57</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B501" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D501">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E501">
-        <v>331839.31111163902</v>
+        <v>293658.72948183602</v>
       </c>
       <c r="F501">
-        <v>707006.34649853897</v>
+        <v>719583.19467909995</v>
       </c>
       <c r="G501">
-        <v>14209.09</v>
+        <v>10017.27</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B502" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D502">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E502">
-        <v>331948.84358856699</v>
+        <v>294076.11734041502</v>
       </c>
       <c r="F502">
-        <v>706984.78108364204</v>
+        <v>719641.17597611004</v>
       </c>
       <c r="G502">
-        <v>12893.87</v>
+        <v>13549.5</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
@@ -11892,16 +11720,16 @@
         <v>13</v>
       </c>
       <c r="D503">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E503">
-        <v>332033.32939114998</v>
+        <v>331839.31111163902</v>
       </c>
       <c r="F503">
-        <v>706909.38519788499</v>
+        <v>707006.34649853897</v>
       </c>
       <c r="G503">
-        <v>10637.73</v>
+        <v>14209.09</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
@@ -11912,16 +11740,16 @@
         <v>13</v>
       </c>
       <c r="D504">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E504">
-        <v>332123.82150195999</v>
+        <v>331948.84358856699</v>
       </c>
       <c r="F504">
-        <v>706859.41504771495</v>
+        <v>706984.78108364204</v>
       </c>
       <c r="G504">
-        <v>10511.28</v>
+        <v>12893.87</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
@@ -11932,16 +11760,16 @@
         <v>13</v>
       </c>
       <c r="D505">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E505">
-        <v>332215.34506113298</v>
+        <v>332033.32939114998</v>
       </c>
       <c r="F505">
-        <v>706824.25665334403</v>
+        <v>706909.38519788499</v>
       </c>
       <c r="G505">
-        <v>10539.69</v>
+        <v>10637.73</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
@@ -11949,19 +11777,19 @@
         <v>30</v>
       </c>
       <c r="B506" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D506">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E506">
-        <v>331839.15134709101</v>
+        <v>332123.82150195999</v>
       </c>
       <c r="F506">
-        <v>707006.73241212405</v>
+        <v>706859.41504771495</v>
       </c>
       <c r="G506">
-        <v>14542.62</v>
+        <v>10511.28</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
@@ -11969,19 +11797,19 @@
         <v>30</v>
       </c>
       <c r="B507" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D507">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E507">
-        <v>331942.75281102402</v>
+        <v>332215.34506113298</v>
       </c>
       <c r="F507">
-        <v>707049.467692715</v>
+        <v>706824.25665334403</v>
       </c>
       <c r="G507">
-        <v>14558.96</v>
+        <v>10539.69</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
@@ -11992,16 +11820,16 @@
         <v>7</v>
       </c>
       <c r="D508">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E508">
-        <v>331960.22859583498</v>
+        <v>331839.15134709101</v>
       </c>
       <c r="F508">
-        <v>707190.72894381301</v>
+        <v>707006.73241212405</v>
       </c>
       <c r="G508">
-        <v>28264.67</v>
+        <v>14542.62</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
@@ -12012,16 +11840,16 @@
         <v>7</v>
       </c>
       <c r="D509">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E509">
-        <v>331826.354297477</v>
+        <v>331942.75281102402</v>
       </c>
       <c r="F509">
-        <v>707357.36115374102</v>
+        <v>707049.467692715</v>
       </c>
       <c r="G509">
-        <v>13849.82</v>
+        <v>14558.96</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
@@ -12032,16 +11860,16 @@
         <v>7</v>
       </c>
       <c r="D510">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E510">
-        <v>331740.897772166</v>
+        <v>331960.22859583498</v>
       </c>
       <c r="F510">
-        <v>707456.02752109501</v>
+        <v>707190.72894381301</v>
       </c>
       <c r="G510">
-        <v>11739.18</v>
+        <v>28264.67</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
@@ -12049,19 +11877,19 @@
         <v>30</v>
       </c>
       <c r="B511" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D511">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E511">
-        <v>331836.06789951603</v>
+        <v>331826.354297477</v>
       </c>
       <c r="F511">
-        <v>706998.50724012905</v>
+        <v>707357.36115374102</v>
       </c>
       <c r="G511">
-        <v>14615.96</v>
+        <v>13849.82</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
@@ -12069,19 +11897,19 @@
         <v>30</v>
       </c>
       <c r="B512" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D512">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E512">
-        <v>331865.91030296002</v>
+        <v>331740.897772166</v>
       </c>
       <c r="F512">
-        <v>706893.43944753497</v>
+        <v>707456.02752109501</v>
       </c>
       <c r="G512">
-        <v>15316.72</v>
+        <v>11739.18</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
@@ -12092,16 +11920,16 @@
         <v>9</v>
       </c>
       <c r="D513">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E513">
-        <v>331794.278937052</v>
+        <v>331836.06789951603</v>
       </c>
       <c r="F513">
-        <v>706767.58137256396</v>
+        <v>706998.50724012905</v>
       </c>
       <c r="G513">
-        <v>12248.42</v>
+        <v>14615.96</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
@@ -12112,16 +11940,16 @@
         <v>9</v>
       </c>
       <c r="D514">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E514">
-        <v>331741.52942704898</v>
+        <v>331865.91030296002</v>
       </c>
       <c r="F514">
-        <v>706672.87764136295</v>
+        <v>706893.43944753497</v>
       </c>
       <c r="G514">
-        <v>10528.95</v>
+        <v>15316.72</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
@@ -12132,16 +11960,16 @@
         <v>9</v>
       </c>
       <c r="D515">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E515">
-        <v>331745.37166404002</v>
+        <v>331794.278937052</v>
       </c>
       <c r="F515">
-        <v>706570.93024992803</v>
+        <v>706767.58137256396</v>
       </c>
       <c r="G515">
-        <v>10018.49</v>
+        <v>12248.42</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
@@ -12149,19 +11977,19 @@
         <v>30</v>
       </c>
       <c r="B516" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D516">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E516">
-        <v>331787.55958399299</v>
+        <v>331741.52942704898</v>
       </c>
       <c r="F516">
-        <v>707031.25866057398</v>
+        <v>706672.87764136295</v>
       </c>
       <c r="G516">
-        <v>13528.33</v>
+        <v>10528.95</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
@@ -12169,19 +11997,19 @@
         <v>30</v>
       </c>
       <c r="B517" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D517">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E517">
-        <v>331674.73297144199</v>
+        <v>331745.37166404002</v>
       </c>
       <c r="F517">
-        <v>707053.31864224805</v>
+        <v>706570.93024992803</v>
       </c>
       <c r="G517">
-        <v>16902.84</v>
+        <v>10018.49</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
@@ -12192,16 +12020,16 @@
         <v>8</v>
       </c>
       <c r="D518">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E518">
-        <v>331573.983446103</v>
+        <v>331787.55958399299</v>
       </c>
       <c r="F518">
-        <v>706949.44309940503</v>
+        <v>707031.25866057398</v>
       </c>
       <c r="G518">
-        <v>12119.09</v>
+        <v>13528.33</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
@@ -12212,16 +12040,16 @@
         <v>8</v>
       </c>
       <c r="D519">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E519">
-        <v>331497.29442932399</v>
+        <v>331674.73297144199</v>
       </c>
       <c r="F519">
-        <v>706861.82232691499</v>
+        <v>707053.31864224805</v>
       </c>
       <c r="G519">
-        <v>10842.21</v>
+        <v>16902.84</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
@@ -12232,56 +12060,56 @@
         <v>8</v>
       </c>
       <c r="D520">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E520">
-        <v>331426.084313864</v>
+        <v>331573.983446103</v>
       </c>
       <c r="F520">
-        <v>706782.97908488603</v>
+        <v>706949.44309940503</v>
       </c>
       <c r="G520">
-        <v>10359.89</v>
+        <v>12119.09</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B521" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D521">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E521">
-        <v>355139.63890018902</v>
+        <v>331497.29442932399</v>
       </c>
       <c r="F521">
-        <v>668638.57116060099</v>
+        <v>706861.82232691499</v>
       </c>
       <c r="G521">
-        <v>12432.33</v>
+        <v>10842.21</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B522" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D522">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E522">
-        <v>355155.70621769299</v>
+        <v>331426.084313864</v>
       </c>
       <c r="F522">
-        <v>668536.651215869</v>
+        <v>706782.97908488603</v>
       </c>
       <c r="G522">
-        <v>12980.51</v>
+        <v>10359.89</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
@@ -12292,16 +12120,16 @@
         <v>13</v>
       </c>
       <c r="D523">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E523">
-        <v>355226.42496617697</v>
+        <v>355139.63890018902</v>
       </c>
       <c r="F523">
-        <v>668462.22378221794</v>
+        <v>668638.57116060099</v>
       </c>
       <c r="G523">
-        <v>15918.32</v>
+        <v>12432.33</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
@@ -12312,16 +12140,16 @@
         <v>13</v>
       </c>
       <c r="D524">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E524">
-        <v>355331.33589838201</v>
+        <v>355155.70621769299</v>
       </c>
       <c r="F524">
-        <v>668407.13248535898</v>
+        <v>668536.651215869</v>
       </c>
       <c r="G524">
-        <v>13298.89</v>
+        <v>12980.51</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
@@ -12332,16 +12160,16 @@
         <v>13</v>
       </c>
       <c r="D525">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E525">
-        <v>355424.063856069</v>
+        <v>355226.42496617697</v>
       </c>
       <c r="F525">
-        <v>668356.50471880904</v>
+        <v>668462.22378221794</v>
       </c>
       <c r="G525">
-        <v>11826.78</v>
+        <v>15918.32</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
@@ -12349,19 +12177,19 @@
         <v>31</v>
       </c>
       <c r="B526" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D526">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E526">
-        <v>355134.10516178003</v>
+        <v>355331.33589838201</v>
       </c>
       <c r="F526">
-        <v>668672.45572282805</v>
+        <v>668407.13248535898</v>
       </c>
       <c r="G526">
-        <v>14882.77</v>
+        <v>13298.89</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
@@ -12369,19 +12197,19 @@
         <v>31</v>
       </c>
       <c r="B527" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D527">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E527">
-        <v>355214.55691870197</v>
+        <v>355424.063856069</v>
       </c>
       <c r="F527">
-        <v>668763.035545739</v>
+        <v>668356.50471880904</v>
       </c>
       <c r="G527">
-        <v>10756.56</v>
+        <v>11826.78</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
@@ -12392,16 +12220,16 @@
         <v>7</v>
       </c>
       <c r="D528">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E528">
-        <v>355267.94770066801</v>
+        <v>355134.10516178003</v>
       </c>
       <c r="F528">
-        <v>668854.76641142205</v>
+        <v>668672.45572282805</v>
       </c>
       <c r="G528">
-        <v>10338.530000000001</v>
+        <v>14882.77</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
@@ -12412,16 +12240,16 @@
         <v>7</v>
       </c>
       <c r="D529">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E529">
-        <v>355317.670261833</v>
+        <v>355214.55691870197</v>
       </c>
       <c r="F529">
-        <v>668944.30448214198</v>
+        <v>668763.035545739</v>
       </c>
       <c r="G529">
-        <v>10121.17</v>
+        <v>10756.56</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
@@ -12432,16 +12260,16 @@
         <v>7</v>
       </c>
       <c r="D530">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E530">
-        <v>355375.09648293001</v>
+        <v>355267.94770066801</v>
       </c>
       <c r="F530">
-        <v>669026.68412663601</v>
+        <v>668854.76641142205</v>
       </c>
       <c r="G530">
-        <v>10027.1</v>
+        <v>10338.530000000001</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
@@ -12449,19 +12277,19 @@
         <v>31</v>
       </c>
       <c r="B531" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D531">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E531">
-        <v>355121.56637892599</v>
+        <v>355317.670261833</v>
       </c>
       <c r="F531">
-        <v>668643.21822049899</v>
+        <v>668944.30448214198</v>
       </c>
       <c r="G531">
-        <v>16432.61</v>
+        <v>10121.17</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
@@ -12469,19 +12297,19 @@
         <v>31</v>
       </c>
       <c r="B532" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D532">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E532">
-        <v>355086.18208338501</v>
+        <v>355375.09648293001</v>
       </c>
       <c r="F532">
-        <v>668525.67726480495</v>
+        <v>669026.68412663601</v>
       </c>
       <c r="G532">
-        <v>10883.01</v>
+        <v>10027.1</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
@@ -12492,16 +12320,16 @@
         <v>9</v>
       </c>
       <c r="D533">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E533">
-        <v>355044.60501491901</v>
+        <v>355121.56637892599</v>
       </c>
       <c r="F533">
-        <v>668428.23152741697</v>
+        <v>668643.21822049899</v>
       </c>
       <c r="G533">
-        <v>10124.81</v>
+        <v>16432.61</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
@@ -12512,16 +12340,16 @@
         <v>9</v>
       </c>
       <c r="D534">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E534">
-        <v>355010.63955021801</v>
+        <v>355086.18208338501</v>
       </c>
       <c r="F534">
-        <v>668332.79793525999</v>
+        <v>668525.67726480495</v>
       </c>
       <c r="G534">
-        <v>10153.469999999999</v>
+        <v>10883.01</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
@@ -12532,16 +12360,16 @@
         <v>9</v>
       </c>
       <c r="D535">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E535">
-        <v>354993.49715493002</v>
+        <v>355044.60501491901</v>
       </c>
       <c r="F535">
-        <v>668236.05223459599</v>
+        <v>668428.23152741697</v>
       </c>
       <c r="G535">
-        <v>11203.73</v>
+        <v>10124.81</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
@@ -12549,19 +12377,19 @@
         <v>31</v>
       </c>
       <c r="B536" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D536">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E536">
-        <v>355077.33267259703</v>
+        <v>355010.63955021801</v>
       </c>
       <c r="F536">
-        <v>668672.25801287498</v>
+        <v>668332.79793525999</v>
       </c>
       <c r="G536">
-        <v>13695.82</v>
+        <v>10153.469999999999</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
@@ -12569,19 +12397,19 @@
         <v>31</v>
       </c>
       <c r="B537" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D537">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E537">
-        <v>354961.08803851902</v>
+        <v>354993.49715493002</v>
       </c>
       <c r="F537">
-        <v>668701.78506951302</v>
+        <v>668236.05223459599</v>
       </c>
       <c r="G537">
-        <v>10227.01</v>
+        <v>11203.73</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
@@ -12592,16 +12420,16 @@
         <v>8</v>
       </c>
       <c r="D538">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E538">
-        <v>354863.184881386</v>
+        <v>355077.33267259703</v>
       </c>
       <c r="F538">
-        <v>668729.05804632301</v>
+        <v>668672.25801287498</v>
       </c>
       <c r="G538">
-        <v>10089.89</v>
+        <v>13695.82</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
@@ -12612,16 +12440,16 @@
         <v>8</v>
       </c>
       <c r="D539">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E539">
-        <v>354772.32235266699</v>
+        <v>354961.08803851902</v>
       </c>
       <c r="F539">
-        <v>668774.744411372</v>
+        <v>668701.78506951302</v>
       </c>
       <c r="G539">
-        <v>10611.63</v>
+        <v>10227.01</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
@@ -12632,56 +12460,56 @@
         <v>8</v>
       </c>
       <c r="D540">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E540">
-        <v>354688.61609999801</v>
+        <v>354863.184881386</v>
       </c>
       <c r="F540">
-        <v>668837.02659551497</v>
+        <v>668729.05804632301</v>
       </c>
       <c r="G540">
-        <v>10230.280000000001</v>
+        <v>10089.89</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B541" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D541">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E541">
-        <v>274768.30475244398</v>
+        <v>354772.32235266699</v>
       </c>
       <c r="F541">
-        <v>689252.25667627796</v>
+        <v>668774.744411372</v>
       </c>
       <c r="G541">
-        <v>13297.49</v>
+        <v>10611.63</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B542" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D542">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E542">
-        <v>274851.32000993798</v>
+        <v>354688.61609999801</v>
       </c>
       <c r="F542">
-        <v>689336.02263226605</v>
+        <v>668837.02659551497</v>
       </c>
       <c r="G542">
-        <v>10228.34</v>
+        <v>10230.280000000001</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
@@ -12692,16 +12520,16 @@
         <v>11</v>
       </c>
       <c r="D543">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E543">
-        <v>274916.77088854002</v>
+        <v>274768.30475244398</v>
       </c>
       <c r="F543">
-        <v>689413.63419099303</v>
+        <v>689252.25667627796</v>
       </c>
       <c r="G543">
-        <v>10240.799999999999</v>
+        <v>13297.49</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
@@ -12712,16 +12540,16 @@
         <v>11</v>
       </c>
       <c r="D544">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E544">
-        <v>274995.15611338499</v>
+        <v>274851.32000993798</v>
       </c>
       <c r="F544">
-        <v>689476.85706910398</v>
+        <v>689336.02263226605</v>
       </c>
       <c r="G544">
-        <v>11087.15</v>
+        <v>10228.34</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
@@ -12732,16 +12560,16 @@
         <v>11</v>
       </c>
       <c r="D545">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E545">
-        <v>275099.21771143802</v>
+        <v>274916.77088854002</v>
       </c>
       <c r="F545">
-        <v>689510.74176493101</v>
+        <v>689413.63419099303</v>
       </c>
       <c r="G545">
-        <v>10773.74</v>
+        <v>10240.799999999999</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
@@ -12749,19 +12577,19 @@
         <v>32</v>
       </c>
       <c r="B546" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D546">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E546">
-        <v>274724.59021627001</v>
+        <v>274995.15611338499</v>
       </c>
       <c r="F546">
-        <v>689245.13862296205</v>
+        <v>689476.85706910398</v>
       </c>
       <c r="G546">
-        <v>13399.05</v>
+        <v>11087.15</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
@@ -12769,19 +12597,19 @@
         <v>32</v>
       </c>
       <c r="B547" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D547">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E547">
-        <v>274620.57863414602</v>
+        <v>275099.21771143802</v>
       </c>
       <c r="F547">
-        <v>689301.78802976198</v>
+        <v>689510.74176493101</v>
       </c>
       <c r="G547">
-        <v>10219.15</v>
+        <v>10773.74</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
@@ -12792,16 +12620,16 @@
         <v>20</v>
       </c>
       <c r="D548">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E548">
-        <v>274538.05340105901</v>
+        <v>274724.59021627001</v>
       </c>
       <c r="F548">
-        <v>689360.82703550998</v>
+        <v>689245.13862296205</v>
       </c>
       <c r="G548">
-        <v>10305.64</v>
+        <v>13399.05</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
@@ -12812,16 +12640,16 @@
         <v>20</v>
       </c>
       <c r="D549">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E549">
-        <v>274454.35863363103</v>
+        <v>274620.57863414602</v>
       </c>
       <c r="F549">
-        <v>689417.25195306505</v>
+        <v>689301.78802976198</v>
       </c>
       <c r="G549">
-        <v>10049.370000000001</v>
+        <v>10219.15</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
@@ -12832,16 +12660,16 @@
         <v>20</v>
       </c>
       <c r="D550">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E550">
-        <v>274366.31369965803</v>
+        <v>274538.05340105901</v>
       </c>
       <c r="F550">
-        <v>689465.50783969206</v>
+        <v>689360.82703550998</v>
       </c>
       <c r="G550">
-        <v>10029.77</v>
+        <v>10305.64</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
@@ -12849,19 +12677,19 @@
         <v>32</v>
       </c>
       <c r="B551" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D551">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E551">
-        <v>274765.62657313998</v>
+        <v>274454.35863363103</v>
       </c>
       <c r="F551">
-        <v>689208.65790040395</v>
+        <v>689417.25195306505</v>
       </c>
       <c r="G551">
-        <v>13509.9</v>
+        <v>10049.370000000001</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
@@ -12869,19 +12697,19 @@
         <v>32</v>
       </c>
       <c r="B552" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D552">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E552">
-        <v>274832.54120479798</v>
+        <v>274366.31369965803</v>
       </c>
       <c r="F552">
-        <v>689106.77929849003</v>
+        <v>689465.50783969206</v>
       </c>
       <c r="G552">
-        <v>11694.6</v>
+        <v>10029.77</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
@@ -12892,16 +12720,16 @@
         <v>25</v>
       </c>
       <c r="D553">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E553">
-        <v>274914.52205700998</v>
+        <v>274765.62657313998</v>
       </c>
       <c r="F553">
-        <v>689054.23771989997</v>
+        <v>689208.65790040395</v>
       </c>
       <c r="G553">
-        <v>11991.96</v>
+        <v>13509.9</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
@@ -12912,16 +12740,16 @@
         <v>25</v>
       </c>
       <c r="D554">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E554">
-        <v>274997.38456307299</v>
+        <v>274832.54120479798</v>
       </c>
       <c r="F554">
-        <v>688985.75040704303</v>
+        <v>689106.77929849003</v>
       </c>
       <c r="G554">
-        <v>11167.82</v>
+        <v>11694.6</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
@@ -12932,16 +12760,16 @@
         <v>25</v>
       </c>
       <c r="D555">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E555">
-        <v>275102.790262644</v>
+        <v>274914.52205700998</v>
       </c>
       <c r="F555">
-        <v>688956.29884223104</v>
+        <v>689054.23771989997</v>
       </c>
       <c r="G555">
-        <v>10904.39</v>
+        <v>11991.96</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
@@ -12949,19 +12777,19 @@
         <v>32</v>
       </c>
       <c r="B556" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D556">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E556">
-        <v>274738.44953763601</v>
+        <v>274997.38456307299</v>
       </c>
       <c r="F556">
-        <v>689205.43471221696</v>
+        <v>688985.75040704303</v>
       </c>
       <c r="G556">
-        <v>13508.94</v>
+        <v>11167.82</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
@@ -12969,19 +12797,19 @@
         <v>32</v>
       </c>
       <c r="B557" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D557">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E557">
-        <v>274682.58713810903</v>
+        <v>275102.790262644</v>
       </c>
       <c r="F557">
-        <v>689098.42679775704</v>
+        <v>688956.29884223104</v>
       </c>
       <c r="G557">
-        <v>12049.2</v>
+        <v>10904.39</v>
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
@@ -12992,16 +12820,16 @@
         <v>12</v>
       </c>
       <c r="D558">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E558">
-        <v>274577.73731309501</v>
+        <v>274738.44953763601</v>
       </c>
       <c r="F558">
-        <v>689054.54441636603</v>
+        <v>689205.43471221696</v>
       </c>
       <c r="G558">
-        <v>11473.47</v>
+        <v>13508.94</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
@@ -13012,16 +12840,16 @@
         <v>12</v>
       </c>
       <c r="D559">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E559">
-        <v>274471.49411908397</v>
+        <v>274682.58713810903</v>
       </c>
       <c r="F559">
-        <v>689021.05890565005</v>
+        <v>689098.42679775704</v>
       </c>
       <c r="G559">
-        <v>10617.21</v>
+        <v>12049.2</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
@@ -13032,56 +12860,56 @@
         <v>12</v>
       </c>
       <c r="D560">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E560">
-        <v>274381.31567247101</v>
+        <v>274577.73731309501</v>
       </c>
       <c r="F560">
-        <v>688973.70684151002</v>
+        <v>689054.54441636603</v>
       </c>
       <c r="G560">
-        <v>10053.31</v>
+        <v>11473.47</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B561" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D561">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E561">
-        <v>319264.678969573</v>
+        <v>274471.49411908397</v>
       </c>
       <c r="F561">
-        <v>714683.217843908</v>
+        <v>689021.05890565005</v>
       </c>
       <c r="G561">
-        <v>13457.27</v>
+        <v>10617.21</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B562" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D562">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E562">
-        <v>319375.64238955302</v>
+        <v>274381.31567247101</v>
       </c>
       <c r="F562">
-        <v>714730.35404282506</v>
+        <v>688973.70684151002</v>
       </c>
       <c r="G562">
-        <v>11119.38</v>
+        <v>10053.31</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
@@ -13092,16 +12920,16 @@
         <v>13</v>
       </c>
       <c r="D563">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E563">
-        <v>319433.66574395698</v>
+        <v>319264.678969573</v>
       </c>
       <c r="F563">
-        <v>714818.05792328005</v>
+        <v>714683.217843908</v>
       </c>
       <c r="G563">
-        <v>13225.67</v>
+        <v>13457.27</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
@@ -13112,16 +12940,16 @@
         <v>13</v>
       </c>
       <c r="D564">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E564">
-        <v>319527.15108832897</v>
+        <v>319375.64238955302</v>
       </c>
       <c r="F564">
-        <v>714875.49687041703</v>
+        <v>714730.35404282506</v>
       </c>
       <c r="G564">
-        <v>12131.42</v>
+        <v>11119.38</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
@@ -13132,16 +12960,16 @@
         <v>13</v>
       </c>
       <c r="D565">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E565">
-        <v>319645.75346869702</v>
+        <v>319433.66574395698</v>
       </c>
       <c r="F565">
-        <v>714840.35830465704</v>
+        <v>714818.05792328005</v>
       </c>
       <c r="G565">
-        <v>18502.53</v>
+        <v>13225.67</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
@@ -13149,19 +12977,19 @@
         <v>33</v>
       </c>
       <c r="B566" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D566">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E566">
-        <v>319233.42956630501</v>
+        <v>319527.15108832897</v>
       </c>
       <c r="F566">
-        <v>714702.49144383799</v>
+        <v>714875.49687041703</v>
       </c>
       <c r="G566">
-        <v>13466.31</v>
+        <v>12131.42</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
@@ -13169,19 +12997,19 @@
         <v>33</v>
       </c>
       <c r="B567" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D567">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E567">
-        <v>319203.88278185402</v>
+        <v>319645.75346869702</v>
       </c>
       <c r="F567">
-        <v>714817.37415313802</v>
+        <v>714840.35830465704</v>
       </c>
       <c r="G567">
-        <v>10408.370000000001</v>
+        <v>18502.53</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
@@ -13192,16 +13020,16 @@
         <v>7</v>
       </c>
       <c r="D568">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E568">
-        <v>319179.82551114599</v>
+        <v>319233.42956630501</v>
       </c>
       <c r="F568">
-        <v>714916.00439878996</v>
+        <v>714702.49144383799</v>
       </c>
       <c r="G568">
-        <v>10160.75</v>
+        <v>13466.31</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
@@ -13212,16 +13040,16 @@
         <v>7</v>
       </c>
       <c r="D569">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E569">
-        <v>319167.10701577301</v>
+        <v>319203.88278185402</v>
       </c>
       <c r="F569">
-        <v>715016.32699130196</v>
+        <v>714817.37415313802</v>
       </c>
       <c r="G569">
-        <v>10059.23</v>
+        <v>10408.370000000001</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
@@ -13232,16 +13060,16 @@
         <v>7</v>
       </c>
       <c r="D570">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E570">
-        <v>319155.24713975698</v>
+        <v>319179.82551114599</v>
       </c>
       <c r="F570">
-        <v>715116.10862629896</v>
+        <v>714916.00439878996</v>
       </c>
       <c r="G570">
-        <v>10041.280000000001</v>
+        <v>10160.75</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
@@ -13249,19 +13077,19 @@
         <v>33</v>
       </c>
       <c r="B571" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D571">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E571">
-        <v>319223.84188868402</v>
+        <v>319167.10701577301</v>
       </c>
       <c r="F571">
-        <v>714651.605644066</v>
+        <v>715016.32699130196</v>
       </c>
       <c r="G571">
-        <v>14979.58</v>
+        <v>10059.23</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
@@ -13269,19 +13097,19 @@
         <v>33</v>
       </c>
       <c r="B572" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D572">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E572">
-        <v>319214.65827596898</v>
+        <v>319155.24713975698</v>
       </c>
       <c r="F572">
-        <v>714530.57097302505</v>
+        <v>715116.10862629896</v>
       </c>
       <c r="G572">
-        <v>10314.209999999999</v>
+        <v>10041.280000000001</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
@@ -13292,16 +13120,16 @@
         <v>9</v>
       </c>
       <c r="D573">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E573">
-        <v>319210.01760589902</v>
+        <v>319223.84188868402</v>
       </c>
       <c r="F573">
-        <v>714428.50001791003</v>
+        <v>714651.605644066</v>
       </c>
       <c r="G573">
-        <v>10122.129999999999</v>
+        <v>14979.58</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
@@ -13312,16 +13140,16 @@
         <v>9</v>
       </c>
       <c r="D574">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E574">
-        <v>319200.15921964397</v>
+        <v>319214.65827596898</v>
       </c>
       <c r="F574">
-        <v>714328.22437763505</v>
+        <v>714530.57097302505</v>
       </c>
       <c r="G574">
-        <v>10511.89</v>
+        <v>10314.209999999999</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
@@ -13332,16 +13160,16 @@
         <v>9</v>
       </c>
       <c r="D575">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E575">
-        <v>319167.006719439</v>
+        <v>319210.01760589902</v>
       </c>
       <c r="F575">
-        <v>714231.92988393304</v>
+        <v>714428.50001791003</v>
       </c>
       <c r="G575">
-        <v>10056.85</v>
+        <v>10122.129999999999</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
@@ -13349,19 +13177,19 @@
         <v>33</v>
       </c>
       <c r="B576" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D576">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E576">
-        <v>319210.14363386401</v>
+        <v>319200.15921964397</v>
       </c>
       <c r="F576">
-        <v>714682.53102188895</v>
+        <v>714328.22437763505</v>
       </c>
       <c r="G576">
-        <v>16075.88</v>
+        <v>10511.89</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
@@ -13369,19 +13197,19 @@
         <v>33</v>
       </c>
       <c r="B577" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D577">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E577">
-        <v>319098.00572393998</v>
+        <v>319167.006719439</v>
       </c>
       <c r="F577">
-        <v>714636.09271349001</v>
+        <v>714231.92988393304</v>
       </c>
       <c r="G577">
-        <v>11238.68</v>
+        <v>10056.85</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
@@ -13392,16 +13220,16 @@
         <v>8</v>
       </c>
       <c r="D578">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E578">
-        <v>318994.606126033</v>
+        <v>319210.14363386401</v>
       </c>
       <c r="F578">
-        <v>714645.23011437606</v>
+        <v>714682.53102188895</v>
       </c>
       <c r="G578">
-        <v>13778.87</v>
+        <v>16075.88</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
@@ -13412,16 +13240,16 @@
         <v>8</v>
       </c>
       <c r="D579">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E579">
-        <v>318889.86937162402</v>
+        <v>319098.00572393998</v>
       </c>
       <c r="F579">
-        <v>714698.10648719606</v>
+        <v>714636.09271349001</v>
       </c>
       <c r="G579">
-        <v>10517.64</v>
+        <v>11238.68</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
@@ -13432,56 +13260,56 @@
         <v>8</v>
       </c>
       <c r="D580">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E580">
-        <v>318794.86597628897</v>
+        <v>318994.606126033</v>
       </c>
       <c r="F580">
-        <v>714742.43368432706</v>
+        <v>714645.23011437606</v>
       </c>
       <c r="G580">
-        <v>10713.43</v>
+        <v>13778.87</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B581" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D581">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E581">
-        <v>320540.94807077502</v>
+        <v>318889.86937162402</v>
       </c>
       <c r="F581">
-        <v>688566.25165296905</v>
+        <v>714698.10648719606</v>
       </c>
       <c r="G581">
-        <v>13483.7</v>
+        <v>10517.64</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B582" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D582">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E582">
-        <v>320627.393281091</v>
+        <v>318794.86597628897</v>
       </c>
       <c r="F582">
-        <v>688647.92773999204</v>
+        <v>714742.43368432706</v>
       </c>
       <c r="G582">
-        <v>10488.27</v>
+        <v>10713.43</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
@@ -13492,16 +13320,16 @@
         <v>11</v>
       </c>
       <c r="D583">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E583">
-        <v>320713.89986529102</v>
+        <v>320540.94807077502</v>
       </c>
       <c r="F583">
-        <v>688704.17742196599</v>
+        <v>688566.25165296905</v>
       </c>
       <c r="G583">
-        <v>10291.530000000001</v>
+        <v>13483.7</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
@@ -13512,16 +13340,16 @@
         <v>11</v>
       </c>
       <c r="D584">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E584">
-        <v>320804.26018386497</v>
+        <v>320627.393281091</v>
       </c>
       <c r="F584">
-        <v>688750.17499432701</v>
+        <v>688647.92773999204</v>
       </c>
       <c r="G584">
-        <v>10514.93</v>
+        <v>10488.27</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
@@ -13532,16 +13360,16 @@
         <v>11</v>
       </c>
       <c r="D585">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E585">
-        <v>320897.797558958</v>
+        <v>320713.89986529102</v>
       </c>
       <c r="F585">
-        <v>688792.26846647996</v>
+        <v>688704.17742196599</v>
       </c>
       <c r="G585">
-        <v>10322.4</v>
+        <v>10291.530000000001</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
@@ -13549,19 +13377,19 @@
         <v>34</v>
       </c>
       <c r="B586" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D586">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E586">
-        <v>320503.97479479498</v>
+        <v>320804.26018386497</v>
       </c>
       <c r="F586">
-        <v>688570.81280849804</v>
+        <v>688750.17499432701</v>
       </c>
       <c r="G586">
-        <v>16933.04</v>
+        <v>10514.93</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
@@ -13569,19 +13397,19 @@
         <v>34</v>
       </c>
       <c r="B587" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D587">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E587">
-        <v>320394.65335885499</v>
+        <v>320897.797558958</v>
       </c>
       <c r="F587">
-        <v>688572.330999834</v>
+        <v>688792.26846647996</v>
       </c>
       <c r="G587">
-        <v>16022.52</v>
+        <v>10322.4</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
@@ -13592,16 +13420,16 @@
         <v>7</v>
       </c>
       <c r="D588">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E588">
-        <v>320300.05286983802</v>
+        <v>320503.97479479498</v>
       </c>
       <c r="F588">
-        <v>688642.95421080396</v>
+        <v>688570.81280849804</v>
       </c>
       <c r="G588">
-        <v>13794.48</v>
+        <v>16933.04</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
@@ -13612,16 +13440,16 @@
         <v>7</v>
       </c>
       <c r="D589">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E589">
-        <v>320257.06155696302</v>
+        <v>320394.65335885499</v>
       </c>
       <c r="F589">
-        <v>688763.80028224504</v>
+        <v>688572.330999834</v>
       </c>
       <c r="G589">
-        <v>12048.68</v>
+        <v>16022.52</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
@@ -13632,16 +13460,16 @@
         <v>7</v>
       </c>
       <c r="D590">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E590">
-        <v>320197.53124564502</v>
+        <v>320300.05286983802</v>
       </c>
       <c r="F590">
-        <v>688853.34926597902</v>
+        <v>688642.95421080396</v>
       </c>
       <c r="G590">
-        <v>10751.01</v>
+        <v>13794.48</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
@@ -13649,19 +13477,19 @@
         <v>34</v>
       </c>
       <c r="B591" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D591">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E591">
-        <v>320535.31456242298</v>
+        <v>320257.06155696302</v>
       </c>
       <c r="F591">
-        <v>688517.28643629001</v>
+        <v>688763.80028224504</v>
       </c>
       <c r="G591">
-        <v>18630.990000000002</v>
+        <v>12048.68</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
@@ -13669,19 +13497,19 @@
         <v>34</v>
       </c>
       <c r="B592" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D592">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E592">
-        <v>320645.11555474799</v>
+        <v>320197.53124564502</v>
       </c>
       <c r="F592">
-        <v>688513.46110551897</v>
+        <v>688853.34926597902</v>
       </c>
       <c r="G592">
-        <v>13036.4</v>
+        <v>10751.01</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
@@ -13692,16 +13520,16 @@
         <v>25</v>
       </c>
       <c r="D593">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E593">
-        <v>320769.51842111401</v>
+        <v>320535.31456242298</v>
       </c>
       <c r="F593">
-        <v>688519.91085894301</v>
+        <v>688517.28643629001</v>
       </c>
       <c r="G593">
-        <v>10265.75</v>
+        <v>18630.990000000002</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
@@ -13712,16 +13540,16 @@
         <v>25</v>
       </c>
       <c r="D594">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E594">
-        <v>320868.922022513</v>
+        <v>320645.11555474799</v>
       </c>
       <c r="F594">
-        <v>688501.83170882298</v>
+        <v>688513.46110551897</v>
       </c>
       <c r="G594">
-        <v>10067.719999999999</v>
+        <v>13036.4</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
@@ -13732,16 +13560,16 @@
         <v>25</v>
       </c>
       <c r="D595">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E595">
-        <v>320967.41189535701</v>
+        <v>320769.51842111401</v>
       </c>
       <c r="F595">
-        <v>688483.058903525</v>
+        <v>688519.91085894301</v>
       </c>
       <c r="G595">
-        <v>10263.44</v>
+        <v>10265.75</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
@@ -13749,19 +13577,19 @@
         <v>34</v>
       </c>
       <c r="B596" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D596">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E596">
-        <v>320503.73152548802</v>
+        <v>320868.922022513</v>
       </c>
       <c r="F596">
-        <v>688569.95991849795</v>
+        <v>688501.83170882298</v>
       </c>
       <c r="G596">
-        <v>17342.86</v>
+        <v>10067.719999999999</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
@@ -13769,19 +13597,19 @@
         <v>34</v>
       </c>
       <c r="B597" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D597">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E597">
-        <v>320410.32805032702</v>
+        <v>320967.41189535701</v>
       </c>
       <c r="F597">
-        <v>688503.49678037001</v>
+        <v>688483.058903525</v>
       </c>
       <c r="G597">
-        <v>26650.82</v>
+        <v>10263.44</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
@@ -13792,16 +13620,16 @@
         <v>9</v>
       </c>
       <c r="D598">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E598">
-        <v>320423.91211241001</v>
+        <v>320503.73152548802</v>
       </c>
       <c r="F598">
-        <v>688328.61161559599</v>
+        <v>688569.95991849795</v>
       </c>
       <c r="G598">
-        <v>11817.57</v>
+        <v>17342.86</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
@@ -13812,16 +13640,16 @@
         <v>9</v>
       </c>
       <c r="D599">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E599">
-        <v>320427.82447813102</v>
+        <v>320410.32805032702</v>
       </c>
       <c r="F599">
-        <v>688206.78880114504</v>
+        <v>688503.49678037001</v>
       </c>
       <c r="G599">
-        <v>12435.29</v>
+        <v>26650.82</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
@@ -13832,67 +13660,61 @@
         <v>9</v>
       </c>
       <c r="D600">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E600">
-        <v>320475.24207073601</v>
+        <v>320423.91211241001</v>
       </c>
       <c r="F600">
-        <v>688100.10736432497</v>
+        <v>688328.61161559599</v>
       </c>
       <c r="G600">
-        <v>11819.94</v>
+        <v>11817.57</v>
       </c>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>47</v>
-      </c>
-      <c r="B601" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C601">
-        <v>2</v>
-      </c>
-      <c r="D601" s="35">
-        <v>1</v>
-      </c>
-      <c r="E601" s="36">
-        <v>313699.75500395597</v>
-      </c>
-      <c r="F601" s="36">
-        <v>743785.86870340398</v>
-      </c>
-      <c r="G601" s="37">
-        <v>13487.91</v>
+        <v>34</v>
+      </c>
+      <c r="B601" t="s">
+        <v>9</v>
+      </c>
+      <c r="D601">
+        <v>4</v>
+      </c>
+      <c r="E601">
+        <v>320427.82447813102</v>
+      </c>
+      <c r="F601">
+        <v>688206.78880114504</v>
+      </c>
+      <c r="G601">
+        <v>12435.29</v>
       </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A602" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B602" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C602">
-        <v>2</v>
-      </c>
-      <c r="D602" s="35">
-        <v>2</v>
-      </c>
-      <c r="E602" s="36">
-        <v>313818.51155451802</v>
-      </c>
-      <c r="F602" s="36">
-        <v>743793.26074119902</v>
-      </c>
-      <c r="G602" s="37">
-        <v>10370.879999999999</v>
+      <c r="A602" t="s">
+        <v>34</v>
+      </c>
+      <c r="B602" t="s">
+        <v>9</v>
+      </c>
+      <c r="D602">
+        <v>5</v>
+      </c>
+      <c r="E602">
+        <v>320475.24207073601</v>
+      </c>
+      <c r="F602">
+        <v>688100.10736432497</v>
+      </c>
+      <c r="G602">
+        <v>11819.94</v>
       </c>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A603" s="37" t="s">
-        <v>47</v>
+      <c r="A603" t="s">
+        <v>46</v>
       </c>
       <c r="B603" s="34" t="s">
         <v>13</v>
@@ -13901,21 +13723,21 @@
         <v>2</v>
       </c>
       <c r="D603" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E603" s="36">
-        <v>313919.83767413301</v>
+        <v>313699.75500395597</v>
       </c>
       <c r="F603" s="36">
-        <v>743777.14350742497</v>
+        <v>743785.86870340398</v>
       </c>
       <c r="G603" s="37">
-        <v>10191.18</v>
+        <v>13487.91</v>
       </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B604" s="34" t="s">
         <v>13</v>
@@ -13924,21 +13746,21 @@
         <v>2</v>
       </c>
       <c r="D604" s="35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E604" s="36">
-        <v>314019.75009227003</v>
+        <v>313818.51155451802</v>
       </c>
       <c r="F604" s="36">
-        <v>743759.32632451504</v>
+        <v>743793.26074119902</v>
       </c>
       <c r="G604" s="37">
-        <v>10121.799999999999</v>
+        <v>10370.879999999999</v>
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B605" s="34" t="s">
         <v>13</v>
@@ -13947,67 +13769,67 @@
         <v>2</v>
       </c>
       <c r="D605" s="35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E605" s="36">
-        <v>314117.89209023397</v>
+        <v>313919.83767413301</v>
       </c>
       <c r="F605" s="36">
-        <v>743732.51758865104</v>
+        <v>743777.14350742497</v>
       </c>
       <c r="G605" s="37">
-        <v>10291.219999999999</v>
+        <v>10191.18</v>
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B606" s="34" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C606">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D606" s="35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E606" s="36">
-        <v>313681.99251944502</v>
+        <v>314019.75009227003</v>
       </c>
       <c r="F606" s="36">
-        <v>743808.36014884501</v>
+        <v>743759.32632451504</v>
       </c>
       <c r="G606" s="37">
-        <v>14269.89</v>
+        <v>10121.799999999999</v>
       </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B607" s="34" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C607">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D607" s="35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E607" s="36">
-        <v>313693.66670062399</v>
+        <v>314117.89209023397</v>
       </c>
       <c r="F607" s="36">
-        <v>743928.89956835797</v>
+        <v>743732.51758865104</v>
       </c>
       <c r="G607" s="37">
-        <v>10266.92</v>
+        <v>10291.219999999999</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B608" s="34" t="s">
         <v>7</v>
@@ -14016,21 +13838,21 @@
         <v>1</v>
       </c>
       <c r="D608" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E608" s="36">
-        <v>313742.35435305099</v>
+        <v>313681.99251944502</v>
       </c>
       <c r="F608" s="36">
-        <v>744026.91790486698</v>
+        <v>743808.36014884501</v>
       </c>
       <c r="G608" s="37">
-        <v>16822.009999999998</v>
+        <v>14269.89</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B609" s="34" t="s">
         <v>7</v>
@@ -14039,21 +13861,21 @@
         <v>1</v>
       </c>
       <c r="D609" s="35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E609" s="36">
-        <v>313883.458204631</v>
+        <v>313693.66670062399</v>
       </c>
       <c r="F609" s="36">
-        <v>744039.18997708894</v>
+        <v>743928.89956835797</v>
       </c>
       <c r="G609" s="37">
-        <v>22833.91</v>
+        <v>10266.92</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B610" s="34" t="s">
         <v>7</v>
@@ -14062,67 +13884,67 @@
         <v>1</v>
       </c>
       <c r="D610" s="35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E610" s="36">
-        <v>313977.05245615903</v>
+        <v>313742.35435305099</v>
       </c>
       <c r="F610" s="36">
-        <v>744063.51629844797</v>
+        <v>744026.91790486698</v>
       </c>
       <c r="G610" s="37">
-        <v>5531.78</v>
+        <v>16822.009999999998</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B611" s="34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C611">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D611" s="35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E611" s="36">
-        <v>313683.74271927099</v>
+        <v>313883.458204631</v>
       </c>
       <c r="F611" s="36">
-        <v>743756.38872840302</v>
+        <v>744039.18997708894</v>
       </c>
       <c r="G611" s="37">
-        <v>13308.55</v>
+        <v>22833.91</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B612" s="34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C612">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D612" s="35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E612" s="36">
-        <v>313686.18065574602</v>
+        <v>313977.05245615903</v>
       </c>
       <c r="F612" s="36">
-        <v>743636.304024652</v>
+        <v>744063.51629844797</v>
       </c>
       <c r="G612" s="37">
-        <v>10852.93</v>
+        <v>5531.78</v>
       </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B613" s="34" t="s">
         <v>9</v>
@@ -14131,21 +13953,21 @@
         <v>3</v>
       </c>
       <c r="D613" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E613" s="36">
-        <v>313666.460445442</v>
+        <v>313683.74271927099</v>
       </c>
       <c r="F613" s="36">
-        <v>743540.99419766502</v>
+        <v>743756.38872840302</v>
       </c>
       <c r="G613" s="37">
-        <v>13912.96</v>
+        <v>13308.55</v>
       </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B614" s="34" t="s">
         <v>9</v>
@@ -14154,21 +13976,21 @@
         <v>3</v>
       </c>
       <c r="D614" s="35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E614" s="36">
-        <v>313672.38831481402</v>
+        <v>313686.18065574602</v>
       </c>
       <c r="F614" s="36">
-        <v>743435.40450222103</v>
+        <v>743636.304024652</v>
       </c>
       <c r="G614" s="37">
-        <v>10029.950000000001</v>
+        <v>10852.93</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B615" s="34" t="s">
         <v>9</v>
@@ -14177,67 +13999,67 @@
         <v>3</v>
       </c>
       <c r="D615" s="35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E615" s="36">
-        <v>313670.96040045202</v>
+        <v>313666.460445442</v>
       </c>
       <c r="F615" s="36">
-        <v>743335.16912407405</v>
+        <v>743540.99419766502</v>
       </c>
       <c r="G615" s="37">
-        <v>10018.879999999999</v>
+        <v>13912.96</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B616" s="34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C616">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D616" s="35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E616" s="36">
-        <v>313646.386870099</v>
+        <v>313672.38831481402</v>
       </c>
       <c r="F616" s="36">
-        <v>743777.07946782198</v>
+        <v>743435.40450222103</v>
       </c>
       <c r="G616" s="37">
-        <v>13826.31</v>
+        <v>10029.950000000001</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B617" s="34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C617">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D617" s="35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E617" s="36">
-        <v>313527.155072155</v>
+        <v>313670.96040045202</v>
       </c>
       <c r="F617" s="36">
-        <v>743804.57835644996</v>
+        <v>743335.16912407405</v>
       </c>
       <c r="G617" s="37">
-        <v>18248.71</v>
+        <v>10018.879999999999</v>
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B618" s="34" t="s">
         <v>8</v>
@@ -14246,67 +14068,67 @@
         <v>4</v>
       </c>
       <c r="D618" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E618" s="36">
+        <v>313646.386870099</v>
+      </c>
+      <c r="F618" s="36">
+        <v>743777.07946782198</v>
+      </c>
+      <c r="G618" s="37">
+        <v>13826.31</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A619" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B619" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C619">
+        <v>4</v>
+      </c>
+      <c r="D619" s="35">
+        <v>2</v>
+      </c>
+      <c r="E619" s="36">
+        <v>313527.155072155</v>
+      </c>
+      <c r="F619" s="36">
+        <v>743804.57835644996</v>
+      </c>
+      <c r="G619" s="37">
+        <v>18248.71</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A620" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B620" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C620">
+        <v>4</v>
+      </c>
+      <c r="D620" s="35">
+        <v>3</v>
+      </c>
+      <c r="E620" s="36">
         <v>313493.987205329</v>
       </c>
-      <c r="F618" s="36">
+      <c r="F620" s="36">
         <v>743927.42898607801</v>
       </c>
-      <c r="G618" s="37">
+      <c r="G620" s="37">
         <v>10275.32</v>
-      </c>
-    </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A619" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B619" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C619">
-        <v>4</v>
-      </c>
-      <c r="D619" s="38">
-        <v>1</v>
-      </c>
-      <c r="E619" s="39">
-        <v>367950.71361234901</v>
-      </c>
-      <c r="F619" s="39">
-        <v>638926.30703661102</v>
-      </c>
-      <c r="G619" s="38">
-        <v>13175.61</v>
-      </c>
-    </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A620" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B620" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C620">
-        <v>4</v>
-      </c>
-      <c r="D620" s="38">
-        <v>2</v>
-      </c>
-      <c r="E620" s="39">
-        <v>367954.98971576203</v>
-      </c>
-      <c r="F620" s="39">
-        <v>639043.55513509398</v>
-      </c>
-      <c r="G620" s="38">
-        <v>10218.26</v>
       </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B621" s="38" t="s">
         <v>7</v>
@@ -14315,21 +14137,21 @@
         <v>4</v>
       </c>
       <c r="D621" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E621" s="39">
-        <v>367958.28430649702</v>
+        <v>367950.71361234901</v>
       </c>
       <c r="F621" s="39">
-        <v>639145.17740835203</v>
+        <v>638926.30703661102</v>
       </c>
       <c r="G621" s="38">
-        <v>10120.74</v>
+        <v>13175.61</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B622" s="38" t="s">
         <v>7</v>
@@ -14338,21 +14160,21 @@
         <v>4</v>
       </c>
       <c r="D622" s="38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E622" s="39">
-        <v>367943.358942413</v>
+        <v>367954.98971576203</v>
       </c>
       <c r="F622" s="39">
-        <v>639245.47928524402</v>
+        <v>639043.55513509398</v>
       </c>
       <c r="G622" s="38">
-        <v>11753.16</v>
+        <v>10218.26</v>
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B623" s="38" t="s">
         <v>7</v>
@@ -14361,67 +14183,67 @@
         <v>4</v>
       </c>
       <c r="D623" s="38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E623" s="39">
-        <v>367880.65925151599</v>
+        <v>367958.28430649702</v>
       </c>
       <c r="F623" s="39">
-        <v>639338.64191091596</v>
+        <v>639145.17740835203</v>
       </c>
       <c r="G623" s="38">
-        <v>11022.41</v>
+        <v>10120.74</v>
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B624" s="38" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C624">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D624" s="38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E624" s="39">
-        <v>367978.42639294098</v>
+        <v>367943.358942413</v>
       </c>
       <c r="F624" s="39">
-        <v>638903.65465183696</v>
+        <v>639245.47928524402</v>
       </c>
       <c r="G624" s="38">
-        <v>14288.36</v>
+        <v>11753.16</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B625" s="38" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C625">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D625" s="38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E625" s="39">
-        <v>368073.08558955899</v>
+        <v>367880.65925151599</v>
       </c>
       <c r="F625" s="39">
-        <v>638974.70962825604</v>
+        <v>639338.64191091596</v>
       </c>
       <c r="G625" s="38">
-        <v>10603.89</v>
+        <v>11022.41</v>
       </c>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B626" s="38" t="s">
         <v>11</v>
@@ -14430,21 +14252,21 @@
         <v>1</v>
       </c>
       <c r="D626" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E626" s="39">
-        <v>368144.64122594602</v>
+        <v>367978.42639294098</v>
       </c>
       <c r="F626" s="39">
-        <v>639050.62848141103</v>
+        <v>638903.65465183696</v>
       </c>
       <c r="G626" s="38">
-        <v>10157</v>
+        <v>14288.36</v>
       </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B627" s="38" t="s">
         <v>11</v>
@@ -14453,21 +14275,21 @@
         <v>1</v>
       </c>
       <c r="D627" s="38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E627" s="39">
-        <v>368215.36733304599</v>
+        <v>368073.08558955899</v>
       </c>
       <c r="F627" s="39">
-        <v>639122.98837065801</v>
+        <v>638974.70962825604</v>
       </c>
       <c r="G627" s="38">
-        <v>10069.76</v>
+        <v>10603.89</v>
       </c>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B628" s="38" t="s">
         <v>11</v>
@@ -14476,67 +14298,67 @@
         <v>1</v>
       </c>
       <c r="D628" s="38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E628" s="39">
-        <v>368285.801527737</v>
+        <v>368144.64122594602</v>
       </c>
       <c r="F628" s="39">
-        <v>639194.68081860302</v>
+        <v>639050.62848141103</v>
       </c>
       <c r="G628" s="38">
-        <v>10027.549999999999</v>
+        <v>10157</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B629" s="38" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C629">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D629" s="38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E629" s="39">
-        <v>367948.49731727701</v>
+        <v>368215.36733304599</v>
       </c>
       <c r="F629" s="39">
-        <v>638869.12264840305</v>
+        <v>639122.98837065801</v>
       </c>
       <c r="G629" s="38">
-        <v>14422.3</v>
+        <v>10069.76</v>
       </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B630" s="38" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C630">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D630" s="38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E630" s="39">
-        <v>367998.74521020299</v>
+        <v>368285.801527737</v>
       </c>
       <c r="F630" s="39">
-        <v>638760.97627327195</v>
+        <v>639194.68081860302</v>
       </c>
       <c r="G630" s="38">
-        <v>10943.39</v>
+        <v>10027.549999999999</v>
       </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B631" s="38" t="s">
         <v>25</v>
@@ -14545,21 +14367,21 @@
         <v>2</v>
       </c>
       <c r="D631" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E631" s="39">
-        <v>368067.183457851</v>
+        <v>367948.49731727701</v>
       </c>
       <c r="F631" s="39">
-        <v>638678.85379403899</v>
+        <v>638869.12264840305</v>
       </c>
       <c r="G631" s="38">
-        <v>10223.99</v>
+        <v>14422.3</v>
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B632" s="38" t="s">
         <v>25</v>
@@ -14568,67 +14390,67 @@
         <v>2</v>
       </c>
       <c r="D632" s="38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E632" s="39">
-        <v>368104.67345866997</v>
+        <v>367998.74521020299</v>
       </c>
       <c r="F632" s="39">
-        <v>638626.47343975503</v>
+        <v>638760.97627327195</v>
       </c>
       <c r="G632" s="38">
-        <v>2122.7199999999998</v>
+        <v>10943.39</v>
       </c>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B633" s="38" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C633">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D633" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E633" s="39">
-        <v>367921.79665739898</v>
+        <v>368067.183457851</v>
       </c>
       <c r="F633" s="39">
-        <v>638906.07924646605</v>
+        <v>638678.85379403899</v>
       </c>
       <c r="G633" s="38">
-        <v>14145.89</v>
+        <v>10223.99</v>
       </c>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B634" s="38" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C634">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D634" s="38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E634" s="39">
-        <v>367833.28118283697</v>
+        <v>368104.67345866997</v>
       </c>
       <c r="F634" s="39">
-        <v>638983.87342290801</v>
+        <v>638626.47343975503</v>
       </c>
       <c r="G634" s="38">
-        <v>10625.23</v>
+        <v>2122.7199999999998</v>
       </c>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B635" s="38" t="s">
         <v>8</v>
@@ -14637,21 +14459,21 @@
         <v>3</v>
       </c>
       <c r="D635" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E635" s="39">
-        <v>367735.95432093798</v>
+        <v>367921.79665739898</v>
       </c>
       <c r="F635" s="39">
-        <v>639026.09450210002</v>
+        <v>638906.07924646605</v>
       </c>
       <c r="G635" s="38">
-        <v>17505.62</v>
+        <v>14145.89</v>
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B636" s="38" t="s">
         <v>8</v>
@@ -14660,21 +14482,21 @@
         <v>3</v>
       </c>
       <c r="D636" s="38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E636" s="39">
-        <v>367613.242257379</v>
+        <v>367833.28118283697</v>
       </c>
       <c r="F636" s="39">
-        <v>638946.67094756104</v>
+        <v>638983.87342290801</v>
       </c>
       <c r="G636" s="38">
-        <v>13924.63</v>
+        <v>10625.23</v>
       </c>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B637" s="38" t="s">
         <v>8</v>
@@ -14683,15 +14505,61 @@
         <v>3</v>
       </c>
       <c r="D637" s="38">
+        <v>3</v>
+      </c>
+      <c r="E637" s="39">
+        <v>367735.95432093798</v>
+      </c>
+      <c r="F637" s="39">
+        <v>639026.09450210002</v>
+      </c>
+      <c r="G637" s="38">
+        <v>17505.62</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A638" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B638" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C638">
+        <v>3</v>
+      </c>
+      <c r="D638" s="38">
+        <v>4</v>
+      </c>
+      <c r="E638" s="39">
+        <v>367613.242257379</v>
+      </c>
+      <c r="F638" s="39">
+        <v>638946.67094756104</v>
+      </c>
+      <c r="G638" s="38">
+        <v>13924.63</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A639" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B639" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C639">
+        <v>3</v>
+      </c>
+      <c r="D639" s="38">
         <v>5</v>
       </c>
-      <c r="E637" s="39">
+      <c r="E639" s="39">
         <v>367541.92979790398</v>
       </c>
-      <c r="F637" s="39">
+      <c r="F639" s="39">
         <v>638911.64446886105</v>
       </c>
-      <c r="G637" s="38">
+      <c r="G639" s="38">
         <v>1351.89</v>
       </c>
     </row>
